--- a/Fitness LIGNE 1.xlsx
+++ b/Fitness LIGNE 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\fiche_produit_excel\CRA corrected FP\Bert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\fiche_produit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0E4FA-9285-491D-83F9-17613CE92750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85DE95-04C3-44CF-B6F2-8AD33CBAC85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="36195" yWindow="6135" windowWidth="21600" windowHeight="8880" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche technique" sheetId="28" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="Standards">Données!$E$2:$E$6</definedName>
     <definedName name="trigrammes">Données!$E$9:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4614,62 +4614,1024 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="87" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4857,10 +5819,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4905,1021 +5870,56 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="87" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -7453,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64:V65"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7491,77 +7491,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="44" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="411"/>
-      <c r="B1" s="412"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="420" t="s">
+      <c r="A1" s="187"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="196" t="s">
         <v>904</v>
       </c>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
-      <c r="N1" s="421"/>
-      <c r="O1" s="421"/>
-      <c r="P1" s="421"/>
-      <c r="Q1" s="421"/>
-      <c r="R1" s="421"/>
-      <c r="S1" s="421"/>
-      <c r="T1" s="421"/>
-      <c r="U1" s="421"/>
-      <c r="V1" s="421"/>
-      <c r="W1" s="421"/>
-      <c r="X1" s="421"/>
-      <c r="Y1" s="422"/>
-      <c r="Z1" s="423" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="199" t="s">
         <v>885</v>
       </c>
-      <c r="AA1" s="421"/>
-      <c r="AB1" s="421"/>
-      <c r="AC1" s="421"/>
-      <c r="AD1" s="421"/>
-      <c r="AE1" s="421"/>
-      <c r="AF1" s="421"/>
-      <c r="AG1" s="421"/>
-      <c r="AH1" s="421"/>
-      <c r="AI1" s="421"/>
-      <c r="AJ1" s="422"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="198"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="414"/>
-      <c r="B2" s="415"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="424" t="s">
+      <c r="A2" s="190"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="425"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="427" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="203" t="s">
         <v>933</v>
       </c>
-      <c r="H2" s="428"/>
-      <c r="I2" s="428"/>
-      <c r="J2" s="428"/>
-      <c r="K2" s="428"/>
-      <c r="L2" s="428"/>
-      <c r="M2" s="428"/>
-      <c r="N2" s="428"/>
-      <c r="O2" s="428"/>
-      <c r="P2" s="428"/>
-      <c r="Q2" s="428"/>
-      <c r="R2" s="428"/>
-      <c r="S2" s="428"/>
-      <c r="T2" s="428"/>
-      <c r="U2" s="428"/>
-      <c r="V2" s="428"/>
-      <c r="W2" s="428"/>
-      <c r="X2" s="428"/>
-      <c r="Y2" s="429"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="205"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -7575,84 +7575,84 @@
       <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="417"/>
-      <c r="B3" s="418"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="430" t="s">
+      <c r="A3" s="193"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="206" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="431"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="433" t="s">
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="209" t="s">
         <v>924</v>
       </c>
-      <c r="H3" s="434"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="434"/>
-      <c r="K3" s="434"/>
-      <c r="L3" s="434"/>
-      <c r="M3" s="434"/>
-      <c r="N3" s="434"/>
-      <c r="O3" s="434"/>
-      <c r="P3" s="434"/>
-      <c r="Q3" s="434"/>
-      <c r="R3" s="434"/>
-      <c r="S3" s="434"/>
-      <c r="T3" s="434"/>
-      <c r="U3" s="434"/>
-      <c r="V3" s="434"/>
-      <c r="W3" s="434"/>
-      <c r="X3" s="434"/>
-      <c r="Y3" s="435"/>
-      <c r="Z3" s="336" t="s">
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="210"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212" t="s">
         <v>897</v>
       </c>
-      <c r="AA3" s="337"/>
-      <c r="AB3" s="338"/>
-      <c r="AC3" s="436"/>
-      <c r="AD3" s="437"/>
-      <c r="AE3" s="438"/>
-      <c r="AF3" s="438"/>
-      <c r="AG3" s="438"/>
-      <c r="AH3" s="393"/>
-      <c r="AI3" s="393"/>
-      <c r="AJ3" s="394"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="216"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="217"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="170"/>
       <c r="AM3" s="72"/>
     </row>
     <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="397">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173">
         <v>78</v>
       </c>
-      <c r="E4" s="399" t="s">
+      <c r="E4" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="400"/>
-      <c r="G4" s="401" t="s">
+      <c r="F4" s="176"/>
+      <c r="G4" s="177" t="s">
         <v>915</v>
       </c>
-      <c r="H4" s="402"/>
-      <c r="I4" s="402"/>
-      <c r="J4" s="402"/>
-      <c r="K4" s="402"/>
-      <c r="L4" s="402"/>
-      <c r="M4" s="402"/>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="402"/>
-      <c r="R4" s="402"/>
-      <c r="S4" s="402"/>
-      <c r="T4" s="402"/>
-      <c r="U4" s="402"/>
-      <c r="V4" s="402"/>
-      <c r="W4" s="402"/>
-      <c r="X4" s="402"/>
-      <c r="Y4" s="403"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="179"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="46"/>
       <c r="AB4" s="46"/>
@@ -7666,37 +7666,37 @@
       <c r="AJ4" s="50"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="404" t="s">
+      <c r="A5" s="180" t="s">
         <v>906</v>
       </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="406" t="s">
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="407"/>
-      <c r="G5" s="408" t="s">
+      <c r="F5" s="183"/>
+      <c r="G5" s="184" t="s">
         <v>916</v>
       </c>
-      <c r="H5" s="409"/>
-      <c r="I5" s="409"/>
-      <c r="J5" s="409"/>
-      <c r="K5" s="409"/>
-      <c r="L5" s="409"/>
-      <c r="M5" s="409"/>
-      <c r="N5" s="409"/>
-      <c r="O5" s="409"/>
-      <c r="P5" s="409"/>
-      <c r="Q5" s="409"/>
-      <c r="R5" s="409"/>
-      <c r="S5" s="409"/>
-      <c r="T5" s="409"/>
-      <c r="U5" s="409"/>
-      <c r="V5" s="409"/>
-      <c r="W5" s="409"/>
-      <c r="X5" s="409"/>
-      <c r="Y5" s="410"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="186"/>
       <c r="Z5" s="45"/>
       <c r="AA5" s="46"/>
       <c r="AB5" s="46"/>
@@ -7710,133 +7710,133 @@
       <c r="AJ5" s="50"/>
     </row>
     <row r="6" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="377" t="s">
+      <c r="A6" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="378"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="381" t="s">
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="268" t="s">
         <v>927</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="383"/>
-      <c r="G6" s="387" t="s">
+      <c r="E6" s="269"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="274" t="s">
         <v>887</v>
       </c>
-      <c r="H6" s="388"/>
-      <c r="I6" s="388"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="365" t="s">
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="252" t="s">
         <v>925</v>
       </c>
-      <c r="L6" s="366"/>
-      <c r="M6" s="366"/>
-      <c r="N6" s="366"/>
-      <c r="O6" s="366"/>
-      <c r="P6" s="367"/>
-      <c r="Q6" s="371" t="s">
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="253"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="258" t="s">
         <v>910</v>
       </c>
-      <c r="R6" s="372"/>
-      <c r="S6" s="373"/>
-      <c r="T6" s="365" t="s">
+      <c r="R6" s="259"/>
+      <c r="S6" s="260"/>
+      <c r="T6" s="252" t="s">
         <v>929</v>
       </c>
-      <c r="U6" s="366"/>
-      <c r="V6" s="366"/>
-      <c r="W6" s="366"/>
-      <c r="X6" s="366"/>
-      <c r="Y6" s="367"/>
-      <c r="Z6" s="347" t="s">
+      <c r="U6" s="253"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="254"/>
+      <c r="Z6" s="231" t="s">
         <v>898</v>
       </c>
-      <c r="AA6" s="348"/>
-      <c r="AB6" s="267"/>
-      <c r="AC6" s="349"/>
-      <c r="AD6" s="350"/>
-      <c r="AE6" s="350"/>
-      <c r="AF6" s="350"/>
-      <c r="AG6" s="350"/>
-      <c r="AH6" s="350"/>
-      <c r="AI6" s="350"/>
-      <c r="AJ6" s="351"/>
+      <c r="AA6" s="232"/>
+      <c r="AB6" s="233"/>
+      <c r="AC6" s="236"/>
+      <c r="AD6" s="237"/>
+      <c r="AE6" s="237"/>
+      <c r="AF6" s="237"/>
+      <c r="AG6" s="237"/>
+      <c r="AH6" s="237"/>
+      <c r="AI6" s="237"/>
+      <c r="AJ6" s="238"/>
     </row>
     <row r="7" spans="1:39" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="380"/>
-      <c r="C7" s="380"/>
-      <c r="D7" s="384"/>
-      <c r="E7" s="385"/>
-      <c r="F7" s="386"/>
-      <c r="G7" s="390"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="391"/>
-      <c r="J7" s="392"/>
-      <c r="K7" s="368"/>
-      <c r="L7" s="369"/>
-      <c r="M7" s="369"/>
-      <c r="N7" s="369"/>
-      <c r="O7" s="369"/>
-      <c r="P7" s="370"/>
-      <c r="Q7" s="374"/>
-      <c r="R7" s="375"/>
-      <c r="S7" s="376"/>
-      <c r="T7" s="368"/>
-      <c r="U7" s="369"/>
-      <c r="V7" s="369"/>
-      <c r="W7" s="369"/>
-      <c r="X7" s="369"/>
-      <c r="Y7" s="370"/>
-      <c r="Z7" s="195"/>
-      <c r="AA7" s="195"/>
-      <c r="AB7" s="196"/>
-      <c r="AC7" s="352"/>
-      <c r="AD7" s="353"/>
-      <c r="AE7" s="353"/>
-      <c r="AF7" s="353"/>
-      <c r="AG7" s="353"/>
-      <c r="AH7" s="353"/>
-      <c r="AI7" s="353"/>
-      <c r="AJ7" s="354"/>
+      <c r="A7" s="266"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="234"/>
+      <c r="AA7" s="234"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="239"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
+      <c r="AJ7" s="241"/>
     </row>
     <row r="8" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="355" t="s">
+      <c r="A8" s="242" t="s">
         <v>905</v>
       </c>
-      <c r="B8" s="356"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="359" t="s">
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="246" t="s">
         <v>928</v>
       </c>
-      <c r="E8" s="360"/>
-      <c r="F8" s="361"/>
-      <c r="G8" s="387" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="274" t="s">
         <v>911</v>
       </c>
-      <c r="H8" s="388"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="365" t="s">
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="252" t="s">
         <v>926</v>
       </c>
-      <c r="L8" s="366"/>
-      <c r="M8" s="366"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="366"/>
-      <c r="P8" s="367"/>
-      <c r="Q8" s="371" t="s">
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="258" t="s">
         <v>912</v>
       </c>
-      <c r="R8" s="372"/>
-      <c r="S8" s="373"/>
-      <c r="T8" s="365" t="s">
+      <c r="R8" s="259"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="252" t="s">
         <v>669</v>
       </c>
-      <c r="U8" s="366"/>
-      <c r="V8" s="366"/>
-      <c r="W8" s="366"/>
-      <c r="X8" s="366"/>
-      <c r="Y8" s="367"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="254"/>
       <c r="Z8" s="96"/>
       <c r="AA8" s="46"/>
       <c r="AB8" s="46"/>
@@ -7850,31 +7850,31 @@
       <c r="AJ8" s="50"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="362"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="390"/>
-      <c r="H9" s="391"/>
-      <c r="I9" s="391"/>
-      <c r="J9" s="392"/>
-      <c r="K9" s="368"/>
-      <c r="L9" s="369"/>
-      <c r="M9" s="369"/>
-      <c r="N9" s="369"/>
-      <c r="O9" s="369"/>
-      <c r="P9" s="370"/>
-      <c r="Q9" s="374"/>
-      <c r="R9" s="375"/>
-      <c r="S9" s="376"/>
-      <c r="T9" s="368"/>
-      <c r="U9" s="369"/>
-      <c r="V9" s="369"/>
-      <c r="W9" s="369"/>
-      <c r="X9" s="369"/>
-      <c r="Y9" s="370"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="277"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="255"/>
+      <c r="L9" s="256"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="256"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="255"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="256"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="257"/>
       <c r="Z9" s="46"/>
       <c r="AA9" s="46"/>
       <c r="AB9" s="46"/>
@@ -7888,79 +7888,79 @@
       <c r="AJ9" s="52"/>
     </row>
     <row r="10" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="331" t="s">
+      <c r="A10" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="332"/>
-      <c r="C10" s="333"/>
-      <c r="D10" s="334" t="s">
+      <c r="B10" s="219"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="221" t="s">
         <v>931</v>
       </c>
-      <c r="E10" s="334"/>
-      <c r="F10" s="334"/>
-      <c r="G10" s="334"/>
-      <c r="H10" s="334"/>
-      <c r="I10" s="334"/>
-      <c r="J10" s="334"/>
-      <c r="K10" s="334"/>
-      <c r="L10" s="334"/>
-      <c r="M10" s="334"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="334"/>
-      <c r="P10" s="334"/>
-      <c r="Q10" s="334"/>
-      <c r="R10" s="334"/>
-      <c r="S10" s="334"/>
-      <c r="T10" s="334"/>
-      <c r="U10" s="334"/>
-      <c r="V10" s="334"/>
-      <c r="W10" s="334"/>
-      <c r="X10" s="334"/>
-      <c r="Y10" s="335"/>
-      <c r="Z10" s="336" t="s">
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="221"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="212" t="s">
         <v>899</v>
       </c>
-      <c r="AA10" s="337"/>
-      <c r="AB10" s="338"/>
-      <c r="AC10" s="339"/>
-      <c r="AD10" s="340"/>
-      <c r="AE10" s="340"/>
-      <c r="AF10" s="340"/>
-      <c r="AG10" s="340"/>
-      <c r="AH10" s="340"/>
-      <c r="AI10" s="340"/>
-      <c r="AJ10" s="341"/>
+      <c r="AA10" s="213"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="223"/>
+      <c r="AD10" s="224"/>
+      <c r="AE10" s="224"/>
+      <c r="AF10" s="224"/>
+      <c r="AG10" s="224"/>
+      <c r="AH10" s="224"/>
+      <c r="AI10" s="224"/>
+      <c r="AJ10" s="225"/>
     </row>
     <row r="11" spans="1:39" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="342" t="s">
+      <c r="A11" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="343"/>
-      <c r="C11" s="344"/>
-      <c r="D11" s="345" t="s">
+      <c r="B11" s="227"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="229" t="s">
         <v>932</v>
       </c>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="345"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="345"/>
-      <c r="S11" s="345"/>
-      <c r="T11" s="345"/>
-      <c r="U11" s="345"/>
-      <c r="V11" s="345"/>
-      <c r="W11" s="345"/>
-      <c r="X11" s="345"/>
-      <c r="Y11" s="346"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="229"/>
+      <c r="N11" s="229"/>
+      <c r="O11" s="229"/>
+      <c r="P11" s="229"/>
+      <c r="Q11" s="229"/>
+      <c r="R11" s="229"/>
+      <c r="S11" s="229"/>
+      <c r="T11" s="229"/>
+      <c r="U11" s="229"/>
+      <c r="V11" s="229"/>
+      <c r="W11" s="229"/>
+      <c r="X11" s="229"/>
+      <c r="Y11" s="230"/>
       <c r="Z11" s="83"/>
       <c r="AA11" s="47"/>
       <c r="AB11" s="47"/>
@@ -7974,154 +7974,154 @@
       <c r="AJ11" s="48"/>
     </row>
     <row r="12" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="245" t="s">
+      <c r="A12" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="279" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="281"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="281"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="314" t="s">
         <v>892</v>
       </c>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="280"/>
-      <c r="Z12" s="248" t="s">
+      <c r="M12" s="281"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="281"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="281"/>
+      <c r="W12" s="281"/>
+      <c r="X12" s="281"/>
+      <c r="Y12" s="315"/>
+      <c r="Z12" s="283" t="s">
         <v>886</v>
       </c>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="250"/>
-      <c r="AC12" s="257"/>
-      <c r="AD12" s="258"/>
-      <c r="AE12" s="258"/>
-      <c r="AF12" s="258"/>
-      <c r="AG12" s="258"/>
-      <c r="AH12" s="258"/>
-      <c r="AI12" s="258"/>
-      <c r="AJ12" s="259"/>
+      <c r="AA12" s="284"/>
+      <c r="AB12" s="285"/>
+      <c r="AC12" s="292"/>
+      <c r="AD12" s="293"/>
+      <c r="AE12" s="293"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="293"/>
+      <c r="AJ12" s="294"/>
     </row>
     <row r="13" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="323" t="s">
+      <c r="A13" s="361" t="s">
         <v>934</v>
       </c>
-      <c r="B13" s="324"/>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="324"/>
-      <c r="J13" s="324"/>
-      <c r="K13" s="325"/>
+      <c r="B13" s="362"/>
+      <c r="C13" s="362"/>
+      <c r="D13" s="362"/>
+      <c r="E13" s="362"/>
+      <c r="F13" s="362"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="362"/>
+      <c r="I13" s="362"/>
+      <c r="J13" s="362"/>
+      <c r="K13" s="363"/>
       <c r="L13" s="97"/>
-      <c r="M13" s="329" t="s">
+      <c r="M13" s="367" t="s">
         <v>935</v>
       </c>
-      <c r="N13" s="329"/>
-      <c r="O13" s="329"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="329"/>
-      <c r="R13" s="329"/>
-      <c r="S13" s="329"/>
-      <c r="T13" s="329"/>
-      <c r="U13" s="329"/>
-      <c r="V13" s="329"/>
-      <c r="W13" s="329"/>
-      <c r="X13" s="329"/>
+      <c r="N13" s="367"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="367"/>
+      <c r="Q13" s="367"/>
+      <c r="R13" s="367"/>
+      <c r="S13" s="367"/>
+      <c r="T13" s="367"/>
+      <c r="U13" s="367"/>
+      <c r="V13" s="367"/>
+      <c r="W13" s="367"/>
+      <c r="X13" s="367"/>
       <c r="Y13" s="98"/>
-      <c r="Z13" s="251"/>
-      <c r="AA13" s="252"/>
-      <c r="AB13" s="253"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="261"/>
-      <c r="AF13" s="261"/>
-      <c r="AG13" s="261"/>
-      <c r="AH13" s="261"/>
-      <c r="AI13" s="261"/>
-      <c r="AJ13" s="262"/>
+      <c r="Z13" s="286"/>
+      <c r="AA13" s="287"/>
+      <c r="AB13" s="288"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="296"/>
+      <c r="AE13" s="296"/>
+      <c r="AF13" s="296"/>
+      <c r="AG13" s="296"/>
+      <c r="AH13" s="296"/>
+      <c r="AI13" s="296"/>
+      <c r="AJ13" s="297"/>
     </row>
     <row r="14" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="326"/>
-      <c r="B14" s="327"/>
-      <c r="C14" s="327"/>
-      <c r="D14" s="327"/>
-      <c r="E14" s="327"/>
-      <c r="F14" s="327"/>
-      <c r="G14" s="327"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="327"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="328"/>
+      <c r="A14" s="364"/>
+      <c r="B14" s="365"/>
+      <c r="C14" s="365"/>
+      <c r="D14" s="365"/>
+      <c r="E14" s="365"/>
+      <c r="F14" s="365"/>
+      <c r="G14" s="365"/>
+      <c r="H14" s="365"/>
+      <c r="I14" s="365"/>
+      <c r="J14" s="365"/>
+      <c r="K14" s="366"/>
       <c r="L14" s="97"/>
-      <c r="M14" s="330"/>
-      <c r="N14" s="330"/>
-      <c r="O14" s="330"/>
-      <c r="P14" s="330"/>
-      <c r="Q14" s="330"/>
-      <c r="R14" s="330"/>
-      <c r="S14" s="330"/>
-      <c r="T14" s="330"/>
-      <c r="U14" s="330"/>
-      <c r="V14" s="330"/>
-      <c r="W14" s="330"/>
-      <c r="X14" s="330"/>
+      <c r="M14" s="368"/>
+      <c r="N14" s="368"/>
+      <c r="O14" s="368"/>
+      <c r="P14" s="368"/>
+      <c r="Q14" s="368"/>
+      <c r="R14" s="368"/>
+      <c r="S14" s="368"/>
+      <c r="T14" s="368"/>
+      <c r="U14" s="368"/>
+      <c r="V14" s="368"/>
+      <c r="W14" s="368"/>
+      <c r="X14" s="368"/>
       <c r="Y14" s="99"/>
-      <c r="Z14" s="254"/>
-      <c r="AA14" s="255"/>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="264"/>
-      <c r="AE14" s="264"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="264"/>
-      <c r="AH14" s="264"/>
-      <c r="AI14" s="264"/>
-      <c r="AJ14" s="265"/>
+      <c r="Z14" s="289"/>
+      <c r="AA14" s="290"/>
+      <c r="AB14" s="291"/>
+      <c r="AC14" s="298"/>
+      <c r="AD14" s="299"/>
+      <c r="AE14" s="299"/>
+      <c r="AF14" s="299"/>
+      <c r="AG14" s="299"/>
+      <c r="AH14" s="299"/>
+      <c r="AI14" s="299"/>
+      <c r="AJ14" s="300"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="326"/>
-      <c r="B15" s="327"/>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="327"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="328"/>
+      <c r="A15" s="364"/>
+      <c r="B15" s="365"/>
+      <c r="C15" s="365"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="365"/>
+      <c r="J15" s="365"/>
+      <c r="K15" s="366"/>
       <c r="L15" s="97"/>
-      <c r="M15" s="330"/>
-      <c r="N15" s="330"/>
-      <c r="O15" s="330"/>
-      <c r="P15" s="330"/>
-      <c r="Q15" s="330"/>
-      <c r="R15" s="330"/>
-      <c r="S15" s="330"/>
-      <c r="T15" s="330"/>
-      <c r="U15" s="330"/>
-      <c r="V15" s="330"/>
-      <c r="W15" s="330"/>
-      <c r="X15" s="330"/>
+      <c r="M15" s="368"/>
+      <c r="N15" s="368"/>
+      <c r="O15" s="368"/>
+      <c r="P15" s="368"/>
+      <c r="Q15" s="368"/>
+      <c r="R15" s="368"/>
+      <c r="S15" s="368"/>
+      <c r="T15" s="368"/>
+      <c r="U15" s="368"/>
+      <c r="V15" s="368"/>
+      <c r="W15" s="368"/>
+      <c r="X15" s="368"/>
       <c r="Y15" s="99"/>
       <c r="Z15" s="53"/>
       <c r="AA15" s="54"/>
@@ -8136,30 +8136,30 @@
       <c r="AJ15" s="55"/>
     </row>
     <row r="16" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="326"/>
-      <c r="B16" s="327"/>
-      <c r="C16" s="327"/>
-      <c r="D16" s="327"/>
-      <c r="E16" s="327"/>
-      <c r="F16" s="327"/>
-      <c r="G16" s="327"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="327"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
+      <c r="A16" s="364"/>
+      <c r="B16" s="365"/>
+      <c r="C16" s="365"/>
+      <c r="D16" s="365"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="365"/>
+      <c r="H16" s="365"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="366"/>
       <c r="L16" s="97"/>
-      <c r="M16" s="330"/>
-      <c r="N16" s="330"/>
-      <c r="O16" s="330"/>
-      <c r="P16" s="330"/>
-      <c r="Q16" s="330"/>
-      <c r="R16" s="330"/>
-      <c r="S16" s="330"/>
-      <c r="T16" s="330"/>
-      <c r="U16" s="330"/>
-      <c r="V16" s="330"/>
-      <c r="W16" s="330"/>
-      <c r="X16" s="330"/>
+      <c r="M16" s="368"/>
+      <c r="N16" s="368"/>
+      <c r="O16" s="368"/>
+      <c r="P16" s="368"/>
+      <c r="Q16" s="368"/>
+      <c r="R16" s="368"/>
+      <c r="S16" s="368"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="368"/>
+      <c r="V16" s="368"/>
+      <c r="W16" s="368"/>
+      <c r="X16" s="368"/>
       <c r="Y16" s="99"/>
       <c r="Z16" s="45"/>
       <c r="AA16" s="46"/>
@@ -8174,37 +8174,37 @@
       <c r="AJ16" s="50"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A17" s="326"/>
-      <c r="B17" s="327"/>
-      <c r="C17" s="327"/>
-      <c r="D17" s="327"/>
-      <c r="E17" s="327"/>
-      <c r="F17" s="327"/>
-      <c r="G17" s="327"/>
-      <c r="H17" s="327"/>
-      <c r="I17" s="327"/>
-      <c r="J17" s="327"/>
-      <c r="K17" s="328"/>
+      <c r="A17" s="364"/>
+      <c r="B17" s="365"/>
+      <c r="C17" s="365"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
+      <c r="G17" s="365"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="366"/>
       <c r="L17" s="97"/>
-      <c r="M17" s="330"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="330"/>
-      <c r="P17" s="330"/>
-      <c r="Q17" s="330"/>
-      <c r="R17" s="330"/>
-      <c r="S17" s="330"/>
-      <c r="T17" s="330"/>
-      <c r="U17" s="330"/>
-      <c r="V17" s="330"/>
-      <c r="W17" s="330"/>
-      <c r="X17" s="330"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="368"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="368"/>
+      <c r="U17" s="368"/>
+      <c r="V17" s="368"/>
+      <c r="W17" s="368"/>
+      <c r="X17" s="368"/>
       <c r="Y17" s="99"/>
-      <c r="Z17" s="266" t="s">
+      <c r="Z17" s="301" t="s">
         <v>900</v>
       </c>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="272"/>
+      <c r="AA17" s="233"/>
+      <c r="AB17" s="306"/>
+      <c r="AC17" s="307"/>
       <c r="AD17" s="73"/>
       <c r="AE17" s="73"/>
       <c r="AF17" s="73"/>
@@ -8214,35 +8214,35 @@
       <c r="AJ17" s="74"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A18" s="326"/>
-      <c r="B18" s="327"/>
-      <c r="C18" s="327"/>
-      <c r="D18" s="327"/>
-      <c r="E18" s="327"/>
-      <c r="F18" s="327"/>
-      <c r="G18" s="327"/>
-      <c r="H18" s="327"/>
-      <c r="I18" s="327"/>
-      <c r="J18" s="327"/>
-      <c r="K18" s="328"/>
+      <c r="A18" s="364"/>
+      <c r="B18" s="365"/>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="365"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="365"/>
+      <c r="H18" s="365"/>
+      <c r="I18" s="365"/>
+      <c r="J18" s="365"/>
+      <c r="K18" s="366"/>
       <c r="L18" s="97"/>
-      <c r="M18" s="330"/>
-      <c r="N18" s="330"/>
-      <c r="O18" s="330"/>
-      <c r="P18" s="330"/>
-      <c r="Q18" s="330"/>
-      <c r="R18" s="330"/>
-      <c r="S18" s="330"/>
-      <c r="T18" s="330"/>
-      <c r="U18" s="330"/>
-      <c r="V18" s="330"/>
-      <c r="W18" s="330"/>
-      <c r="X18" s="330"/>
+      <c r="M18" s="368"/>
+      <c r="N18" s="368"/>
+      <c r="O18" s="368"/>
+      <c r="P18" s="368"/>
+      <c r="Q18" s="368"/>
+      <c r="R18" s="368"/>
+      <c r="S18" s="368"/>
+      <c r="T18" s="368"/>
+      <c r="U18" s="368"/>
+      <c r="V18" s="368"/>
+      <c r="W18" s="368"/>
+      <c r="X18" s="368"/>
       <c r="Y18" s="99"/>
-      <c r="Z18" s="268"/>
-      <c r="AA18" s="269"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="274"/>
+      <c r="Z18" s="302"/>
+      <c r="AA18" s="303"/>
+      <c r="AB18" s="308"/>
+      <c r="AC18" s="309"/>
       <c r="AD18" s="73"/>
       <c r="AE18" s="73"/>
       <c r="AF18" s="73"/>
@@ -8252,35 +8252,35 @@
       <c r="AJ18" s="74"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A19" s="326"/>
-      <c r="B19" s="327"/>
-      <c r="C19" s="327"/>
-      <c r="D19" s="327"/>
-      <c r="E19" s="327"/>
-      <c r="F19" s="327"/>
-      <c r="G19" s="327"/>
-      <c r="H19" s="327"/>
-      <c r="I19" s="327"/>
-      <c r="J19" s="327"/>
-      <c r="K19" s="328"/>
+      <c r="A19" s="364"/>
+      <c r="B19" s="365"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
+      <c r="E19" s="365"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="365"/>
+      <c r="H19" s="365"/>
+      <c r="I19" s="365"/>
+      <c r="J19" s="365"/>
+      <c r="K19" s="366"/>
       <c r="L19" s="97"/>
-      <c r="M19" s="330"/>
-      <c r="N19" s="330"/>
-      <c r="O19" s="330"/>
-      <c r="P19" s="330"/>
-      <c r="Q19" s="330"/>
-      <c r="R19" s="330"/>
-      <c r="S19" s="330"/>
-      <c r="T19" s="330"/>
-      <c r="U19" s="330"/>
-      <c r="V19" s="330"/>
-      <c r="W19" s="330"/>
-      <c r="X19" s="330"/>
+      <c r="M19" s="368"/>
+      <c r="N19" s="368"/>
+      <c r="O19" s="368"/>
+      <c r="P19" s="368"/>
+      <c r="Q19" s="368"/>
+      <c r="R19" s="368"/>
+      <c r="S19" s="368"/>
+      <c r="T19" s="368"/>
+      <c r="U19" s="368"/>
+      <c r="V19" s="368"/>
+      <c r="W19" s="368"/>
+      <c r="X19" s="368"/>
       <c r="Y19" s="99"/>
-      <c r="Z19" s="268"/>
-      <c r="AA19" s="269"/>
-      <c r="AB19" s="273"/>
-      <c r="AC19" s="274"/>
+      <c r="Z19" s="302"/>
+      <c r="AA19" s="303"/>
+      <c r="AB19" s="308"/>
+      <c r="AC19" s="309"/>
       <c r="AD19" s="73"/>
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
@@ -8290,35 +8290,35 @@
       <c r="AJ19" s="74"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A20" s="326"/>
-      <c r="B20" s="327"/>
-      <c r="C20" s="327"/>
-      <c r="D20" s="327"/>
-      <c r="E20" s="327"/>
-      <c r="F20" s="327"/>
-      <c r="G20" s="327"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="327"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="328"/>
+      <c r="A20" s="364"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="365"/>
+      <c r="D20" s="365"/>
+      <c r="E20" s="365"/>
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="365"/>
+      <c r="I20" s="365"/>
+      <c r="J20" s="365"/>
+      <c r="K20" s="366"/>
       <c r="L20" s="97"/>
-      <c r="M20" s="330"/>
-      <c r="N20" s="330"/>
-      <c r="O20" s="330"/>
-      <c r="P20" s="330"/>
-      <c r="Q20" s="330"/>
-      <c r="R20" s="330"/>
-      <c r="S20" s="330"/>
-      <c r="T20" s="330"/>
-      <c r="U20" s="330"/>
-      <c r="V20" s="330"/>
-      <c r="W20" s="330"/>
-      <c r="X20" s="330"/>
+      <c r="M20" s="368"/>
+      <c r="N20" s="368"/>
+      <c r="O20" s="368"/>
+      <c r="P20" s="368"/>
+      <c r="Q20" s="368"/>
+      <c r="R20" s="368"/>
+      <c r="S20" s="368"/>
+      <c r="T20" s="368"/>
+      <c r="U20" s="368"/>
+      <c r="V20" s="368"/>
+      <c r="W20" s="368"/>
+      <c r="X20" s="368"/>
       <c r="Y20" s="99"/>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="269"/>
-      <c r="AB20" s="273"/>
-      <c r="AC20" s="274"/>
+      <c r="Z20" s="302"/>
+      <c r="AA20" s="303"/>
+      <c r="AB20" s="308"/>
+      <c r="AC20" s="309"/>
       <c r="AD20" s="73"/>
       <c r="AE20" s="73"/>
       <c r="AF20" s="73"/>
@@ -8328,35 +8328,35 @@
       <c r="AJ20" s="74"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A21" s="326"/>
-      <c r="B21" s="327"/>
-      <c r="C21" s="327"/>
-      <c r="D21" s="327"/>
-      <c r="E21" s="327"/>
-      <c r="F21" s="327"/>
-      <c r="G21" s="327"/>
-      <c r="H21" s="327"/>
-      <c r="I21" s="327"/>
-      <c r="J21" s="327"/>
-      <c r="K21" s="328"/>
+      <c r="A21" s="364"/>
+      <c r="B21" s="365"/>
+      <c r="C21" s="365"/>
+      <c r="D21" s="365"/>
+      <c r="E21" s="365"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="365"/>
+      <c r="H21" s="365"/>
+      <c r="I21" s="365"/>
+      <c r="J21" s="365"/>
+      <c r="K21" s="366"/>
       <c r="L21" s="97"/>
-      <c r="M21" s="330"/>
-      <c r="N21" s="330"/>
-      <c r="O21" s="330"/>
-      <c r="P21" s="330"/>
-      <c r="Q21" s="330"/>
-      <c r="R21" s="330"/>
-      <c r="S21" s="330"/>
-      <c r="T21" s="330"/>
-      <c r="U21" s="330"/>
-      <c r="V21" s="330"/>
-      <c r="W21" s="330"/>
-      <c r="X21" s="330"/>
+      <c r="M21" s="368"/>
+      <c r="N21" s="368"/>
+      <c r="O21" s="368"/>
+      <c r="P21" s="368"/>
+      <c r="Q21" s="368"/>
+      <c r="R21" s="368"/>
+      <c r="S21" s="368"/>
+      <c r="T21" s="368"/>
+      <c r="U21" s="368"/>
+      <c r="V21" s="368"/>
+      <c r="W21" s="368"/>
+      <c r="X21" s="368"/>
       <c r="Y21" s="99"/>
-      <c r="Z21" s="270"/>
-      <c r="AA21" s="269"/>
-      <c r="AB21" s="273"/>
-      <c r="AC21" s="274"/>
+      <c r="Z21" s="304"/>
+      <c r="AA21" s="303"/>
+      <c r="AB21" s="308"/>
+      <c r="AC21" s="309"/>
       <c r="AD21" s="73"/>
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
@@ -8366,35 +8366,35 @@
       <c r="AJ21" s="74"/>
     </row>
     <row r="22" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="326"/>
-      <c r="B22" s="327"/>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="327"/>
-      <c r="I22" s="327"/>
-      <c r="J22" s="327"/>
-      <c r="K22" s="328"/>
+      <c r="A22" s="364"/>
+      <c r="B22" s="365"/>
+      <c r="C22" s="365"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="365"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="365"/>
+      <c r="H22" s="365"/>
+      <c r="I22" s="365"/>
+      <c r="J22" s="365"/>
+      <c r="K22" s="366"/>
       <c r="L22" s="97"/>
-      <c r="M22" s="330"/>
-      <c r="N22" s="330"/>
-      <c r="O22" s="330"/>
-      <c r="P22" s="330"/>
-      <c r="Q22" s="330"/>
-      <c r="R22" s="330"/>
-      <c r="S22" s="330"/>
-      <c r="T22" s="330"/>
-      <c r="U22" s="330"/>
-      <c r="V22" s="330"/>
-      <c r="W22" s="330"/>
-      <c r="X22" s="330"/>
+      <c r="M22" s="368"/>
+      <c r="N22" s="368"/>
+      <c r="O22" s="368"/>
+      <c r="P22" s="368"/>
+      <c r="Q22" s="368"/>
+      <c r="R22" s="368"/>
+      <c r="S22" s="368"/>
+      <c r="T22" s="368"/>
+      <c r="U22" s="368"/>
+      <c r="V22" s="368"/>
+      <c r="W22" s="368"/>
+      <c r="X22" s="368"/>
       <c r="Y22" s="99"/>
-      <c r="Z22" s="194"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="275"/>
-      <c r="AC22" s="276"/>
+      <c r="Z22" s="305"/>
+      <c r="AA22" s="235"/>
+      <c r="AB22" s="310"/>
+      <c r="AC22" s="311"/>
       <c r="AD22" s="46"/>
       <c r="AE22" s="46"/>
       <c r="AF22" s="46"/>
@@ -8404,30 +8404,30 @@
       <c r="AJ22" s="50"/>
     </row>
     <row r="23" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="326"/>
-      <c r="B23" s="327"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="327"/>
-      <c r="E23" s="327"/>
-      <c r="F23" s="327"/>
-      <c r="G23" s="327"/>
-      <c r="H23" s="327"/>
-      <c r="I23" s="327"/>
-      <c r="J23" s="327"/>
-      <c r="K23" s="328"/>
+      <c r="A23" s="364"/>
+      <c r="B23" s="365"/>
+      <c r="C23" s="365"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="365"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="365"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="365"/>
+      <c r="J23" s="365"/>
+      <c r="K23" s="366"/>
       <c r="L23" s="97"/>
-      <c r="M23" s="330"/>
-      <c r="N23" s="330"/>
-      <c r="O23" s="330"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="330"/>
-      <c r="S23" s="330"/>
-      <c r="T23" s="330"/>
-      <c r="U23" s="330"/>
-      <c r="V23" s="330"/>
-      <c r="W23" s="330"/>
-      <c r="X23" s="330"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
+      <c r="O23" s="368"/>
+      <c r="P23" s="368"/>
+      <c r="Q23" s="368"/>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
+      <c r="T23" s="368"/>
+      <c r="U23" s="368"/>
+      <c r="V23" s="368"/>
+      <c r="W23" s="368"/>
+      <c r="X23" s="368"/>
       <c r="Y23" s="99"/>
       <c r="Z23" s="64"/>
       <c r="AA23" s="51"/>
@@ -8442,44 +8442,44 @@
       <c r="AJ23" s="52"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="326"/>
-      <c r="B24" s="327"/>
-      <c r="C24" s="327"/>
-      <c r="D24" s="327"/>
-      <c r="E24" s="327"/>
-      <c r="F24" s="327"/>
-      <c r="G24" s="327"/>
-      <c r="H24" s="327"/>
-      <c r="I24" s="327"/>
-      <c r="J24" s="327"/>
-      <c r="K24" s="328"/>
+      <c r="A24" s="364"/>
+      <c r="B24" s="365"/>
+      <c r="C24" s="365"/>
+      <c r="D24" s="365"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="365"/>
+      <c r="G24" s="365"/>
+      <c r="H24" s="365"/>
+      <c r="I24" s="365"/>
+      <c r="J24" s="365"/>
+      <c r="K24" s="366"/>
       <c r="L24" s="97"/>
-      <c r="M24" s="330"/>
-      <c r="N24" s="330"/>
-      <c r="O24" s="330"/>
-      <c r="P24" s="330"/>
-      <c r="Q24" s="330"/>
-      <c r="R24" s="330"/>
-      <c r="S24" s="330"/>
-      <c r="T24" s="330"/>
-      <c r="U24" s="330"/>
-      <c r="V24" s="330"/>
-      <c r="W24" s="330"/>
-      <c r="X24" s="330"/>
+      <c r="M24" s="368"/>
+      <c r="N24" s="368"/>
+      <c r="O24" s="368"/>
+      <c r="P24" s="368"/>
+      <c r="Q24" s="368"/>
+      <c r="R24" s="368"/>
+      <c r="S24" s="368"/>
+      <c r="T24" s="368"/>
+      <c r="U24" s="368"/>
+      <c r="V24" s="368"/>
+      <c r="W24" s="368"/>
+      <c r="X24" s="368"/>
       <c r="Y24" s="99"/>
-      <c r="Z24" s="248" t="s">
+      <c r="Z24" s="283" t="s">
         <v>877</v>
       </c>
-      <c r="AA24" s="250"/>
-      <c r="AB24" s="277"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="271"/>
-      <c r="AJ24" s="278"/>
+      <c r="AA24" s="285"/>
+      <c r="AB24" s="312"/>
+      <c r="AC24" s="306"/>
+      <c r="AD24" s="306"/>
+      <c r="AE24" s="306"/>
+      <c r="AF24" s="306"/>
+      <c r="AG24" s="306"/>
+      <c r="AH24" s="306"/>
+      <c r="AI24" s="306"/>
+      <c r="AJ24" s="313"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
@@ -8558,33 +8558,33 @@
       <c r="AJ26" s="50"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A27" s="281" t="s">
+      <c r="A27" s="316" t="s">
         <v>930</v>
       </c>
-      <c r="B27" s="282"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="288"/>
-      <c r="L27" s="288"/>
-      <c r="M27" s="288"/>
-      <c r="N27" s="288"/>
-      <c r="O27" s="288"/>
-      <c r="P27" s="288"/>
-      <c r="Q27" s="288"/>
-      <c r="R27" s="288"/>
-      <c r="S27" s="288"/>
-      <c r="T27" s="288"/>
-      <c r="U27" s="288"/>
-      <c r="V27" s="288"/>
-      <c r="W27" s="288"/>
-      <c r="X27" s="288"/>
-      <c r="Y27" s="289"/>
+      <c r="B27" s="317"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="322"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="323"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="323"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="323"/>
+      <c r="N27" s="323"/>
+      <c r="O27" s="323"/>
+      <c r="P27" s="323"/>
+      <c r="Q27" s="323"/>
+      <c r="R27" s="323"/>
+      <c r="S27" s="323"/>
+      <c r="T27" s="323"/>
+      <c r="U27" s="323"/>
+      <c r="V27" s="323"/>
+      <c r="W27" s="323"/>
+      <c r="X27" s="323"/>
+      <c r="Y27" s="324"/>
       <c r="Z27" s="75" t="s">
         <v>895</v>
       </c>
@@ -8600,42 +8600,42 @@
       <c r="AJ27" s="77"/>
     </row>
     <row r="28" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="284"/>
-      <c r="B28" s="285"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291"/>
-      <c r="F28" s="291"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="291"/>
-      <c r="J28" s="291"/>
-      <c r="K28" s="291"/>
-      <c r="L28" s="291"/>
-      <c r="M28" s="291"/>
-      <c r="N28" s="291"/>
-      <c r="O28" s="291"/>
-      <c r="P28" s="291"/>
-      <c r="Q28" s="291"/>
-      <c r="R28" s="291"/>
-      <c r="S28" s="291"/>
-      <c r="T28" s="291"/>
-      <c r="U28" s="291"/>
-      <c r="V28" s="291"/>
-      <c r="W28" s="291"/>
-      <c r="X28" s="291"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="297"/>
-      <c r="AI28" s="297"/>
-      <c r="AJ28" s="298"/>
+      <c r="A28" s="319"/>
+      <c r="B28" s="320"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="326"/>
+      <c r="N28" s="326"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="326"/>
+      <c r="Q28" s="326"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="327"/>
+      <c r="Z28" s="331"/>
+      <c r="AA28" s="332"/>
+      <c r="AB28" s="332"/>
+      <c r="AC28" s="332"/>
+      <c r="AD28" s="332"/>
+      <c r="AE28" s="332"/>
+      <c r="AF28" s="332"/>
+      <c r="AG28" s="332"/>
+      <c r="AH28" s="332"/>
+      <c r="AI28" s="332"/>
+      <c r="AJ28" s="333"/>
       <c r="AL28" s="89"/>
       <c r="AM28" s="89"/>
       <c r="AN28" s="89"/>
@@ -8650,42 +8650,42 @@
       <c r="AW28" s="89"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A29" s="284"/>
-      <c r="B29" s="285"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="291"/>
-      <c r="F29" s="291"/>
-      <c r="G29" s="291"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="291"/>
-      <c r="J29" s="291"/>
-      <c r="K29" s="291"/>
-      <c r="L29" s="291"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="291"/>
-      <c r="O29" s="291"/>
-      <c r="P29" s="291"/>
-      <c r="Q29" s="291"/>
-      <c r="R29" s="291"/>
-      <c r="S29" s="291"/>
-      <c r="T29" s="291"/>
-      <c r="U29" s="291"/>
-      <c r="V29" s="291"/>
-      <c r="W29" s="291"/>
-      <c r="X29" s="291"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="297"/>
-      <c r="AB29" s="297"/>
-      <c r="AC29" s="297"/>
-      <c r="AD29" s="297"/>
-      <c r="AE29" s="297"/>
-      <c r="AF29" s="297"/>
-      <c r="AG29" s="297"/>
-      <c r="AH29" s="297"/>
-      <c r="AI29" s="297"/>
-      <c r="AJ29" s="298"/>
+      <c r="A29" s="319"/>
+      <c r="B29" s="320"/>
+      <c r="C29" s="321"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="326"/>
+      <c r="N29" s="326"/>
+      <c r="O29" s="326"/>
+      <c r="P29" s="326"/>
+      <c r="Q29" s="326"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="327"/>
+      <c r="Z29" s="331"/>
+      <c r="AA29" s="332"/>
+      <c r="AB29" s="332"/>
+      <c r="AC29" s="332"/>
+      <c r="AD29" s="332"/>
+      <c r="AE29" s="332"/>
+      <c r="AF29" s="332"/>
+      <c r="AG29" s="332"/>
+      <c r="AH29" s="332"/>
+      <c r="AI29" s="332"/>
+      <c r="AJ29" s="333"/>
       <c r="AL29" s="89"/>
       <c r="AM29" s="89"/>
       <c r="AN29" s="89"/>
@@ -8700,33 +8700,33 @@
       <c r="AW29" s="89"/>
     </row>
     <row r="30" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="299" t="s">
+      <c r="A30" s="334" t="s">
         <v>893</v>
       </c>
-      <c r="B30" s="300"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="291"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
-      <c r="J30" s="291"/>
-      <c r="K30" s="291"/>
-      <c r="L30" s="291"/>
-      <c r="M30" s="291"/>
-      <c r="N30" s="291"/>
-      <c r="O30" s="291"/>
-      <c r="P30" s="291"/>
-      <c r="Q30" s="291"/>
-      <c r="R30" s="291"/>
-      <c r="S30" s="291"/>
-      <c r="T30" s="291"/>
-      <c r="U30" s="291"/>
-      <c r="V30" s="291"/>
-      <c r="W30" s="291"/>
-      <c r="X30" s="291"/>
-      <c r="Y30" s="292"/>
+      <c r="B30" s="335"/>
+      <c r="C30" s="336"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="326"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="326"/>
+      <c r="K30" s="326"/>
+      <c r="L30" s="326"/>
+      <c r="M30" s="326"/>
+      <c r="N30" s="326"/>
+      <c r="O30" s="326"/>
+      <c r="P30" s="326"/>
+      <c r="Q30" s="326"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="326"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="326"/>
+      <c r="V30" s="326"/>
+      <c r="W30" s="326"/>
+      <c r="X30" s="326"/>
+      <c r="Y30" s="327"/>
       <c r="Z30" s="78" t="s">
         <v>888</v>
       </c>
@@ -8755,44 +8755,44 @@
       <c r="AW30" s="88"/>
     </row>
     <row r="31" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="299"/>
-      <c r="B31" s="300"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="290"/>
-      <c r="E31" s="291"/>
-      <c r="F31" s="291"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
-      <c r="J31" s="291"/>
-      <c r="K31" s="291"/>
-      <c r="L31" s="291"/>
-      <c r="M31" s="291"/>
-      <c r="N31" s="291"/>
-      <c r="O31" s="291"/>
-      <c r="P31" s="291"/>
-      <c r="Q31" s="291"/>
-      <c r="R31" s="291"/>
-      <c r="S31" s="291"/>
-      <c r="T31" s="291"/>
-      <c r="U31" s="291"/>
-      <c r="V31" s="291"/>
-      <c r="W31" s="291"/>
-      <c r="X31" s="291"/>
-      <c r="Y31" s="292"/>
-      <c r="Z31" s="305" t="s">
+      <c r="A31" s="334"/>
+      <c r="B31" s="335"/>
+      <c r="C31" s="336"/>
+      <c r="D31" s="325"/>
+      <c r="E31" s="326"/>
+      <c r="F31" s="326"/>
+      <c r="G31" s="326"/>
+      <c r="H31" s="326"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="326"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="326"/>
+      <c r="M31" s="326"/>
+      <c r="N31" s="326"/>
+      <c r="O31" s="326"/>
+      <c r="P31" s="326"/>
+      <c r="Q31" s="326"/>
+      <c r="R31" s="326"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="326"/>
+      <c r="Y31" s="327"/>
+      <c r="Z31" s="340" t="s">
         <v>889</v>
       </c>
-      <c r="AA31" s="306"/>
-      <c r="AB31" s="306"/>
-      <c r="AC31" s="306"/>
-      <c r="AD31" s="306"/>
-      <c r="AE31" s="306"/>
-      <c r="AF31" s="306"/>
-      <c r="AG31" s="306"/>
-      <c r="AH31" s="306"/>
-      <c r="AI31" s="306"/>
-      <c r="AJ31" s="307"/>
+      <c r="AA31" s="341"/>
+      <c r="AB31" s="341"/>
+      <c r="AC31" s="341"/>
+      <c r="AD31" s="341"/>
+      <c r="AE31" s="341"/>
+      <c r="AF31" s="341"/>
+      <c r="AG31" s="341"/>
+      <c r="AH31" s="341"/>
+      <c r="AI31" s="341"/>
+      <c r="AJ31" s="342"/>
       <c r="AK31" s="71"/>
       <c r="AL31" s="88"/>
       <c r="AM31" s="88"/>
@@ -8808,42 +8808,42 @@
       <c r="AW31" s="88"/>
     </row>
     <row r="32" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="302"/>
-      <c r="B32" s="303"/>
-      <c r="C32" s="304"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="291"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="291"/>
-      <c r="J32" s="291"/>
-      <c r="K32" s="291"/>
-      <c r="L32" s="291"/>
-      <c r="M32" s="291"/>
-      <c r="N32" s="291"/>
-      <c r="O32" s="291"/>
-      <c r="P32" s="291"/>
-      <c r="Q32" s="291"/>
-      <c r="R32" s="291"/>
-      <c r="S32" s="291"/>
-      <c r="T32" s="291"/>
-      <c r="U32" s="291"/>
-      <c r="V32" s="291"/>
-      <c r="W32" s="291"/>
-      <c r="X32" s="291"/>
-      <c r="Y32" s="292"/>
-      <c r="Z32" s="305"/>
-      <c r="AA32" s="306"/>
-      <c r="AB32" s="306"/>
-      <c r="AC32" s="306"/>
-      <c r="AD32" s="306"/>
-      <c r="AE32" s="306"/>
-      <c r="AF32" s="306"/>
-      <c r="AG32" s="306"/>
-      <c r="AH32" s="306"/>
-      <c r="AI32" s="306"/>
-      <c r="AJ32" s="307"/>
+      <c r="A32" s="337"/>
+      <c r="B32" s="338"/>
+      <c r="C32" s="339"/>
+      <c r="D32" s="325"/>
+      <c r="E32" s="326"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="326"/>
+      <c r="H32" s="326"/>
+      <c r="I32" s="326"/>
+      <c r="J32" s="326"/>
+      <c r="K32" s="326"/>
+      <c r="L32" s="326"/>
+      <c r="M32" s="326"/>
+      <c r="N32" s="326"/>
+      <c r="O32" s="326"/>
+      <c r="P32" s="326"/>
+      <c r="Q32" s="326"/>
+      <c r="R32" s="326"/>
+      <c r="S32" s="326"/>
+      <c r="T32" s="326"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
+      <c r="X32" s="326"/>
+      <c r="Y32" s="327"/>
+      <c r="Z32" s="340"/>
+      <c r="AA32" s="341"/>
+      <c r="AB32" s="341"/>
+      <c r="AC32" s="341"/>
+      <c r="AD32" s="341"/>
+      <c r="AE32" s="341"/>
+      <c r="AF32" s="341"/>
+      <c r="AG32" s="341"/>
+      <c r="AH32" s="341"/>
+      <c r="AI32" s="341"/>
+      <c r="AJ32" s="342"/>
       <c r="AL32" s="88"/>
       <c r="AM32" s="88"/>
       <c r="AN32" s="88"/>
@@ -8858,46 +8858,46 @@
       <c r="AW32" s="88"/>
     </row>
     <row r="33" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="308" t="s">
+      <c r="A33" s="343" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="309"/>
-      <c r="C33" s="310"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="291"/>
-      <c r="F33" s="291"/>
-      <c r="G33" s="291"/>
-      <c r="H33" s="291"/>
-      <c r="I33" s="291"/>
-      <c r="J33" s="291"/>
-      <c r="K33" s="291"/>
-      <c r="L33" s="291"/>
-      <c r="M33" s="291"/>
-      <c r="N33" s="291"/>
-      <c r="O33" s="291"/>
-      <c r="P33" s="291"/>
-      <c r="Q33" s="291"/>
-      <c r="R33" s="291"/>
-      <c r="S33" s="291"/>
-      <c r="T33" s="291"/>
-      <c r="U33" s="291"/>
-      <c r="V33" s="291"/>
-      <c r="W33" s="291"/>
-      <c r="X33" s="291"/>
-      <c r="Y33" s="292"/>
-      <c r="Z33" s="314" t="s">
+      <c r="B33" s="344"/>
+      <c r="C33" s="345"/>
+      <c r="D33" s="325"/>
+      <c r="E33" s="326"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="326"/>
+      <c r="N33" s="326"/>
+      <c r="O33" s="326"/>
+      <c r="P33" s="326"/>
+      <c r="Q33" s="326"/>
+      <c r="R33" s="326"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="326"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="326"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="326"/>
+      <c r="Y33" s="327"/>
+      <c r="Z33" s="349" t="s">
         <v>890</v>
       </c>
-      <c r="AA33" s="315"/>
-      <c r="AB33" s="315"/>
-      <c r="AC33" s="315"/>
-      <c r="AD33" s="315"/>
-      <c r="AE33" s="315"/>
-      <c r="AF33" s="315"/>
-      <c r="AG33" s="315"/>
-      <c r="AH33" s="315"/>
-      <c r="AI33" s="315"/>
-      <c r="AJ33" s="316"/>
+      <c r="AA33" s="350"/>
+      <c r="AB33" s="350"/>
+      <c r="AC33" s="350"/>
+      <c r="AD33" s="350"/>
+      <c r="AE33" s="350"/>
+      <c r="AF33" s="350"/>
+      <c r="AG33" s="350"/>
+      <c r="AH33" s="350"/>
+      <c r="AI33" s="350"/>
+      <c r="AJ33" s="351"/>
       <c r="AL33" s="88"/>
       <c r="AM33" s="88"/>
       <c r="AN33" s="88"/>
@@ -8912,42 +8912,42 @@
       <c r="AW33" s="88"/>
     </row>
     <row r="34" spans="1:49" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="311"/>
-      <c r="B34" s="312"/>
-      <c r="C34" s="313"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="291"/>
-      <c r="F34" s="291"/>
-      <c r="G34" s="291"/>
-      <c r="H34" s="291"/>
-      <c r="I34" s="291"/>
-      <c r="J34" s="291"/>
-      <c r="K34" s="291"/>
-      <c r="L34" s="291"/>
-      <c r="M34" s="291"/>
-      <c r="N34" s="291"/>
-      <c r="O34" s="291"/>
-      <c r="P34" s="291"/>
-      <c r="Q34" s="291"/>
-      <c r="R34" s="291"/>
-      <c r="S34" s="291"/>
-      <c r="T34" s="291"/>
-      <c r="U34" s="291"/>
-      <c r="V34" s="291"/>
-      <c r="W34" s="291"/>
-      <c r="X34" s="291"/>
-      <c r="Y34" s="292"/>
-      <c r="Z34" s="314"/>
-      <c r="AA34" s="315"/>
-      <c r="AB34" s="315"/>
-      <c r="AC34" s="315"/>
-      <c r="AD34" s="315"/>
-      <c r="AE34" s="315"/>
-      <c r="AF34" s="315"/>
-      <c r="AG34" s="315"/>
-      <c r="AH34" s="315"/>
-      <c r="AI34" s="315"/>
-      <c r="AJ34" s="316"/>
+      <c r="A34" s="346"/>
+      <c r="B34" s="347"/>
+      <c r="C34" s="348"/>
+      <c r="D34" s="325"/>
+      <c r="E34" s="326"/>
+      <c r="F34" s="326"/>
+      <c r="G34" s="326"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="326"/>
+      <c r="N34" s="326"/>
+      <c r="O34" s="326"/>
+      <c r="P34" s="326"/>
+      <c r="Q34" s="326"/>
+      <c r="R34" s="326"/>
+      <c r="S34" s="326"/>
+      <c r="T34" s="326"/>
+      <c r="U34" s="326"/>
+      <c r="V34" s="326"/>
+      <c r="W34" s="326"/>
+      <c r="X34" s="326"/>
+      <c r="Y34" s="327"/>
+      <c r="Z34" s="349"/>
+      <c r="AA34" s="350"/>
+      <c r="AB34" s="350"/>
+      <c r="AC34" s="350"/>
+      <c r="AD34" s="350"/>
+      <c r="AE34" s="350"/>
+      <c r="AF34" s="350"/>
+      <c r="AG34" s="350"/>
+      <c r="AH34" s="350"/>
+      <c r="AI34" s="350"/>
+      <c r="AJ34" s="351"/>
       <c r="AL34" s="88"/>
       <c r="AM34" s="88"/>
       <c r="AN34" s="88"/>
@@ -8962,45 +8962,45 @@
       <c r="AW34" s="88"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A35" s="317" t="str">
+      <c r="A35" s="352" t="str">
         <f>IF(A33="Oui/да","Nombre de pages:","")</f>
         <v/>
       </c>
-      <c r="B35" s="318"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="290"/>
-      <c r="E35" s="291"/>
-      <c r="F35" s="291"/>
-      <c r="G35" s="291"/>
-      <c r="H35" s="291"/>
-      <c r="I35" s="291"/>
-      <c r="J35" s="291"/>
-      <c r="K35" s="291"/>
-      <c r="L35" s="291"/>
-      <c r="M35" s="291"/>
-      <c r="N35" s="291"/>
-      <c r="O35" s="291"/>
-      <c r="P35" s="291"/>
-      <c r="Q35" s="291"/>
-      <c r="R35" s="291"/>
-      <c r="S35" s="291"/>
-      <c r="T35" s="291"/>
-      <c r="U35" s="291"/>
-      <c r="V35" s="291"/>
-      <c r="W35" s="291"/>
-      <c r="X35" s="291"/>
-      <c r="Y35" s="292"/>
-      <c r="Z35" s="320"/>
-      <c r="AA35" s="321"/>
-      <c r="AB35" s="321"/>
-      <c r="AC35" s="321"/>
-      <c r="AD35" s="321"/>
-      <c r="AE35" s="321"/>
-      <c r="AF35" s="321"/>
-      <c r="AG35" s="321"/>
-      <c r="AH35" s="321"/>
-      <c r="AI35" s="321"/>
-      <c r="AJ35" s="322"/>
+      <c r="B35" s="353"/>
+      <c r="C35" s="354"/>
+      <c r="D35" s="325"/>
+      <c r="E35" s="326"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="326"/>
+      <c r="N35" s="326"/>
+      <c r="O35" s="326"/>
+      <c r="P35" s="326"/>
+      <c r="Q35" s="326"/>
+      <c r="R35" s="326"/>
+      <c r="S35" s="326"/>
+      <c r="T35" s="326"/>
+      <c r="U35" s="326"/>
+      <c r="V35" s="326"/>
+      <c r="W35" s="326"/>
+      <c r="X35" s="326"/>
+      <c r="Y35" s="327"/>
+      <c r="Z35" s="358"/>
+      <c r="AA35" s="359"/>
+      <c r="AB35" s="359"/>
+      <c r="AC35" s="359"/>
+      <c r="AD35" s="359"/>
+      <c r="AE35" s="359"/>
+      <c r="AF35" s="359"/>
+      <c r="AG35" s="359"/>
+      <c r="AH35" s="359"/>
+      <c r="AI35" s="359"/>
+      <c r="AJ35" s="360"/>
       <c r="AL35" s="88"/>
       <c r="AM35" s="88"/>
       <c r="AN35" s="88"/>
@@ -9015,42 +9015,42 @@
       <c r="AW35" s="88"/>
     </row>
     <row r="36" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="222"/>
-      <c r="B36" s="223"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="291"/>
-      <c r="F36" s="291"/>
-      <c r="G36" s="291"/>
-      <c r="H36" s="291"/>
-      <c r="I36" s="291"/>
-      <c r="J36" s="291"/>
-      <c r="K36" s="291"/>
-      <c r="L36" s="291"/>
-      <c r="M36" s="291"/>
-      <c r="N36" s="291"/>
-      <c r="O36" s="291"/>
-      <c r="P36" s="291"/>
-      <c r="Q36" s="291"/>
-      <c r="R36" s="291"/>
-      <c r="S36" s="291"/>
-      <c r="T36" s="291"/>
-      <c r="U36" s="291"/>
-      <c r="V36" s="291"/>
-      <c r="W36" s="291"/>
-      <c r="X36" s="291"/>
-      <c r="Y36" s="292"/>
-      <c r="Z36" s="320"/>
-      <c r="AA36" s="321"/>
-      <c r="AB36" s="321"/>
-      <c r="AC36" s="321"/>
-      <c r="AD36" s="321"/>
-      <c r="AE36" s="321"/>
-      <c r="AF36" s="321"/>
-      <c r="AG36" s="321"/>
-      <c r="AH36" s="321"/>
-      <c r="AI36" s="321"/>
-      <c r="AJ36" s="322"/>
+      <c r="A36" s="355"/>
+      <c r="B36" s="356"/>
+      <c r="C36" s="357"/>
+      <c r="D36" s="325"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="326"/>
+      <c r="N36" s="326"/>
+      <c r="O36" s="326"/>
+      <c r="P36" s="326"/>
+      <c r="Q36" s="326"/>
+      <c r="R36" s="326"/>
+      <c r="S36" s="326"/>
+      <c r="T36" s="326"/>
+      <c r="U36" s="326"/>
+      <c r="V36" s="326"/>
+      <c r="W36" s="326"/>
+      <c r="X36" s="326"/>
+      <c r="Y36" s="327"/>
+      <c r="Z36" s="358"/>
+      <c r="AA36" s="359"/>
+      <c r="AB36" s="359"/>
+      <c r="AC36" s="359"/>
+      <c r="AD36" s="359"/>
+      <c r="AE36" s="359"/>
+      <c r="AF36" s="359"/>
+      <c r="AG36" s="359"/>
+      <c r="AH36" s="359"/>
+      <c r="AI36" s="359"/>
+      <c r="AJ36" s="360"/>
       <c r="AL36" s="88"/>
       <c r="AM36" s="88"/>
       <c r="AN36" s="88"/>
@@ -9065,42 +9065,42 @@
       <c r="AW36" s="88"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A37" s="222"/>
-      <c r="B37" s="223"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="291"/>
-      <c r="F37" s="291"/>
-      <c r="G37" s="291"/>
-      <c r="H37" s="291"/>
-      <c r="I37" s="291"/>
-      <c r="J37" s="291"/>
-      <c r="K37" s="291"/>
-      <c r="L37" s="291"/>
-      <c r="M37" s="291"/>
-      <c r="N37" s="291"/>
-      <c r="O37" s="291"/>
-      <c r="P37" s="291"/>
-      <c r="Q37" s="291"/>
-      <c r="R37" s="291"/>
-      <c r="S37" s="291"/>
-      <c r="T37" s="291"/>
-      <c r="U37" s="291"/>
-      <c r="V37" s="291"/>
-      <c r="W37" s="291"/>
-      <c r="X37" s="291"/>
-      <c r="Y37" s="292"/>
-      <c r="Z37" s="320"/>
-      <c r="AA37" s="321"/>
-      <c r="AB37" s="321"/>
-      <c r="AC37" s="321"/>
-      <c r="AD37" s="321"/>
-      <c r="AE37" s="321"/>
-      <c r="AF37" s="321"/>
-      <c r="AG37" s="321"/>
-      <c r="AH37" s="321"/>
-      <c r="AI37" s="321"/>
-      <c r="AJ37" s="322"/>
+      <c r="A37" s="355"/>
+      <c r="B37" s="356"/>
+      <c r="C37" s="357"/>
+      <c r="D37" s="325"/>
+      <c r="E37" s="326"/>
+      <c r="F37" s="326"/>
+      <c r="G37" s="326"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="326"/>
+      <c r="N37" s="326"/>
+      <c r="O37" s="326"/>
+      <c r="P37" s="326"/>
+      <c r="Q37" s="326"/>
+      <c r="R37" s="326"/>
+      <c r="S37" s="326"/>
+      <c r="T37" s="326"/>
+      <c r="U37" s="326"/>
+      <c r="V37" s="326"/>
+      <c r="W37" s="326"/>
+      <c r="X37" s="326"/>
+      <c r="Y37" s="327"/>
+      <c r="Z37" s="358"/>
+      <c r="AA37" s="359"/>
+      <c r="AB37" s="359"/>
+      <c r="AC37" s="359"/>
+      <c r="AD37" s="359"/>
+      <c r="AE37" s="359"/>
+      <c r="AF37" s="359"/>
+      <c r="AG37" s="359"/>
+      <c r="AH37" s="359"/>
+      <c r="AI37" s="359"/>
+      <c r="AJ37" s="360"/>
       <c r="AL37" s="88"/>
       <c r="AM37" s="88"/>
       <c r="AN37" s="88"/>
@@ -9115,34 +9115,34 @@
       <c r="AW37" s="88"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A38" s="222" t="str">
+      <c r="A38" s="355" t="str">
         <f>IF(A33="Oui/да","Число Страниц:","")</f>
         <v/>
       </c>
-      <c r="B38" s="223"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="291"/>
-      <c r="F38" s="291"/>
-      <c r="G38" s="291"/>
-      <c r="H38" s="291"/>
-      <c r="I38" s="291"/>
-      <c r="J38" s="291"/>
-      <c r="K38" s="291"/>
-      <c r="L38" s="291"/>
-      <c r="M38" s="291"/>
-      <c r="N38" s="291"/>
-      <c r="O38" s="291"/>
-      <c r="P38" s="291"/>
-      <c r="Q38" s="291"/>
-      <c r="R38" s="291"/>
-      <c r="S38" s="291"/>
-      <c r="T38" s="291"/>
-      <c r="U38" s="291"/>
-      <c r="V38" s="291"/>
-      <c r="W38" s="291"/>
-      <c r="X38" s="291"/>
-      <c r="Y38" s="292"/>
+      <c r="B38" s="356"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="325"/>
+      <c r="E38" s="326"/>
+      <c r="F38" s="326"/>
+      <c r="G38" s="326"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="326"/>
+      <c r="N38" s="326"/>
+      <c r="O38" s="326"/>
+      <c r="P38" s="326"/>
+      <c r="Q38" s="326"/>
+      <c r="R38" s="326"/>
+      <c r="S38" s="326"/>
+      <c r="T38" s="326"/>
+      <c r="U38" s="326"/>
+      <c r="V38" s="326"/>
+      <c r="W38" s="326"/>
+      <c r="X38" s="326"/>
+      <c r="Y38" s="327"/>
       <c r="Z38" s="79"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
@@ -9168,31 +9168,31 @@
       <c r="AW38" s="88"/>
     </row>
     <row r="39" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="222"/>
-      <c r="B39" s="223"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="290"/>
-      <c r="E39" s="291"/>
-      <c r="F39" s="291"/>
-      <c r="G39" s="291"/>
-      <c r="H39" s="291"/>
-      <c r="I39" s="291"/>
-      <c r="J39" s="291"/>
-      <c r="K39" s="291"/>
-      <c r="L39" s="291"/>
-      <c r="M39" s="291"/>
-      <c r="N39" s="291"/>
-      <c r="O39" s="291"/>
-      <c r="P39" s="291"/>
-      <c r="Q39" s="291"/>
-      <c r="R39" s="291"/>
-      <c r="S39" s="291"/>
-      <c r="T39" s="291"/>
-      <c r="U39" s="291"/>
-      <c r="V39" s="291"/>
-      <c r="W39" s="291"/>
-      <c r="X39" s="291"/>
-      <c r="Y39" s="292"/>
+      <c r="A39" s="355"/>
+      <c r="B39" s="356"/>
+      <c r="C39" s="357"/>
+      <c r="D39" s="325"/>
+      <c r="E39" s="326"/>
+      <c r="F39" s="326"/>
+      <c r="G39" s="326"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="326"/>
+      <c r="N39" s="326"/>
+      <c r="O39" s="326"/>
+      <c r="P39" s="326"/>
+      <c r="Q39" s="326"/>
+      <c r="R39" s="326"/>
+      <c r="S39" s="326"/>
+      <c r="T39" s="326"/>
+      <c r="U39" s="326"/>
+      <c r="V39" s="326"/>
+      <c r="W39" s="326"/>
+      <c r="X39" s="326"/>
+      <c r="Y39" s="327"/>
       <c r="Z39" s="80"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
@@ -9218,31 +9218,31 @@
       <c r="AW39" s="88"/>
     </row>
     <row r="40" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="222"/>
-      <c r="B40" s="223"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="290"/>
-      <c r="E40" s="291"/>
-      <c r="F40" s="291"/>
-      <c r="G40" s="291"/>
-      <c r="H40" s="291"/>
-      <c r="I40" s="291"/>
-      <c r="J40" s="291"/>
-      <c r="K40" s="291"/>
-      <c r="L40" s="291"/>
-      <c r="M40" s="291"/>
-      <c r="N40" s="291"/>
-      <c r="O40" s="291"/>
-      <c r="P40" s="291"/>
-      <c r="Q40" s="291"/>
-      <c r="R40" s="291"/>
-      <c r="S40" s="291"/>
-      <c r="T40" s="291"/>
-      <c r="U40" s="291"/>
-      <c r="V40" s="291"/>
-      <c r="W40" s="291"/>
-      <c r="X40" s="291"/>
-      <c r="Y40" s="292"/>
+      <c r="A40" s="355"/>
+      <c r="B40" s="356"/>
+      <c r="C40" s="357"/>
+      <c r="D40" s="325"/>
+      <c r="E40" s="326"/>
+      <c r="F40" s="326"/>
+      <c r="G40" s="326"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="326"/>
+      <c r="N40" s="326"/>
+      <c r="O40" s="326"/>
+      <c r="P40" s="326"/>
+      <c r="Q40" s="326"/>
+      <c r="R40" s="326"/>
+      <c r="S40" s="326"/>
+      <c r="T40" s="326"/>
+      <c r="U40" s="326"/>
+      <c r="V40" s="326"/>
+      <c r="W40" s="326"/>
+      <c r="X40" s="326"/>
+      <c r="Y40" s="327"/>
       <c r="Z40" s="79"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
@@ -9268,33 +9268,33 @@
       <c r="AW40" s="89"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A41" s="225">
+      <c r="A41" s="394">
         <v>0</v>
       </c>
-      <c r="B41" s="226"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="291"/>
-      <c r="F41" s="291"/>
-      <c r="G41" s="291"/>
-      <c r="H41" s="291"/>
-      <c r="I41" s="291"/>
-      <c r="J41" s="291"/>
-      <c r="K41" s="291"/>
-      <c r="L41" s="291"/>
-      <c r="M41" s="291"/>
-      <c r="N41" s="291"/>
-      <c r="O41" s="291"/>
-      <c r="P41" s="291"/>
-      <c r="Q41" s="291"/>
-      <c r="R41" s="291"/>
-      <c r="S41" s="291"/>
-      <c r="T41" s="291"/>
-      <c r="U41" s="291"/>
-      <c r="V41" s="291"/>
-      <c r="W41" s="291"/>
-      <c r="X41" s="291"/>
-      <c r="Y41" s="292"/>
+      <c r="B41" s="395"/>
+      <c r="C41" s="396"/>
+      <c r="D41" s="325"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="326"/>
+      <c r="G41" s="326"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="326"/>
+      <c r="N41" s="326"/>
+      <c r="O41" s="326"/>
+      <c r="P41" s="326"/>
+      <c r="Q41" s="326"/>
+      <c r="R41" s="326"/>
+      <c r="S41" s="326"/>
+      <c r="T41" s="326"/>
+      <c r="U41" s="326"/>
+      <c r="V41" s="326"/>
+      <c r="W41" s="326"/>
+      <c r="X41" s="326"/>
+      <c r="Y41" s="327"/>
       <c r="Z41" s="79"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
@@ -9320,31 +9320,31 @@
       <c r="AW41" s="89"/>
     </row>
     <row r="42" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="228"/>
-      <c r="B42" s="229"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="291"/>
-      <c r="F42" s="291"/>
-      <c r="G42" s="291"/>
-      <c r="H42" s="291"/>
-      <c r="I42" s="291"/>
-      <c r="J42" s="291"/>
-      <c r="K42" s="291"/>
-      <c r="L42" s="291"/>
-      <c r="M42" s="291"/>
-      <c r="N42" s="291"/>
-      <c r="O42" s="291"/>
-      <c r="P42" s="291"/>
-      <c r="Q42" s="291"/>
-      <c r="R42" s="291"/>
-      <c r="S42" s="291"/>
-      <c r="T42" s="291"/>
-      <c r="U42" s="291"/>
-      <c r="V42" s="291"/>
-      <c r="W42" s="291"/>
-      <c r="X42" s="291"/>
-      <c r="Y42" s="292"/>
+      <c r="A42" s="397"/>
+      <c r="B42" s="398"/>
+      <c r="C42" s="399"/>
+      <c r="D42" s="325"/>
+      <c r="E42" s="326"/>
+      <c r="F42" s="326"/>
+      <c r="G42" s="326"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="327"/>
       <c r="Z42" s="45"/>
       <c r="AA42" s="46"/>
       <c r="AB42" s="46"/>
@@ -9370,31 +9370,31 @@
       <c r="AW42" s="89"/>
     </row>
     <row r="43" spans="1:49" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="231"/>
-      <c r="B43" s="232"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="294"/>
-      <c r="F43" s="294"/>
-      <c r="G43" s="294"/>
-      <c r="H43" s="294"/>
-      <c r="I43" s="294"/>
-      <c r="J43" s="294"/>
-      <c r="K43" s="294"/>
-      <c r="L43" s="294"/>
-      <c r="M43" s="294"/>
-      <c r="N43" s="294"/>
-      <c r="O43" s="294"/>
-      <c r="P43" s="294"/>
-      <c r="Q43" s="294"/>
-      <c r="R43" s="294"/>
-      <c r="S43" s="294"/>
-      <c r="T43" s="294"/>
-      <c r="U43" s="294"/>
-      <c r="V43" s="294"/>
-      <c r="W43" s="294"/>
-      <c r="X43" s="294"/>
-      <c r="Y43" s="295"/>
+      <c r="A43" s="400"/>
+      <c r="B43" s="401"/>
+      <c r="C43" s="402"/>
+      <c r="D43" s="328"/>
+      <c r="E43" s="329"/>
+      <c r="F43" s="329"/>
+      <c r="G43" s="329"/>
+      <c r="H43" s="329"/>
+      <c r="I43" s="329"/>
+      <c r="J43" s="329"/>
+      <c r="K43" s="329"/>
+      <c r="L43" s="329"/>
+      <c r="M43" s="329"/>
+      <c r="N43" s="329"/>
+      <c r="O43" s="329"/>
+      <c r="P43" s="329"/>
+      <c r="Q43" s="329"/>
+      <c r="R43" s="329"/>
+      <c r="S43" s="329"/>
+      <c r="T43" s="329"/>
+      <c r="U43" s="329"/>
+      <c r="V43" s="329"/>
+      <c r="W43" s="329"/>
+      <c r="X43" s="329"/>
+      <c r="Y43" s="330"/>
       <c r="Z43" s="45"/>
       <c r="AA43" s="46"/>
       <c r="AB43" s="46"/>
@@ -9420,33 +9420,33 @@
       <c r="AW43" s="89"/>
     </row>
     <row r="44" spans="1:49" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="234" t="s">
+      <c r="A44" s="403" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="235"/>
-      <c r="C44" s="235"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="201"/>
-      <c r="F44" s="202"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="202"/>
-      <c r="J44" s="202"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="202"/>
-      <c r="O44" s="202"/>
-      <c r="P44" s="202"/>
-      <c r="Q44" s="202"/>
-      <c r="R44" s="202"/>
-      <c r="S44" s="202"/>
-      <c r="T44" s="202"/>
-      <c r="U44" s="202"/>
-      <c r="V44" s="202"/>
-      <c r="W44" s="202"/>
-      <c r="X44" s="202"/>
-      <c r="Y44" s="203"/>
+      <c r="B44" s="404"/>
+      <c r="C44" s="404"/>
+      <c r="D44" s="405"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="374"/>
+      <c r="G44" s="374"/>
+      <c r="H44" s="374"/>
+      <c r="I44" s="374"/>
+      <c r="J44" s="374"/>
+      <c r="K44" s="374"/>
+      <c r="L44" s="374"/>
+      <c r="M44" s="374"/>
+      <c r="N44" s="374"/>
+      <c r="O44" s="374"/>
+      <c r="P44" s="374"/>
+      <c r="Q44" s="374"/>
+      <c r="R44" s="374"/>
+      <c r="S44" s="374"/>
+      <c r="T44" s="374"/>
+      <c r="U44" s="374"/>
+      <c r="V44" s="374"/>
+      <c r="W44" s="374"/>
+      <c r="X44" s="374"/>
+      <c r="Y44" s="375"/>
       <c r="Z44" s="45"/>
       <c r="AA44" s="63"/>
       <c r="AB44" s="63"/>
@@ -9472,31 +9472,31 @@
       <c r="AW44" s="89"/>
     </row>
     <row r="45" spans="1:49" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="237"/>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="238"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="238"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="238"/>
-      <c r="P45" s="238"/>
-      <c r="Q45" s="238"/>
-      <c r="R45" s="238"/>
-      <c r="S45" s="238"/>
-      <c r="T45" s="238"/>
-      <c r="U45" s="238"/>
-      <c r="V45" s="238"/>
-      <c r="W45" s="238"/>
-      <c r="X45" s="238"/>
-      <c r="Y45" s="239"/>
+      <c r="A45" s="406"/>
+      <c r="B45" s="407"/>
+      <c r="C45" s="407"/>
+      <c r="D45" s="407"/>
+      <c r="E45" s="407"/>
+      <c r="F45" s="407"/>
+      <c r="G45" s="407"/>
+      <c r="H45" s="407"/>
+      <c r="I45" s="407"/>
+      <c r="J45" s="407"/>
+      <c r="K45" s="407"/>
+      <c r="L45" s="407"/>
+      <c r="M45" s="407"/>
+      <c r="N45" s="407"/>
+      <c r="O45" s="407"/>
+      <c r="P45" s="407"/>
+      <c r="Q45" s="407"/>
+      <c r="R45" s="407"/>
+      <c r="S45" s="407"/>
+      <c r="T45" s="407"/>
+      <c r="U45" s="407"/>
+      <c r="V45" s="407"/>
+      <c r="W45" s="407"/>
+      <c r="X45" s="407"/>
+      <c r="Y45" s="408"/>
       <c r="Z45" s="64"/>
       <c r="AA45" s="51"/>
       <c r="AB45" s="51"/>
@@ -9522,39 +9522,39 @@
       <c r="AW45" s="89"/>
     </row>
     <row r="46" spans="1:49" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="240" t="s">
+      <c r="A46" s="409" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="241"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="243"/>
-      <c r="K46" s="243"/>
-      <c r="L46" s="243"/>
-      <c r="M46" s="243"/>
-      <c r="N46" s="243"/>
-      <c r="O46" s="243"/>
-      <c r="P46" s="243"/>
-      <c r="Q46" s="243"/>
-      <c r="R46" s="243"/>
-      <c r="S46" s="243"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="243"/>
-      <c r="V46" s="243"/>
-      <c r="W46" s="243"/>
-      <c r="X46" s="243"/>
-      <c r="Y46" s="244"/>
-      <c r="Z46" s="194" t="s">
+      <c r="B46" s="410"/>
+      <c r="C46" s="410"/>
+      <c r="D46" s="410"/>
+      <c r="E46" s="411"/>
+      <c r="F46" s="412"/>
+      <c r="G46" s="412"/>
+      <c r="H46" s="412"/>
+      <c r="I46" s="412"/>
+      <c r="J46" s="412"/>
+      <c r="K46" s="412"/>
+      <c r="L46" s="412"/>
+      <c r="M46" s="412"/>
+      <c r="N46" s="412"/>
+      <c r="O46" s="412"/>
+      <c r="P46" s="412"/>
+      <c r="Q46" s="412"/>
+      <c r="R46" s="412"/>
+      <c r="S46" s="412"/>
+      <c r="T46" s="412"/>
+      <c r="U46" s="412"/>
+      <c r="V46" s="412"/>
+      <c r="W46" s="412"/>
+      <c r="X46" s="412"/>
+      <c r="Y46" s="413"/>
+      <c r="Z46" s="305" t="s">
         <v>883</v>
       </c>
-      <c r="AA46" s="195"/>
-      <c r="AB46" s="195"/>
-      <c r="AC46" s="196"/>
+      <c r="AA46" s="234"/>
+      <c r="AB46" s="234"/>
+      <c r="AC46" s="235"/>
       <c r="AD46" s="87"/>
       <c r="AE46" s="87"/>
       <c r="AF46" s="87"/>
@@ -9576,33 +9576,33 @@
       <c r="AW46" s="89"/>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A47" s="197" t="s">
+      <c r="A47" s="369" t="s">
         <v>881</v>
       </c>
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="202"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="202"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202"/>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="203"/>
+      <c r="B47" s="370"/>
+      <c r="C47" s="370"/>
+      <c r="D47" s="370"/>
+      <c r="E47" s="373"/>
+      <c r="F47" s="374"/>
+      <c r="G47" s="374"/>
+      <c r="H47" s="374"/>
+      <c r="I47" s="374"/>
+      <c r="J47" s="374"/>
+      <c r="K47" s="374"/>
+      <c r="L47" s="374"/>
+      <c r="M47" s="374"/>
+      <c r="N47" s="374"/>
+      <c r="O47" s="374"/>
+      <c r="P47" s="374"/>
+      <c r="Q47" s="374"/>
+      <c r="R47" s="374"/>
+      <c r="S47" s="374"/>
+      <c r="T47" s="374"/>
+      <c r="U47" s="374"/>
+      <c r="V47" s="374"/>
+      <c r="W47" s="374"/>
+      <c r="X47" s="374"/>
+      <c r="Y47" s="375"/>
       <c r="Z47" s="45"/>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46"/>
@@ -9628,42 +9628,42 @@
       <c r="AW47" s="89"/>
     </row>
     <row r="48" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="199"/>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="205"/>
-      <c r="K48" s="205"/>
-      <c r="L48" s="205"/>
-      <c r="M48" s="205"/>
-      <c r="N48" s="205"/>
-      <c r="O48" s="205"/>
-      <c r="P48" s="205"/>
-      <c r="Q48" s="205"/>
-      <c r="R48" s="205"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="205"/>
-      <c r="U48" s="205"/>
-      <c r="V48" s="205"/>
-      <c r="W48" s="205"/>
-      <c r="X48" s="205"/>
-      <c r="Y48" s="206"/>
-      <c r="Z48" s="207"/>
-      <c r="AA48" s="208"/>
-      <c r="AB48" s="208"/>
-      <c r="AC48" s="208"/>
-      <c r="AD48" s="208"/>
-      <c r="AE48" s="208"/>
-      <c r="AF48" s="208"/>
-      <c r="AG48" s="208"/>
-      <c r="AH48" s="208"/>
-      <c r="AI48" s="208"/>
-      <c r="AJ48" s="209"/>
+      <c r="A48" s="371"/>
+      <c r="B48" s="372"/>
+      <c r="C48" s="372"/>
+      <c r="D48" s="372"/>
+      <c r="E48" s="376"/>
+      <c r="F48" s="377"/>
+      <c r="G48" s="377"/>
+      <c r="H48" s="377"/>
+      <c r="I48" s="377"/>
+      <c r="J48" s="377"/>
+      <c r="K48" s="377"/>
+      <c r="L48" s="377"/>
+      <c r="M48" s="377"/>
+      <c r="N48" s="377"/>
+      <c r="O48" s="377"/>
+      <c r="P48" s="377"/>
+      <c r="Q48" s="377"/>
+      <c r="R48" s="377"/>
+      <c r="S48" s="377"/>
+      <c r="T48" s="377"/>
+      <c r="U48" s="377"/>
+      <c r="V48" s="377"/>
+      <c r="W48" s="377"/>
+      <c r="X48" s="377"/>
+      <c r="Y48" s="378"/>
+      <c r="Z48" s="379"/>
+      <c r="AA48" s="380"/>
+      <c r="AB48" s="380"/>
+      <c r="AC48" s="380"/>
+      <c r="AD48" s="380"/>
+      <c r="AE48" s="380"/>
+      <c r="AF48" s="380"/>
+      <c r="AG48" s="380"/>
+      <c r="AH48" s="380"/>
+      <c r="AI48" s="380"/>
+      <c r="AJ48" s="381"/>
       <c r="AL48" s="89"/>
       <c r="AM48" s="89"/>
       <c r="AN48" s="89"/>
@@ -9678,37 +9678,37 @@
       <c r="AW48" s="89"/>
     </row>
     <row r="49" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="210" t="s">
+      <c r="A49" s="382" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="215"/>
-      <c r="G49" s="215"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="215"/>
-      <c r="K49" s="215"/>
-      <c r="L49" s="215"/>
-      <c r="M49" s="215"/>
-      <c r="N49" s="215"/>
-      <c r="O49" s="215"/>
-      <c r="P49" s="215"/>
-      <c r="Q49" s="215"/>
-      <c r="R49" s="215"/>
-      <c r="S49" s="215"/>
-      <c r="T49" s="215"/>
-      <c r="U49" s="215"/>
-      <c r="V49" s="215"/>
-      <c r="W49" s="215"/>
-      <c r="X49" s="215"/>
-      <c r="Y49" s="216"/>
-      <c r="Z49" s="220"/>
-      <c r="AA49" s="221"/>
-      <c r="AB49" s="221"/>
-      <c r="AC49" s="221"/>
+      <c r="B49" s="383"/>
+      <c r="C49" s="383"/>
+      <c r="D49" s="383"/>
+      <c r="E49" s="386"/>
+      <c r="F49" s="387"/>
+      <c r="G49" s="387"/>
+      <c r="H49" s="387"/>
+      <c r="I49" s="387"/>
+      <c r="J49" s="387"/>
+      <c r="K49" s="387"/>
+      <c r="L49" s="387"/>
+      <c r="M49" s="387"/>
+      <c r="N49" s="387"/>
+      <c r="O49" s="387"/>
+      <c r="P49" s="387"/>
+      <c r="Q49" s="387"/>
+      <c r="R49" s="387"/>
+      <c r="S49" s="387"/>
+      <c r="T49" s="387"/>
+      <c r="U49" s="387"/>
+      <c r="V49" s="387"/>
+      <c r="W49" s="387"/>
+      <c r="X49" s="387"/>
+      <c r="Y49" s="388"/>
+      <c r="Z49" s="392"/>
+      <c r="AA49" s="393"/>
+      <c r="AB49" s="393"/>
+      <c r="AC49" s="393"/>
       <c r="AD49" s="46"/>
       <c r="AE49" s="46"/>
       <c r="AF49" s="46"/>
@@ -9718,31 +9718,31 @@
       <c r="AJ49" s="50"/>
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="212"/>
-      <c r="B50" s="213"/>
-      <c r="C50" s="213"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="217"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="218"/>
-      <c r="J50" s="218"/>
-      <c r="K50" s="218"/>
-      <c r="L50" s="218"/>
-      <c r="M50" s="218"/>
-      <c r="N50" s="218"/>
-      <c r="O50" s="218"/>
-      <c r="P50" s="218"/>
-      <c r="Q50" s="218"/>
-      <c r="R50" s="218"/>
-      <c r="S50" s="218"/>
-      <c r="T50" s="218"/>
-      <c r="U50" s="218"/>
-      <c r="V50" s="218"/>
-      <c r="W50" s="218"/>
-      <c r="X50" s="218"/>
-      <c r="Y50" s="219"/>
+      <c r="A50" s="384"/>
+      <c r="B50" s="385"/>
+      <c r="C50" s="385"/>
+      <c r="D50" s="385"/>
+      <c r="E50" s="389"/>
+      <c r="F50" s="390"/>
+      <c r="G50" s="390"/>
+      <c r="H50" s="390"/>
+      <c r="I50" s="390"/>
+      <c r="J50" s="390"/>
+      <c r="K50" s="390"/>
+      <c r="L50" s="390"/>
+      <c r="M50" s="390"/>
+      <c r="N50" s="390"/>
+      <c r="O50" s="390"/>
+      <c r="P50" s="390"/>
+      <c r="Q50" s="390"/>
+      <c r="R50" s="390"/>
+      <c r="S50" s="390"/>
+      <c r="T50" s="390"/>
+      <c r="U50" s="390"/>
+      <c r="V50" s="390"/>
+      <c r="W50" s="390"/>
+      <c r="X50" s="390"/>
+      <c r="Y50" s="391"/>
       <c r="Z50" s="45"/>
       <c r="AA50" s="46"/>
       <c r="AB50" s="46"/>
@@ -9794,37 +9794,37 @@
       <c r="AJ51" s="50"/>
     </row>
     <row r="52" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="483" t="s">
+      <c r="A52" s="121" t="s">
         <v>908</v>
       </c>
-      <c r="B52" s="484"/>
-      <c r="C52" s="484"/>
-      <c r="D52" s="484"/>
-      <c r="E52" s="484"/>
-      <c r="F52" s="484"/>
-      <c r="G52" s="485"/>
-      <c r="H52" s="486" t="s">
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="I52" s="487"/>
-      <c r="J52" s="487"/>
-      <c r="K52" s="487"/>
-      <c r="L52" s="487"/>
-      <c r="M52" s="487"/>
-      <c r="N52" s="487"/>
-      <c r="O52" s="487"/>
-      <c r="P52" s="487"/>
-      <c r="Q52" s="488"/>
-      <c r="R52" s="489" t="s">
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="S52" s="490"/>
-      <c r="T52" s="490"/>
-      <c r="U52" s="490"/>
-      <c r="V52" s="490"/>
-      <c r="W52" s="490"/>
-      <c r="X52" s="490"/>
-      <c r="Y52" s="491"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="129"/>
       <c r="Z52" s="59"/>
       <c r="AA52" s="63"/>
       <c r="AB52" s="63"/>
@@ -9838,37 +9838,37 @@
       <c r="AJ52" s="67"/>
     </row>
     <row r="53" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="463" t="s">
+      <c r="A53" s="130" t="s">
         <v>907</v>
       </c>
-      <c r="B53" s="464"/>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="492" t="s">
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="133" t="s">
         <v>896</v>
       </c>
-      <c r="I53" s="493"/>
-      <c r="J53" s="493"/>
-      <c r="K53" s="493"/>
-      <c r="L53" s="493"/>
-      <c r="M53" s="493"/>
-      <c r="N53" s="493"/>
-      <c r="O53" s="493"/>
-      <c r="P53" s="493"/>
-      <c r="Q53" s="494"/>
-      <c r="R53" s="489" t="s">
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="134"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="S53" s="490"/>
-      <c r="T53" s="490"/>
-      <c r="U53" s="490"/>
-      <c r="V53" s="490"/>
-      <c r="W53" s="490"/>
-      <c r="X53" s="490"/>
-      <c r="Y53" s="491"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="129"/>
       <c r="Z53" s="59"/>
       <c r="AA53" s="63"/>
       <c r="AB53" s="63"/>
@@ -9882,34 +9882,34 @@
       <c r="AJ53" s="67"/>
     </row>
     <row r="54" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="463"/>
-      <c r="B54" s="464"/>
-      <c r="C54" s="464"/>
-      <c r="D54" s="464"/>
-      <c r="E54" s="464"/>
-      <c r="F54" s="464"/>
-      <c r="G54" s="465"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="470"/>
-      <c r="J54" s="470"/>
-      <c r="K54" s="470"/>
-      <c r="L54" s="470"/>
-      <c r="M54" s="470"/>
-      <c r="N54" s="470"/>
-      <c r="O54" s="470"/>
-      <c r="P54" s="470"/>
-      <c r="Q54" s="471"/>
-      <c r="R54" s="472" t="str">
+      <c r="A54" s="130"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="168"/>
+      <c r="R54" s="110" t="str">
         <f>G5</f>
         <v xml:space="preserve">Комплекс зданий Центра международных конференций </v>
       </c>
-      <c r="S54" s="473"/>
-      <c r="T54" s="473"/>
-      <c r="U54" s="473"/>
-      <c r="V54" s="473"/>
-      <c r="W54" s="473"/>
-      <c r="X54" s="473"/>
-      <c r="Y54" s="474"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="112"/>
       <c r="Z54" s="59"/>
       <c r="AA54" s="63"/>
       <c r="AB54" s="63"/>
@@ -9923,31 +9923,31 @@
       <c r="AJ54" s="67"/>
     </row>
     <row r="55" spans="1:36" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="466"/>
-      <c r="B55" s="467"/>
-      <c r="C55" s="467"/>
-      <c r="D55" s="467"/>
-      <c r="E55" s="467"/>
-      <c r="F55" s="467"/>
-      <c r="G55" s="468"/>
-      <c r="H55" s="469"/>
-      <c r="I55" s="470"/>
-      <c r="J55" s="470"/>
-      <c r="K55" s="470"/>
-      <c r="L55" s="470"/>
-      <c r="M55" s="470"/>
-      <c r="N55" s="470"/>
-      <c r="O55" s="470"/>
-      <c r="P55" s="470"/>
-      <c r="Q55" s="471"/>
-      <c r="R55" s="472"/>
-      <c r="S55" s="473"/>
-      <c r="T55" s="473"/>
-      <c r="U55" s="473"/>
-      <c r="V55" s="473"/>
-      <c r="W55" s="473"/>
-      <c r="X55" s="473"/>
-      <c r="Y55" s="474"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="168"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="112"/>
       <c r="Z55" s="59"/>
       <c r="AA55" s="63"/>
       <c r="AB55" s="63"/>
@@ -9961,44 +9961,44 @@
       <c r="AJ55" s="67"/>
     </row>
     <row r="56" spans="1:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="495"/>
-      <c r="B56" s="496"/>
-      <c r="C56" s="475" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="113" t="s">
         <v>913</v>
       </c>
-      <c r="D56" s="475"/>
-      <c r="E56" s="475" t="s">
+      <c r="D56" s="113"/>
+      <c r="E56" s="113" t="s">
         <v>914</v>
       </c>
-      <c r="F56" s="475"/>
-      <c r="G56" s="476"/>
-      <c r="H56" s="477"/>
-      <c r="I56" s="478"/>
-      <c r="J56" s="478"/>
-      <c r="K56" s="478"/>
-      <c r="L56" s="478"/>
-      <c r="M56" s="478"/>
-      <c r="N56" s="478"/>
-      <c r="O56" s="478"/>
-      <c r="P56" s="478"/>
-      <c r="Q56" s="479"/>
-      <c r="R56" s="480" t="str">
+      <c r="F56" s="113"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="118" t="str">
         <f>G4</f>
         <v xml:space="preserve">Complexe des bâtiments du Centre des conférences internationales </v>
       </c>
-      <c r="S56" s="481"/>
-      <c r="T56" s="481"/>
-      <c r="U56" s="481"/>
-      <c r="V56" s="481"/>
-      <c r="W56" s="481"/>
-      <c r="X56" s="481"/>
-      <c r="Y56" s="482"/>
-      <c r="Z56" s="129" t="s">
+      <c r="S56" s="119"/>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119"/>
+      <c r="V56" s="119"/>
+      <c r="W56" s="119"/>
+      <c r="X56" s="119"/>
+      <c r="Y56" s="120"/>
+      <c r="Z56" s="414" t="s">
         <v>884</v>
       </c>
-      <c r="AA56" s="130"/>
-      <c r="AB56" s="130"/>
-      <c r="AC56" s="131"/>
+      <c r="AA56" s="415"/>
+      <c r="AB56" s="415"/>
+      <c r="AC56" s="416"/>
       <c r="AD56" s="63"/>
       <c r="AE56" s="63"/>
       <c r="AF56" s="63"/>
@@ -10008,376 +10008,376 @@
       <c r="AJ56" s="67"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="472" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="187"/>
-      <c r="C57" s="132">
+      <c r="B57" s="473"/>
+      <c r="C57" s="417">
         <v>43592</v>
       </c>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132">
+      <c r="D57" s="417"/>
+      <c r="E57" s="417">
         <v>43592</v>
       </c>
-      <c r="F57" s="134"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="138" t="s">
+      <c r="F57" s="419"/>
+      <c r="G57" s="420"/>
+      <c r="H57" s="423" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="139"/>
-      <c r="J57" s="460"/>
-      <c r="K57" s="461"/>
-      <c r="L57" s="461"/>
-      <c r="M57" s="461"/>
-      <c r="N57" s="461"/>
-      <c r="O57" s="461"/>
-      <c r="P57" s="461"/>
-      <c r="Q57" s="462"/>
+      <c r="I57" s="424"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="Q57" s="162"/>
       <c r="R57" s="106" t="s">
         <v>3</v>
       </c>
       <c r="S57" s="107"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="140"/>
-      <c r="V57" s="140"/>
-      <c r="W57" s="140"/>
-      <c r="X57" s="140"/>
-      <c r="Y57" s="141"/>
-      <c r="Z57" s="144"/>
-      <c r="AA57" s="145"/>
-      <c r="AB57" s="145"/>
-      <c r="AC57" s="145"/>
-      <c r="AD57" s="145"/>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="145"/>
-      <c r="AG57" s="145"/>
-      <c r="AH57" s="145"/>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="146"/>
+      <c r="T57" s="425"/>
+      <c r="U57" s="425"/>
+      <c r="V57" s="425"/>
+      <c r="W57" s="425"/>
+      <c r="X57" s="425"/>
+      <c r="Y57" s="426"/>
+      <c r="Z57" s="429"/>
+      <c r="AA57" s="430"/>
+      <c r="AB57" s="430"/>
+      <c r="AC57" s="430"/>
+      <c r="AD57" s="430"/>
+      <c r="AE57" s="430"/>
+      <c r="AF57" s="430"/>
+      <c r="AG57" s="430"/>
+      <c r="AH57" s="430"/>
+      <c r="AI57" s="430"/>
+      <c r="AJ57" s="431"/>
     </row>
     <row r="58" spans="1:36" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="474" t="s">
         <v>876</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="153" t="s">
+      <c r="B58" s="475"/>
+      <c r="C58" s="418"/>
+      <c r="D58" s="418"/>
+      <c r="E58" s="421"/>
+      <c r="F58" s="421"/>
+      <c r="G58" s="422"/>
+      <c r="H58" s="438" t="s">
         <v>876</v>
       </c>
-      <c r="I58" s="154"/>
-      <c r="J58" s="457"/>
-      <c r="K58" s="458"/>
-      <c r="L58" s="458"/>
-      <c r="M58" s="458"/>
-      <c r="N58" s="458"/>
-      <c r="O58" s="458"/>
-      <c r="P58" s="458"/>
-      <c r="Q58" s="459"/>
+      <c r="I58" s="439"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158"/>
+      <c r="Q58" s="159"/>
       <c r="R58" s="108" t="s">
         <v>876</v>
       </c>
       <c r="S58" s="109"/>
-      <c r="T58" s="142"/>
-      <c r="U58" s="142"/>
-      <c r="V58" s="142"/>
-      <c r="W58" s="142"/>
-      <c r="X58" s="142"/>
-      <c r="Y58" s="143"/>
-      <c r="Z58" s="147"/>
-      <c r="AA58" s="148"/>
-      <c r="AB58" s="148"/>
-      <c r="AC58" s="148"/>
-      <c r="AD58" s="148"/>
-      <c r="AE58" s="148"/>
-      <c r="AF58" s="148"/>
-      <c r="AG58" s="148"/>
-      <c r="AH58" s="148"/>
-      <c r="AI58" s="148"/>
-      <c r="AJ58" s="149"/>
+      <c r="T58" s="427"/>
+      <c r="U58" s="427"/>
+      <c r="V58" s="427"/>
+      <c r="W58" s="427"/>
+      <c r="X58" s="427"/>
+      <c r="Y58" s="428"/>
+      <c r="Z58" s="432"/>
+      <c r="AA58" s="433"/>
+      <c r="AB58" s="433"/>
+      <c r="AC58" s="433"/>
+      <c r="AD58" s="433"/>
+      <c r="AE58" s="433"/>
+      <c r="AF58" s="433"/>
+      <c r="AG58" s="433"/>
+      <c r="AH58" s="433"/>
+      <c r="AI58" s="433"/>
+      <c r="AJ58" s="434"/>
     </row>
     <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="191"/>
-      <c r="C59" s="155" t="s">
+      <c r="B59" s="477"/>
+      <c r="C59" s="440" t="s">
         <v>922</v>
       </c>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155" t="s">
+      <c r="D59" s="440"/>
+      <c r="E59" s="440" t="s">
         <v>917</v>
       </c>
-      <c r="F59" s="155"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="159" t="s">
+      <c r="F59" s="440"/>
+      <c r="G59" s="442"/>
+      <c r="H59" s="444" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="160"/>
-      <c r="J59" s="454"/>
-      <c r="K59" s="455"/>
-      <c r="L59" s="455"/>
-      <c r="M59" s="455"/>
-      <c r="N59" s="455"/>
-      <c r="O59" s="455"/>
-      <c r="P59" s="455"/>
-      <c r="Q59" s="456"/>
+      <c r="I59" s="445"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="156"/>
       <c r="R59" s="102" t="s">
         <v>11</v>
       </c>
       <c r="S59" s="103"/>
-      <c r="T59" s="161"/>
-      <c r="U59" s="162"/>
-      <c r="V59" s="162"/>
-      <c r="W59" s="162"/>
-      <c r="X59" s="162"/>
-      <c r="Y59" s="163"/>
-      <c r="Z59" s="147"/>
-      <c r="AA59" s="148"/>
-      <c r="AB59" s="148"/>
-      <c r="AC59" s="148"/>
-      <c r="AD59" s="148"/>
-      <c r="AE59" s="148"/>
-      <c r="AF59" s="148"/>
-      <c r="AG59" s="148"/>
-      <c r="AH59" s="148"/>
-      <c r="AI59" s="148"/>
-      <c r="AJ59" s="149"/>
+      <c r="T59" s="446"/>
+      <c r="U59" s="447"/>
+      <c r="V59" s="447"/>
+      <c r="W59" s="447"/>
+      <c r="X59" s="447"/>
+      <c r="Y59" s="448"/>
+      <c r="Z59" s="432"/>
+      <c r="AA59" s="433"/>
+      <c r="AB59" s="433"/>
+      <c r="AC59" s="433"/>
+      <c r="AD59" s="433"/>
+      <c r="AE59" s="433"/>
+      <c r="AF59" s="433"/>
+      <c r="AG59" s="433"/>
+      <c r="AH59" s="433"/>
+      <c r="AI59" s="433"/>
+      <c r="AJ59" s="434"/>
     </row>
     <row r="60" spans="1:36" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="478" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="193"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="166" t="s">
+      <c r="B60" s="479"/>
+      <c r="C60" s="441"/>
+      <c r="D60" s="441"/>
+      <c r="E60" s="441"/>
+      <c r="F60" s="441"/>
+      <c r="G60" s="443"/>
+      <c r="H60" s="451" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="167"/>
-      <c r="J60" s="457"/>
-      <c r="K60" s="458"/>
-      <c r="L60" s="458"/>
-      <c r="M60" s="458"/>
-      <c r="N60" s="458"/>
-      <c r="O60" s="458"/>
-      <c r="P60" s="458"/>
-      <c r="Q60" s="459"/>
+      <c r="I60" s="452"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="159"/>
       <c r="R60" s="104" t="s">
         <v>8</v>
       </c>
       <c r="S60" s="105"/>
-      <c r="T60" s="164"/>
-      <c r="U60" s="164"/>
-      <c r="V60" s="164"/>
-      <c r="W60" s="164"/>
-      <c r="X60" s="164"/>
-      <c r="Y60" s="165"/>
-      <c r="Z60" s="147"/>
-      <c r="AA60" s="148"/>
-      <c r="AB60" s="148"/>
-      <c r="AC60" s="148"/>
-      <c r="AD60" s="148"/>
-      <c r="AE60" s="148"/>
-      <c r="AF60" s="148"/>
-      <c r="AG60" s="148"/>
-      <c r="AH60" s="148"/>
-      <c r="AI60" s="148"/>
-      <c r="AJ60" s="149"/>
+      <c r="T60" s="449"/>
+      <c r="U60" s="449"/>
+      <c r="V60" s="449"/>
+      <c r="W60" s="449"/>
+      <c r="X60" s="449"/>
+      <c r="Y60" s="450"/>
+      <c r="Z60" s="432"/>
+      <c r="AA60" s="433"/>
+      <c r="AB60" s="433"/>
+      <c r="AC60" s="433"/>
+      <c r="AD60" s="433"/>
+      <c r="AE60" s="433"/>
+      <c r="AF60" s="433"/>
+      <c r="AG60" s="433"/>
+      <c r="AH60" s="433"/>
+      <c r="AI60" s="433"/>
+      <c r="AJ60" s="434"/>
     </row>
     <row r="61" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="439" t="s">
+      <c r="A61" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="440"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="172" t="s">
+      <c r="B61" s="139"/>
+      <c r="C61" s="453"/>
+      <c r="D61" s="453"/>
+      <c r="E61" s="453"/>
+      <c r="F61" s="453"/>
+      <c r="G61" s="455"/>
+      <c r="H61" s="457" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="173"/>
-      <c r="J61" s="448"/>
-      <c r="K61" s="449"/>
-      <c r="L61" s="449"/>
-      <c r="M61" s="449"/>
-      <c r="N61" s="449"/>
-      <c r="O61" s="449"/>
-      <c r="P61" s="449"/>
-      <c r="Q61" s="450"/>
+      <c r="I61" s="458"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
+      <c r="M61" s="149"/>
+      <c r="N61" s="149"/>
+      <c r="O61" s="149"/>
+      <c r="P61" s="149"/>
+      <c r="Q61" s="150"/>
       <c r="R61" s="69" t="s">
         <v>10</v>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="174"/>
-      <c r="U61" s="174"/>
-      <c r="V61" s="174"/>
-      <c r="W61" s="174"/>
-      <c r="X61" s="174"/>
-      <c r="Y61" s="175"/>
-      <c r="Z61" s="147"/>
-      <c r="AA61" s="148"/>
-      <c r="AB61" s="148"/>
-      <c r="AC61" s="148"/>
-      <c r="AD61" s="148"/>
-      <c r="AE61" s="148"/>
-      <c r="AF61" s="148"/>
-      <c r="AG61" s="148"/>
-      <c r="AH61" s="148"/>
-      <c r="AI61" s="148"/>
-      <c r="AJ61" s="149"/>
+      <c r="T61" s="459"/>
+      <c r="U61" s="459"/>
+      <c r="V61" s="459"/>
+      <c r="W61" s="459"/>
+      <c r="X61" s="459"/>
+      <c r="Y61" s="460"/>
+      <c r="Z61" s="432"/>
+      <c r="AA61" s="433"/>
+      <c r="AB61" s="433"/>
+      <c r="AC61" s="433"/>
+      <c r="AD61" s="433"/>
+      <c r="AE61" s="433"/>
+      <c r="AF61" s="433"/>
+      <c r="AG61" s="433"/>
+      <c r="AH61" s="433"/>
+      <c r="AI61" s="433"/>
+      <c r="AJ61" s="434"/>
     </row>
     <row r="62" spans="1:36" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="441" t="s">
+      <c r="A62" s="140" t="s">
         <v>878</v>
       </c>
-      <c r="B62" s="179"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="171"/>
-      <c r="H62" s="178" t="s">
+      <c r="B62" s="141"/>
+      <c r="C62" s="454"/>
+      <c r="D62" s="454"/>
+      <c r="E62" s="454"/>
+      <c r="F62" s="454"/>
+      <c r="G62" s="456"/>
+      <c r="H62" s="463" t="s">
         <v>878</v>
       </c>
-      <c r="I62" s="179"/>
-      <c r="J62" s="451"/>
-      <c r="K62" s="452"/>
-      <c r="L62" s="452"/>
-      <c r="M62" s="452"/>
-      <c r="N62" s="452"/>
-      <c r="O62" s="452"/>
-      <c r="P62" s="452"/>
-      <c r="Q62" s="453"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="151"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="152"/>
+      <c r="Q62" s="153"/>
       <c r="R62" s="68" t="s">
         <v>878</v>
       </c>
       <c r="S62" s="82"/>
-      <c r="T62" s="176"/>
-      <c r="U62" s="176"/>
-      <c r="V62" s="176"/>
-      <c r="W62" s="176"/>
-      <c r="X62" s="176"/>
-      <c r="Y62" s="177"/>
-      <c r="Z62" s="147"/>
-      <c r="AA62" s="148"/>
-      <c r="AB62" s="148"/>
-      <c r="AC62" s="148"/>
-      <c r="AD62" s="148"/>
-      <c r="AE62" s="148"/>
-      <c r="AF62" s="148"/>
-      <c r="AG62" s="148"/>
-      <c r="AH62" s="148"/>
-      <c r="AI62" s="148"/>
-      <c r="AJ62" s="149"/>
+      <c r="T62" s="461"/>
+      <c r="U62" s="461"/>
+      <c r="V62" s="461"/>
+      <c r="W62" s="461"/>
+      <c r="X62" s="461"/>
+      <c r="Y62" s="462"/>
+      <c r="Z62" s="432"/>
+      <c r="AA62" s="433"/>
+      <c r="AB62" s="433"/>
+      <c r="AC62" s="433"/>
+      <c r="AD62" s="433"/>
+      <c r="AE62" s="433"/>
+      <c r="AF62" s="433"/>
+      <c r="AG62" s="433"/>
+      <c r="AH62" s="433"/>
+      <c r="AI62" s="433"/>
+      <c r="AJ62" s="434"/>
     </row>
     <row r="63" spans="1:36" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="112"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="113"/>
-      <c r="T63" s="113"/>
-      <c r="U63" s="113"/>
-      <c r="V63" s="113"/>
-      <c r="W63" s="113"/>
-      <c r="X63" s="113"/>
-      <c r="Y63" s="114"/>
-      <c r="Z63" s="147"/>
-      <c r="AA63" s="148"/>
-      <c r="AB63" s="148"/>
-      <c r="AC63" s="148"/>
-      <c r="AD63" s="148"/>
-      <c r="AE63" s="148"/>
-      <c r="AF63" s="148"/>
-      <c r="AG63" s="148"/>
-      <c r="AH63" s="148"/>
-      <c r="AI63" s="148"/>
-      <c r="AJ63" s="149"/>
+      <c r="A63" s="482"/>
+      <c r="B63" s="483"/>
+      <c r="C63" s="483"/>
+      <c r="D63" s="483"/>
+      <c r="E63" s="483"/>
+      <c r="F63" s="483"/>
+      <c r="G63" s="483"/>
+      <c r="H63" s="483"/>
+      <c r="I63" s="483"/>
+      <c r="J63" s="483"/>
+      <c r="K63" s="483"/>
+      <c r="L63" s="483"/>
+      <c r="M63" s="483"/>
+      <c r="N63" s="483"/>
+      <c r="O63" s="483"/>
+      <c r="P63" s="483"/>
+      <c r="Q63" s="483"/>
+      <c r="R63" s="483"/>
+      <c r="S63" s="483"/>
+      <c r="T63" s="483"/>
+      <c r="U63" s="483"/>
+      <c r="V63" s="483"/>
+      <c r="W63" s="483"/>
+      <c r="X63" s="483"/>
+      <c r="Y63" s="484"/>
+      <c r="Z63" s="432"/>
+      <c r="AA63" s="433"/>
+      <c r="AB63" s="433"/>
+      <c r="AC63" s="433"/>
+      <c r="AD63" s="433"/>
+      <c r="AE63" s="433"/>
+      <c r="AF63" s="433"/>
+      <c r="AG63" s="433"/>
+      <c r="AH63" s="433"/>
+      <c r="AI63" s="433"/>
+      <c r="AJ63" s="434"/>
     </row>
     <row r="64" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="485" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="119" t="s">
+      <c r="B64" s="486"/>
+      <c r="C64" s="465"/>
+      <c r="D64" s="466"/>
+      <c r="E64" s="487" t="s">
         <v>324</v>
       </c>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="122" t="s">
+      <c r="F64" s="488"/>
+      <c r="G64" s="489"/>
+      <c r="H64" s="490" t="s">
         <v>394</v>
       </c>
-      <c r="I64" s="123"/>
-      <c r="J64" s="444" t="s">
+      <c r="I64" s="491"/>
+      <c r="J64" s="144" t="s">
         <v>325</v>
       </c>
-      <c r="K64" s="444"/>
-      <c r="L64" s="444"/>
-      <c r="M64" s="445"/>
-      <c r="N64" s="124" t="s">
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="145"/>
+      <c r="N64" s="492" t="s">
         <v>326</v>
       </c>
-      <c r="O64" s="125"/>
-      <c r="P64" s="124" t="s">
+      <c r="O64" s="493"/>
+      <c r="P64" s="492" t="s">
         <v>327</v>
       </c>
-      <c r="Q64" s="126"/>
-      <c r="R64" s="119" t="s">
+      <c r="Q64" s="494"/>
+      <c r="R64" s="487" t="s">
         <v>395</v>
       </c>
-      <c r="S64" s="120"/>
-      <c r="T64" s="120"/>
-      <c r="U64" s="120"/>
-      <c r="V64" s="121"/>
-      <c r="W64" s="119" t="s">
+      <c r="S64" s="488"/>
+      <c r="T64" s="488"/>
+      <c r="U64" s="488"/>
+      <c r="V64" s="489"/>
+      <c r="W64" s="487" t="s">
         <v>894</v>
       </c>
-      <c r="X64" s="127"/>
-      <c r="Y64" s="128"/>
-      <c r="Z64" s="147"/>
-      <c r="AA64" s="148"/>
-      <c r="AB64" s="148"/>
-      <c r="AC64" s="148"/>
-      <c r="AD64" s="148"/>
-      <c r="AE64" s="148"/>
-      <c r="AF64" s="148"/>
-      <c r="AG64" s="148"/>
-      <c r="AH64" s="148"/>
-      <c r="AI64" s="148"/>
-      <c r="AJ64" s="149"/>
+      <c r="X64" s="495"/>
+      <c r="Y64" s="496"/>
+      <c r="Z64" s="432"/>
+      <c r="AA64" s="433"/>
+      <c r="AB64" s="433"/>
+      <c r="AC64" s="433"/>
+      <c r="AD64" s="433"/>
+      <c r="AE64" s="433"/>
+      <c r="AF64" s="433"/>
+      <c r="AG64" s="433"/>
+      <c r="AH64" s="433"/>
+      <c r="AI64" s="433"/>
+      <c r="AJ64" s="434"/>
     </row>
     <row r="65" spans="1:36" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="180" t="s">
+      <c r="A65" s="464" t="s">
         <v>918</v>
       </c>
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="465"/>
+      <c r="C65" s="465"/>
+      <c r="D65" s="466"/>
       <c r="E65" s="90" t="s">
         <v>397</v>
       </c>
@@ -10387,18 +10387,18 @@
       <c r="G65" s="92" t="s">
         <v>921</v>
       </c>
-      <c r="H65" s="181" t="s">
+      <c r="H65" s="467" t="s">
         <v>923</v>
       </c>
-      <c r="I65" s="182"/>
-      <c r="J65" s="442" t="s">
+      <c r="I65" s="468"/>
+      <c r="J65" s="142" t="s">
         <v>396</v>
       </c>
-      <c r="K65" s="443"/>
-      <c r="L65" s="446" t="s">
+      <c r="K65" s="143"/>
+      <c r="L65" s="146" t="s">
         <v>397</v>
       </c>
-      <c r="M65" s="447"/>
+      <c r="M65" s="147"/>
       <c r="N65" s="100" t="s">
         <v>919</v>
       </c>
@@ -10426,22 +10426,22 @@
       <c r="V65" s="95">
         <v>0</v>
       </c>
-      <c r="W65" s="183">
+      <c r="W65" s="469">
         <v>0</v>
       </c>
-      <c r="X65" s="184"/>
-      <c r="Y65" s="185"/>
-      <c r="Z65" s="150"/>
-      <c r="AA65" s="151"/>
-      <c r="AB65" s="151"/>
-      <c r="AC65" s="151"/>
-      <c r="AD65" s="151"/>
-      <c r="AE65" s="151"/>
-      <c r="AF65" s="151"/>
-      <c r="AG65" s="151"/>
-      <c r="AH65" s="151"/>
-      <c r="AI65" s="151"/>
-      <c r="AJ65" s="152"/>
+      <c r="X65" s="470"/>
+      <c r="Y65" s="471"/>
+      <c r="Z65" s="435"/>
+      <c r="AA65" s="436"/>
+      <c r="AB65" s="436"/>
+      <c r="AC65" s="436"/>
+      <c r="AD65" s="436"/>
+      <c r="AE65" s="436"/>
+      <c r="AF65" s="436"/>
+      <c r="AG65" s="436"/>
+      <c r="AH65" s="436"/>
+      <c r="AI65" s="436"/>
+      <c r="AJ65" s="437"/>
     </row>
     <row r="66" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="71"/>
@@ -10472,112 +10472,27 @@
     </row>
     <row r="67" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE68" s="110" t="s">
+      <c r="AE68" s="480" t="s">
         <v>909</v>
       </c>
-      <c r="AF68" s="110"/>
-      <c r="AG68" s="110"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="111"/>
+      <c r="AF68" s="480"/>
+      <c r="AG68" s="480"/>
+      <c r="AH68" s="480"/>
+      <c r="AI68" s="481"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="127">
-    <mergeCell ref="R54:Y55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:Q56"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:Q52"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="H53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J61:Q62"/>
-    <mergeCell ref="J59:Q60"/>
-    <mergeCell ref="J57:Q58"/>
-    <mergeCell ref="A54:G55"/>
-    <mergeCell ref="H54:Q55"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:Y4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:Y5"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:Y1"/>
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:Y11"/>
-    <mergeCell ref="Z6:AB7"/>
-    <mergeCell ref="AC6:AJ7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:S9"/>
-    <mergeCell ref="T8:Y9"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="K6:P7"/>
-    <mergeCell ref="Q6:S7"/>
-    <mergeCell ref="T6:Y7"/>
-    <mergeCell ref="G8:J9"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="Z12:AB14"/>
-    <mergeCell ref="AC12:AJ14"/>
-    <mergeCell ref="Z17:AA22"/>
-    <mergeCell ref="AB17:AC22"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AJ24"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="A27:C29"/>
-    <mergeCell ref="D27:Y43"/>
-    <mergeCell ref="Z28:AJ29"/>
-    <mergeCell ref="A30:C32"/>
-    <mergeCell ref="Z31:AJ32"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="Z33:AJ33"/>
-    <mergeCell ref="Z34:AJ34"/>
-    <mergeCell ref="A35:C37"/>
-    <mergeCell ref="Z35:AJ37"/>
-    <mergeCell ref="A13:K24"/>
-    <mergeCell ref="M13:X24"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="E47:Y48"/>
-    <mergeCell ref="Z48:AJ48"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:Y50"/>
-    <mergeCell ref="Z49:AC49"/>
-    <mergeCell ref="A38:C40"/>
-    <mergeCell ref="A41:C43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:Y44"/>
-    <mergeCell ref="A45:Y45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:Y46"/>
+    <mergeCell ref="AE68:AI68"/>
+    <mergeCell ref="A63:Y63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:V64"/>
+    <mergeCell ref="W64:Y64"/>
     <mergeCell ref="Z56:AC56"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="E57:G58"/>
@@ -10602,15 +10517,100 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="AE68:AI68"/>
-    <mergeCell ref="A63:Y63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:V64"/>
-    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="E47:Y48"/>
+    <mergeCell ref="Z48:AJ48"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:Y50"/>
+    <mergeCell ref="Z49:AC49"/>
+    <mergeCell ref="A38:C40"/>
+    <mergeCell ref="A41:C43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:Y44"/>
+    <mergeCell ref="A45:Y45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:Y46"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="Z12:AB14"/>
+    <mergeCell ref="AC12:AJ14"/>
+    <mergeCell ref="Z17:AA22"/>
+    <mergeCell ref="AB17:AC22"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AJ24"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="A27:C29"/>
+    <mergeCell ref="D27:Y43"/>
+    <mergeCell ref="Z28:AJ29"/>
+    <mergeCell ref="A30:C32"/>
+    <mergeCell ref="Z31:AJ32"/>
+    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="Z33:AJ33"/>
+    <mergeCell ref="Z34:AJ34"/>
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="Z35:AJ37"/>
+    <mergeCell ref="A13:K24"/>
+    <mergeCell ref="M13:X24"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:Y11"/>
+    <mergeCell ref="Z6:AB7"/>
+    <mergeCell ref="AC6:AJ7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:S9"/>
+    <mergeCell ref="T8:Y9"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="K6:P7"/>
+    <mergeCell ref="Q6:S7"/>
+    <mergeCell ref="T6:Y7"/>
+    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:Y4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:Y5"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:Y1"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J61:Q62"/>
+    <mergeCell ref="J59:Q60"/>
+    <mergeCell ref="J57:Q58"/>
+    <mergeCell ref="A54:G55"/>
+    <mergeCell ref="H54:Q55"/>
+    <mergeCell ref="R54:Y55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:Q56"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:Q52"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:Y2">
     <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">

--- a/Fitness LIGNE 1.xlsx
+++ b/Fitness LIGNE 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\fiche_produit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C950F2-80AC-4D70-8516-EFBD7FC4015C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C5481-0CCB-40DD-88EE-BE0635FB2F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="956">
   <si>
     <t>ТЕХ.НАДЗОР</t>
   </si>
@@ -2829,11 +2829,6 @@
   </si>
   <si>
     <t>ДЖИМ 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Allemagne
-</t>
   </si>
   <si>
     <t>Descriptif technique:</t>
@@ -4710,7 +4705,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4909,1083 +4904,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="14" borderId="88" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6016,11 +4945,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6039,31 +4963,14 @@
     <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6079,15 +4986,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -6118,26 +5016,164 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6148,7 +5184,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6163,12 +5205,969 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6198,6 +6197,45 @@
     <cellStyle name="Pourcentage 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6372,45 +6410,6 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6681,12 +6680,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="E1:H6" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="E1:H6" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Standards qualité" dataDxfId="28" dataCellStyle="Normal 8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Signification" dataDxfId="27" dataCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Traduction russe" dataDxfId="26" dataCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Colonne1" dataDxfId="25" dataCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Standards qualité" dataDxfId="3" dataCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Signification" dataDxfId="2" dataCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Traduction russe" dataDxfId="1" dataCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Colonne1" dataDxfId="0" dataCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7043,7 +7042,7 @@
   <dimension ref="A1:AW48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:X22"/>
+      <selection activeCell="D8" sqref="D8:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7080,77 +7079,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="44" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326"/>
-      <c r="B1" s="327"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="335" t="s">
+      <c r="A1" s="219"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="228" t="s">
         <v>901</v>
       </c>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
-      <c r="S1" s="336"/>
-      <c r="T1" s="336"/>
-      <c r="U1" s="336"/>
-      <c r="V1" s="336"/>
-      <c r="W1" s="336"/>
-      <c r="X1" s="336"/>
-      <c r="Y1" s="337"/>
-      <c r="Z1" s="338" t="s">
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="231" t="s">
         <v>883</v>
       </c>
-      <c r="AA1" s="336"/>
-      <c r="AB1" s="336"/>
-      <c r="AC1" s="336"/>
-      <c r="AD1" s="336"/>
-      <c r="AE1" s="336"/>
-      <c r="AF1" s="336"/>
-      <c r="AG1" s="336"/>
-      <c r="AH1" s="336"/>
-      <c r="AI1" s="336"/>
-      <c r="AJ1" s="337"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="230"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="329"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="339" t="s">
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="340"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="342" t="s">
-        <v>927</v>
-      </c>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
-      <c r="O2" s="343"/>
-      <c r="P2" s="343"/>
-      <c r="Q2" s="343"/>
-      <c r="R2" s="343"/>
-      <c r="S2" s="343"/>
-      <c r="T2" s="343"/>
-      <c r="U2" s="343"/>
-      <c r="V2" s="343"/>
-      <c r="W2" s="343"/>
-      <c r="X2" s="343"/>
-      <c r="Y2" s="344"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="235" t="s">
+        <v>926</v>
+      </c>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="237"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -7164,84 +7163,84 @@
       <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="332"/>
-      <c r="B3" s="333"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="345" t="s">
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="238" t="s">
         <v>888</v>
       </c>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="348" t="s">
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="241" t="s">
         <v>918</v>
       </c>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="349"/>
-      <c r="R3" s="349"/>
-      <c r="S3" s="349"/>
-      <c r="T3" s="349"/>
-      <c r="U3" s="349"/>
-      <c r="V3" s="349"/>
-      <c r="W3" s="349"/>
-      <c r="X3" s="349"/>
-      <c r="Y3" s="350"/>
-      <c r="Z3" s="273" t="s">
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="242"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244" t="s">
         <v>894</v>
       </c>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="275"/>
-      <c r="AC3" s="351"/>
-      <c r="AD3" s="352"/>
-      <c r="AE3" s="353"/>
-      <c r="AF3" s="353"/>
-      <c r="AG3" s="353"/>
-      <c r="AH3" s="308"/>
-      <c r="AI3" s="308"/>
-      <c r="AJ3" s="309"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="201"/>
+      <c r="AJ3" s="202"/>
       <c r="AM3" s="66"/>
     </row>
     <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="312">
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="205">
         <v>78</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="315"/>
-      <c r="G4" s="316" t="s">
+      <c r="F4" s="208"/>
+      <c r="G4" s="209" t="s">
         <v>912</v>
       </c>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="317"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="317"/>
-      <c r="U4" s="317"/>
-      <c r="V4" s="317"/>
-      <c r="W4" s="317"/>
-      <c r="X4" s="317"/>
-      <c r="Y4" s="318"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="211"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="46"/>
       <c r="AB4" s="46"/>
@@ -7255,37 +7254,37 @@
       <c r="AJ4" s="50"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="212" t="s">
         <v>903</v>
       </c>
-      <c r="B5" s="320"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="321" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="322"/>
-      <c r="G5" s="323" t="s">
+      <c r="F5" s="215"/>
+      <c r="G5" s="216" t="s">
         <v>913</v>
       </c>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="324"/>
-      <c r="P5" s="324"/>
-      <c r="Q5" s="324"/>
-      <c r="R5" s="324"/>
-      <c r="S5" s="324"/>
-      <c r="T5" s="324"/>
-      <c r="U5" s="324"/>
-      <c r="V5" s="324"/>
-      <c r="W5" s="324"/>
-      <c r="X5" s="324"/>
-      <c r="Y5" s="325"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="218"/>
       <c r="Z5" s="45"/>
       <c r="AA5" s="46"/>
       <c r="AB5" s="46"/>
@@ -7299,95 +7298,95 @@
       <c r="AJ5" s="50"/>
     </row>
     <row r="6" spans="1:39" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="302" t="s">
+      <c r="B6" s="281"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282" t="s">
         <v>921</v>
       </c>
-      <c r="E6" s="303"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305" t="s">
+      <c r="E6" s="283"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="285" t="s">
         <v>885</v>
       </c>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="307"/>
-      <c r="K6" s="294" t="s">
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="274" t="s">
         <v>919</v>
       </c>
-      <c r="L6" s="295"/>
-      <c r="M6" s="295"/>
-      <c r="N6" s="295"/>
-      <c r="O6" s="295"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="297" t="s">
+      <c r="L6" s="275"/>
+      <c r="M6" s="275"/>
+      <c r="N6" s="275"/>
+      <c r="O6" s="275"/>
+      <c r="P6" s="276"/>
+      <c r="Q6" s="277" t="s">
         <v>907</v>
       </c>
-      <c r="R6" s="298"/>
-      <c r="S6" s="299"/>
-      <c r="T6" s="294" t="s">
-        <v>923</v>
-      </c>
-      <c r="U6" s="295"/>
-      <c r="V6" s="295"/>
-      <c r="W6" s="295"/>
-      <c r="X6" s="295"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="284" t="s">
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="486" t="s">
+        <v>486</v>
+      </c>
+      <c r="U6" s="275"/>
+      <c r="V6" s="275"/>
+      <c r="W6" s="275"/>
+      <c r="X6" s="275"/>
+      <c r="Y6" s="276"/>
+      <c r="Z6" s="263" t="s">
         <v>895</v>
       </c>
-      <c r="AA6" s="285"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="286"/>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="287"/>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="288"/>
+      <c r="AA6" s="264"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="266"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="267"/>
+      <c r="AF6" s="267"/>
+      <c r="AG6" s="267"/>
+      <c r="AH6" s="267"/>
+      <c r="AI6" s="267"/>
+      <c r="AJ6" s="268"/>
     </row>
     <row r="7" spans="1:39" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="289" t="s">
+      <c r="A7" s="269" t="s">
         <v>902</v>
       </c>
-      <c r="B7" s="290"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="291" t="s">
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="271" t="s">
         <v>922</v>
       </c>
-      <c r="E7" s="292"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="305" t="s">
+      <c r="E7" s="272"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="285" t="s">
         <v>908</v>
       </c>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="294" t="s">
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="287"/>
+      <c r="K7" s="274" t="s">
         <v>920</v>
       </c>
-      <c r="L7" s="295"/>
-      <c r="M7" s="295"/>
-      <c r="N7" s="295"/>
-      <c r="O7" s="295"/>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="297" t="s">
+      <c r="L7" s="275"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="275"/>
+      <c r="O7" s="275"/>
+      <c r="P7" s="276"/>
+      <c r="Q7" s="277" t="s">
         <v>909</v>
       </c>
-      <c r="R7" s="298"/>
-      <c r="S7" s="299"/>
-      <c r="T7" s="294" t="s">
+      <c r="R7" s="278"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="274" t="s">
         <v>667</v>
       </c>
-      <c r="U7" s="295"/>
-      <c r="V7" s="295"/>
-      <c r="W7" s="295"/>
-      <c r="X7" s="295"/>
-      <c r="Y7" s="296"/>
+      <c r="U7" s="275"/>
+      <c r="V7" s="275"/>
+      <c r="W7" s="275"/>
+      <c r="X7" s="275"/>
+      <c r="Y7" s="276"/>
       <c r="Z7" s="81"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
@@ -7401,79 +7400,79 @@
       <c r="AJ7" s="50"/>
     </row>
     <row r="8" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="268" t="s">
+      <c r="A8" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="269"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="271" t="s">
+      <c r="B8" s="251"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="253" t="s">
+        <v>924</v>
+      </c>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="253"/>
+      <c r="Q8" s="253"/>
+      <c r="R8" s="253"/>
+      <c r="S8" s="253"/>
+      <c r="T8" s="253"/>
+      <c r="U8" s="253"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="254"/>
+      <c r="Z8" s="244" t="s">
+        <v>896</v>
+      </c>
+      <c r="AA8" s="245"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="255"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="256"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="256"/>
+      <c r="AJ8" s="257"/>
+    </row>
+    <row r="9" spans="1:39" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="258" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261" t="s">
         <v>925</v>
       </c>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="271"/>
-      <c r="Q8" s="271"/>
-      <c r="R8" s="271"/>
-      <c r="S8" s="271"/>
-      <c r="T8" s="271"/>
-      <c r="U8" s="271"/>
-      <c r="V8" s="271"/>
-      <c r="W8" s="271"/>
-      <c r="X8" s="271"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="273" t="s">
-        <v>896</v>
-      </c>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="277"/>
-      <c r="AI8" s="277"/>
-      <c r="AJ8" s="278"/>
-    </row>
-    <row r="9" spans="1:39" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="279" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="280"/>
-      <c r="C9" s="281"/>
-      <c r="D9" s="282" t="s">
-        <v>926</v>
-      </c>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="282"/>
-      <c r="S9" s="282"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="282"/>
-      <c r="V9" s="282"/>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="283"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="262"/>
       <c r="Z9" s="74"/>
       <c r="AA9" s="47"/>
       <c r="AB9" s="47"/>
@@ -7487,154 +7486,154 @@
       <c r="AJ9" s="48"/>
     </row>
     <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="237" t="s">
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="289"/>
+      <c r="K10" s="290"/>
+      <c r="L10" s="323" t="s">
         <v>889</v>
       </c>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="206" t="s">
+      <c r="M10" s="289"/>
+      <c r="N10" s="289"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="289"/>
+      <c r="Q10" s="289"/>
+      <c r="R10" s="289"/>
+      <c r="S10" s="289"/>
+      <c r="T10" s="289"/>
+      <c r="U10" s="289"/>
+      <c r="V10" s="289"/>
+      <c r="W10" s="289"/>
+      <c r="X10" s="289"/>
+      <c r="Y10" s="324"/>
+      <c r="Z10" s="291" t="s">
         <v>884</v>
       </c>
-      <c r="AA10" s="207"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="216"/>
-      <c r="AE10" s="216"/>
-      <c r="AF10" s="216"/>
-      <c r="AG10" s="216"/>
-      <c r="AH10" s="216"/>
-      <c r="AI10" s="216"/>
-      <c r="AJ10" s="217"/>
+      <c r="AA10" s="292"/>
+      <c r="AB10" s="293"/>
+      <c r="AC10" s="300"/>
+      <c r="AD10" s="301"/>
+      <c r="AE10" s="301"/>
+      <c r="AF10" s="301"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="301"/>
+      <c r="AI10" s="301"/>
+      <c r="AJ10" s="302"/>
     </row>
     <row r="11" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="346" t="s">
+        <v>927</v>
+      </c>
+      <c r="B11" s="347"/>
+      <c r="C11" s="347"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="347"/>
+      <c r="G11" s="347"/>
+      <c r="H11" s="347"/>
+      <c r="I11" s="347"/>
+      <c r="J11" s="347"/>
+      <c r="K11" s="348"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="352" t="s">
         <v>928</v>
       </c>
-      <c r="B11" s="261"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="266" t="s">
-        <v>929</v>
-      </c>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
+      <c r="N11" s="352"/>
+      <c r="O11" s="352"/>
+      <c r="P11" s="352"/>
+      <c r="Q11" s="352"/>
+      <c r="R11" s="352"/>
+      <c r="S11" s="352"/>
+      <c r="T11" s="352"/>
+      <c r="U11" s="352"/>
+      <c r="V11" s="352"/>
+      <c r="W11" s="352"/>
+      <c r="X11" s="352"/>
       <c r="Y11" s="83"/>
-      <c r="Z11" s="209"/>
-      <c r="AA11" s="210"/>
-      <c r="AB11" s="211"/>
-      <c r="AC11" s="218"/>
-      <c r="AD11" s="219"/>
-      <c r="AE11" s="219"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="219"/>
-      <c r="AI11" s="219"/>
-      <c r="AJ11" s="220"/>
+      <c r="Z11" s="294"/>
+      <c r="AA11" s="295"/>
+      <c r="AB11" s="296"/>
+      <c r="AC11" s="303"/>
+      <c r="AD11" s="304"/>
+      <c r="AE11" s="304"/>
+      <c r="AF11" s="304"/>
+      <c r="AG11" s="304"/>
+      <c r="AH11" s="304"/>
+      <c r="AI11" s="304"/>
+      <c r="AJ11" s="305"/>
     </row>
     <row r="12" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="263"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="264"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="264"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="264"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265"/>
+      <c r="A12" s="349"/>
+      <c r="B12" s="350"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="350"/>
+      <c r="H12" s="350"/>
+      <c r="I12" s="350"/>
+      <c r="J12" s="350"/>
+      <c r="K12" s="351"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="267"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="267"/>
-      <c r="R12" s="267"/>
-      <c r="S12" s="267"/>
-      <c r="T12" s="267"/>
-      <c r="U12" s="267"/>
-      <c r="V12" s="267"/>
-      <c r="W12" s="267"/>
-      <c r="X12" s="267"/>
+      <c r="M12" s="353"/>
+      <c r="N12" s="353"/>
+      <c r="O12" s="353"/>
+      <c r="P12" s="353"/>
+      <c r="Q12" s="353"/>
+      <c r="R12" s="353"/>
+      <c r="S12" s="353"/>
+      <c r="T12" s="353"/>
+      <c r="U12" s="353"/>
+      <c r="V12" s="353"/>
+      <c r="W12" s="353"/>
+      <c r="X12" s="353"/>
       <c r="Y12" s="84"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="222"/>
-      <c r="AG12" s="222"/>
-      <c r="AH12" s="222"/>
-      <c r="AI12" s="222"/>
-      <c r="AJ12" s="223"/>
+      <c r="Z12" s="297"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="299"/>
+      <c r="AC12" s="306"/>
+      <c r="AD12" s="307"/>
+      <c r="AE12" s="307"/>
+      <c r="AF12" s="307"/>
+      <c r="AG12" s="307"/>
+      <c r="AH12" s="307"/>
+      <c r="AI12" s="307"/>
+      <c r="AJ12" s="308"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="263"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="264"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="265"/>
+      <c r="A13" s="349"/>
+      <c r="B13" s="350"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="350"/>
+      <c r="H13" s="350"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="350"/>
+      <c r="K13" s="351"/>
       <c r="L13" s="82"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="267"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="267"/>
-      <c r="U13" s="267"/>
-      <c r="V13" s="267"/>
-      <c r="W13" s="267"/>
-      <c r="X13" s="267"/>
+      <c r="M13" s="353"/>
+      <c r="N13" s="353"/>
+      <c r="O13" s="353"/>
+      <c r="P13" s="353"/>
+      <c r="Q13" s="353"/>
+      <c r="R13" s="353"/>
+      <c r="S13" s="353"/>
+      <c r="T13" s="353"/>
+      <c r="U13" s="353"/>
+      <c r="V13" s="353"/>
+      <c r="W13" s="353"/>
+      <c r="X13" s="353"/>
       <c r="Y13" s="84"/>
       <c r="Z13" s="53"/>
       <c r="AA13" s="54"/>
@@ -7649,30 +7648,30 @@
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="264"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="265"/>
+      <c r="A14" s="349"/>
+      <c r="B14" s="350"/>
+      <c r="C14" s="350"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="350"/>
+      <c r="G14" s="350"/>
+      <c r="H14" s="350"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="350"/>
+      <c r="K14" s="351"/>
       <c r="L14" s="82"/>
-      <c r="M14" s="267"/>
-      <c r="N14" s="267"/>
-      <c r="O14" s="267"/>
-      <c r="P14" s="267"/>
-      <c r="Q14" s="267"/>
-      <c r="R14" s="267"/>
-      <c r="S14" s="267"/>
-      <c r="T14" s="267"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="267"/>
-      <c r="X14" s="267"/>
+      <c r="M14" s="353"/>
+      <c r="N14" s="353"/>
+      <c r="O14" s="353"/>
+      <c r="P14" s="353"/>
+      <c r="Q14" s="353"/>
+      <c r="R14" s="353"/>
+      <c r="S14" s="353"/>
+      <c r="T14" s="353"/>
+      <c r="U14" s="353"/>
+      <c r="V14" s="353"/>
+      <c r="W14" s="353"/>
+      <c r="X14" s="353"/>
       <c r="Y14" s="84"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="46"/>
@@ -7687,37 +7686,37 @@
       <c r="AJ14" s="50"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="263"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="264"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="264"/>
-      <c r="F15" s="264"/>
-      <c r="G15" s="264"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="264"/>
-      <c r="J15" s="264"/>
-      <c r="K15" s="265"/>
+      <c r="A15" s="349"/>
+      <c r="B15" s="350"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="350"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="350"/>
+      <c r="G15" s="350"/>
+      <c r="H15" s="350"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="350"/>
+      <c r="K15" s="351"/>
       <c r="L15" s="82"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="267"/>
-      <c r="O15" s="267"/>
-      <c r="P15" s="267"/>
-      <c r="Q15" s="267"/>
-      <c r="R15" s="267"/>
-      <c r="S15" s="267"/>
-      <c r="T15" s="267"/>
-      <c r="U15" s="267"/>
-      <c r="V15" s="267"/>
-      <c r="W15" s="267"/>
-      <c r="X15" s="267"/>
+      <c r="M15" s="353"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="353"/>
+      <c r="P15" s="353"/>
+      <c r="Q15" s="353"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="353"/>
+      <c r="T15" s="353"/>
+      <c r="U15" s="353"/>
+      <c r="V15" s="353"/>
+      <c r="W15" s="353"/>
+      <c r="X15" s="353"/>
       <c r="Y15" s="84"/>
-      <c r="Z15" s="224" t="s">
+      <c r="Z15" s="309" t="s">
         <v>897</v>
       </c>
-      <c r="AA15" s="225"/>
-      <c r="AB15" s="229"/>
-      <c r="AC15" s="230"/>
+      <c r="AA15" s="265"/>
+      <c r="AB15" s="315"/>
+      <c r="AC15" s="316"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -7727,35 +7726,35 @@
       <c r="AJ15" s="68"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="263"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="264"/>
-      <c r="K16" s="265"/>
+      <c r="A16" s="349"/>
+      <c r="B16" s="350"/>
+      <c r="C16" s="350"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="350"/>
+      <c r="G16" s="350"/>
+      <c r="H16" s="350"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="351"/>
       <c r="L16" s="82"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="267"/>
-      <c r="O16" s="267"/>
-      <c r="P16" s="267"/>
-      <c r="Q16" s="267"/>
-      <c r="R16" s="267"/>
-      <c r="S16" s="267"/>
-      <c r="T16" s="267"/>
-      <c r="U16" s="267"/>
-      <c r="V16" s="267"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
+      <c r="M16" s="353"/>
+      <c r="N16" s="353"/>
+      <c r="O16" s="353"/>
+      <c r="P16" s="353"/>
+      <c r="Q16" s="353"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="353"/>
+      <c r="T16" s="353"/>
+      <c r="U16" s="353"/>
+      <c r="V16" s="353"/>
+      <c r="W16" s="353"/>
+      <c r="X16" s="353"/>
       <c r="Y16" s="84"/>
-      <c r="Z16" s="226"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="231"/>
-      <c r="AC16" s="232"/>
+      <c r="Z16" s="310"/>
+      <c r="AA16" s="311"/>
+      <c r="AB16" s="317"/>
+      <c r="AC16" s="318"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -7765,35 +7764,35 @@
       <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="264"/>
-      <c r="K17" s="265"/>
+      <c r="A17" s="349"/>
+      <c r="B17" s="350"/>
+      <c r="C17" s="350"/>
+      <c r="D17" s="350"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="350"/>
+      <c r="G17" s="350"/>
+      <c r="H17" s="350"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="351"/>
       <c r="L17" s="82"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="267"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="267"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="267"/>
-      <c r="W17" s="267"/>
-      <c r="X17" s="267"/>
+      <c r="M17" s="353"/>
+      <c r="N17" s="353"/>
+      <c r="O17" s="353"/>
+      <c r="P17" s="353"/>
+      <c r="Q17" s="353"/>
+      <c r="R17" s="353"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="353"/>
+      <c r="U17" s="353"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="353"/>
+      <c r="X17" s="353"/>
       <c r="Y17" s="84"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="231"/>
-      <c r="AC17" s="232"/>
+      <c r="Z17" s="310"/>
+      <c r="AA17" s="311"/>
+      <c r="AB17" s="317"/>
+      <c r="AC17" s="318"/>
       <c r="AD17" s="67"/>
       <c r="AE17" s="67"/>
       <c r="AF17" s="67"/>
@@ -7803,35 +7802,35 @@
       <c r="AJ17" s="68"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="265"/>
+      <c r="A18" s="349"/>
+      <c r="B18" s="350"/>
+      <c r="C18" s="350"/>
+      <c r="D18" s="350"/>
+      <c r="E18" s="350"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="350"/>
+      <c r="H18" s="350"/>
+      <c r="I18" s="350"/>
+      <c r="J18" s="350"/>
+      <c r="K18" s="351"/>
       <c r="L18" s="82"/>
-      <c r="M18" s="267"/>
-      <c r="N18" s="267"/>
-      <c r="O18" s="267"/>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="267"/>
-      <c r="R18" s="267"/>
-      <c r="S18" s="267"/>
-      <c r="T18" s="267"/>
-      <c r="U18" s="267"/>
-      <c r="V18" s="267"/>
-      <c r="W18" s="267"/>
-      <c r="X18" s="267"/>
+      <c r="M18" s="353"/>
+      <c r="N18" s="353"/>
+      <c r="O18" s="353"/>
+      <c r="P18" s="353"/>
+      <c r="Q18" s="353"/>
+      <c r="R18" s="353"/>
+      <c r="S18" s="353"/>
+      <c r="T18" s="353"/>
+      <c r="U18" s="353"/>
+      <c r="V18" s="353"/>
+      <c r="W18" s="353"/>
+      <c r="X18" s="353"/>
       <c r="Y18" s="84"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="227"/>
-      <c r="AB18" s="231"/>
-      <c r="AC18" s="232"/>
+      <c r="Z18" s="310"/>
+      <c r="AA18" s="311"/>
+      <c r="AB18" s="317"/>
+      <c r="AC18" s="318"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -7841,35 +7840,35 @@
       <c r="AJ18" s="68"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="264"/>
-      <c r="J19" s="264"/>
-      <c r="K19" s="265"/>
+      <c r="A19" s="349"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="350"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="350"/>
+      <c r="F19" s="350"/>
+      <c r="G19" s="350"/>
+      <c r="H19" s="350"/>
+      <c r="I19" s="350"/>
+      <c r="J19" s="350"/>
+      <c r="K19" s="351"/>
       <c r="L19" s="82"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="267"/>
-      <c r="O19" s="267"/>
-      <c r="P19" s="267"/>
-      <c r="Q19" s="267"/>
-      <c r="R19" s="267"/>
-      <c r="S19" s="267"/>
-      <c r="T19" s="267"/>
-      <c r="U19" s="267"/>
-      <c r="V19" s="267"/>
-      <c r="W19" s="267"/>
-      <c r="X19" s="267"/>
+      <c r="M19" s="353"/>
+      <c r="N19" s="353"/>
+      <c r="O19" s="353"/>
+      <c r="P19" s="353"/>
+      <c r="Q19" s="353"/>
+      <c r="R19" s="353"/>
+      <c r="S19" s="353"/>
+      <c r="T19" s="353"/>
+      <c r="U19" s="353"/>
+      <c r="V19" s="353"/>
+      <c r="W19" s="353"/>
+      <c r="X19" s="353"/>
       <c r="Y19" s="84"/>
-      <c r="Z19" s="228"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="231"/>
-      <c r="AC19" s="232"/>
+      <c r="Z19" s="312"/>
+      <c r="AA19" s="311"/>
+      <c r="AB19" s="317"/>
+      <c r="AC19" s="318"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -7879,35 +7878,35 @@
       <c r="AJ19" s="68"/>
     </row>
     <row r="20" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="263"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="265"/>
+      <c r="A20" s="349"/>
+      <c r="B20" s="350"/>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="350"/>
+      <c r="G20" s="350"/>
+      <c r="H20" s="350"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="351"/>
       <c r="L20" s="82"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="267"/>
-      <c r="O20" s="267"/>
-      <c r="P20" s="267"/>
-      <c r="Q20" s="267"/>
-      <c r="R20" s="267"/>
-      <c r="S20" s="267"/>
-      <c r="T20" s="267"/>
-      <c r="U20" s="267"/>
-      <c r="V20" s="267"/>
-      <c r="W20" s="267"/>
-      <c r="X20" s="267"/>
+      <c r="M20" s="353"/>
+      <c r="N20" s="353"/>
+      <c r="O20" s="353"/>
+      <c r="P20" s="353"/>
+      <c r="Q20" s="353"/>
+      <c r="R20" s="353"/>
+      <c r="S20" s="353"/>
+      <c r="T20" s="353"/>
+      <c r="U20" s="353"/>
+      <c r="V20" s="353"/>
+      <c r="W20" s="353"/>
+      <c r="X20" s="353"/>
       <c r="Y20" s="84"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="176"/>
-      <c r="AB20" s="233"/>
-      <c r="AC20" s="234"/>
+      <c r="Z20" s="313"/>
+      <c r="AA20" s="314"/>
+      <c r="AB20" s="319"/>
+      <c r="AC20" s="320"/>
       <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="46"/>
@@ -7917,30 +7916,30 @@
       <c r="AJ20" s="50"/>
     </row>
     <row r="21" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="263"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="264"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="264"/>
-      <c r="G21" s="264"/>
-      <c r="H21" s="264"/>
-      <c r="I21" s="264"/>
-      <c r="J21" s="264"/>
-      <c r="K21" s="265"/>
+      <c r="A21" s="349"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="350"/>
+      <c r="D21" s="350"/>
+      <c r="E21" s="350"/>
+      <c r="F21" s="350"/>
+      <c r="G21" s="350"/>
+      <c r="H21" s="350"/>
+      <c r="I21" s="350"/>
+      <c r="J21" s="350"/>
+      <c r="K21" s="351"/>
       <c r="L21" s="82"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="267"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="267"/>
-      <c r="U21" s="267"/>
-      <c r="V21" s="267"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="267"/>
+      <c r="M21" s="353"/>
+      <c r="N21" s="353"/>
+      <c r="O21" s="353"/>
+      <c r="P21" s="353"/>
+      <c r="Q21" s="353"/>
+      <c r="R21" s="353"/>
+      <c r="S21" s="353"/>
+      <c r="T21" s="353"/>
+      <c r="U21" s="353"/>
+      <c r="V21" s="353"/>
+      <c r="W21" s="353"/>
+      <c r="X21" s="353"/>
       <c r="Y21" s="84"/>
       <c r="Z21" s="58"/>
       <c r="AA21" s="51"/>
@@ -7955,74 +7954,74 @@
       <c r="AJ21" s="52"/>
     </row>
     <row r="22" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="263"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="264"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="265"/>
+      <c r="A22" s="349"/>
+      <c r="B22" s="350"/>
+      <c r="C22" s="350"/>
+      <c r="D22" s="350"/>
+      <c r="E22" s="350"/>
+      <c r="F22" s="350"/>
+      <c r="G22" s="350"/>
+      <c r="H22" s="350"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="350"/>
+      <c r="K22" s="351"/>
       <c r="L22" s="82"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="267"/>
-      <c r="O22" s="267"/>
-      <c r="P22" s="267"/>
-      <c r="Q22" s="267"/>
-      <c r="R22" s="267"/>
-      <c r="S22" s="267"/>
-      <c r="T22" s="267"/>
-      <c r="U22" s="267"/>
-      <c r="V22" s="267"/>
-      <c r="W22" s="267"/>
-      <c r="X22" s="267"/>
+      <c r="M22" s="353"/>
+      <c r="N22" s="353"/>
+      <c r="O22" s="353"/>
+      <c r="P22" s="353"/>
+      <c r="Q22" s="353"/>
+      <c r="R22" s="353"/>
+      <c r="S22" s="353"/>
+      <c r="T22" s="353"/>
+      <c r="U22" s="353"/>
+      <c r="V22" s="353"/>
+      <c r="W22" s="353"/>
+      <c r="X22" s="353"/>
       <c r="Y22" s="84"/>
-      <c r="Z22" s="206" t="s">
+      <c r="Z22" s="291" t="s">
         <v>875</v>
       </c>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="235"/>
-      <c r="AC22" s="229"/>
-      <c r="AD22" s="229"/>
-      <c r="AE22" s="229"/>
-      <c r="AF22" s="229"/>
-      <c r="AG22" s="229"/>
-      <c r="AH22" s="229"/>
-      <c r="AI22" s="229"/>
-      <c r="AJ22" s="236"/>
+      <c r="AA22" s="293"/>
+      <c r="AB22" s="321"/>
+      <c r="AC22" s="315"/>
+      <c r="AD22" s="315"/>
+      <c r="AE22" s="315"/>
+      <c r="AF22" s="315"/>
+      <c r="AG22" s="315"/>
+      <c r="AH22" s="315"/>
+      <c r="AI22" s="315"/>
+      <c r="AJ22" s="322"/>
     </row>
     <row r="23" spans="1:49" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="239" t="s">
-        <v>924</v>
-      </c>
-      <c r="B23" s="240"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="243"/>
-      <c r="K23" s="243"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="243"/>
-      <c r="O23" s="243"/>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243"/>
-      <c r="R23" s="243"/>
-      <c r="S23" s="243"/>
-      <c r="T23" s="243"/>
-      <c r="U23" s="243"/>
-      <c r="V23" s="243"/>
-      <c r="W23" s="243"/>
-      <c r="X23" s="243"/>
-      <c r="Y23" s="244"/>
-      <c r="Z23" s="473" t="s">
+      <c r="A23" s="325" t="s">
+        <v>923</v>
+      </c>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="328"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="329"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="329"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="329"/>
+      <c r="R23" s="329"/>
+      <c r="S23" s="329"/>
+      <c r="T23" s="329"/>
+      <c r="U23" s="329"/>
+      <c r="V23" s="329"/>
+      <c r="W23" s="329"/>
+      <c r="X23" s="329"/>
+      <c r="Y23" s="330"/>
+      <c r="Z23" s="139" t="s">
         <v>892</v>
       </c>
       <c r="AA23" s="69"/>
@@ -8037,33 +8036,33 @@
       <c r="AJ23" s="70"/>
     </row>
     <row r="24" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="248" t="s">
+      <c r="A24" s="334" t="s">
         <v>890</v>
       </c>
-      <c r="B24" s="249"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="246"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="246"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
-      <c r="X24" s="246"/>
-      <c r="Y24" s="247"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="336"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="332"/>
+      <c r="F24" s="332"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="332"/>
+      <c r="J24" s="332"/>
+      <c r="K24" s="332"/>
+      <c r="L24" s="332"/>
+      <c r="M24" s="332"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
+      <c r="P24" s="332"/>
+      <c r="Q24" s="332"/>
+      <c r="R24" s="332"/>
+      <c r="S24" s="332"/>
+      <c r="T24" s="332"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="332"/>
+      <c r="W24" s="332"/>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="333"/>
       <c r="Z24" s="71" t="s">
         <v>886</v>
       </c>
@@ -8092,46 +8091,46 @@
       <c r="AW24" s="79"/>
     </row>
     <row r="25" spans="1:49" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="245"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="246"/>
-      <c r="U25" s="246"/>
-      <c r="V25" s="246"/>
-      <c r="W25" s="246"/>
-      <c r="X25" s="246"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="257" t="s">
+      <c r="B25" s="338"/>
+      <c r="C25" s="339"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="332"/>
+      <c r="F25" s="332"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="332"/>
+      <c r="J25" s="332"/>
+      <c r="K25" s="332"/>
+      <c r="L25" s="332"/>
+      <c r="M25" s="332"/>
+      <c r="N25" s="332"/>
+      <c r="O25" s="332"/>
+      <c r="P25" s="332"/>
+      <c r="Q25" s="332"/>
+      <c r="R25" s="332"/>
+      <c r="S25" s="332"/>
+      <c r="T25" s="332"/>
+      <c r="U25" s="332"/>
+      <c r="V25" s="332"/>
+      <c r="W25" s="332"/>
+      <c r="X25" s="332"/>
+      <c r="Y25" s="333"/>
+      <c r="Z25" s="340" t="s">
         <v>887</v>
       </c>
-      <c r="AA25" s="258"/>
-      <c r="AB25" s="258"/>
-      <c r="AC25" s="258"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="258"/>
-      <c r="AF25" s="258"/>
-      <c r="AG25" s="258"/>
-      <c r="AH25" s="258"/>
-      <c r="AI25" s="258"/>
-      <c r="AJ25" s="259"/>
+      <c r="AA25" s="341"/>
+      <c r="AB25" s="341"/>
+      <c r="AC25" s="341"/>
+      <c r="AD25" s="341"/>
+      <c r="AE25" s="341"/>
+      <c r="AF25" s="341"/>
+      <c r="AG25" s="341"/>
+      <c r="AH25" s="341"/>
+      <c r="AI25" s="341"/>
+      <c r="AJ25" s="342"/>
       <c r="AL25" s="79"/>
       <c r="AM25" s="79"/>
       <c r="AN25" s="79"/>
@@ -8146,45 +8145,45 @@
       <c r="AW25" s="79"/>
     </row>
     <row r="26" spans="1:49" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="474" t="str">
+      <c r="A26" s="343" t="str">
         <f>IF(A25="Oui/да","Nombre de pages:","")</f>
         <v/>
       </c>
-      <c r="B26" s="475"/>
-      <c r="C26" s="476"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="246"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="246"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="246"/>
-      <c r="U26" s="246"/>
-      <c r="V26" s="246"/>
-      <c r="W26" s="246"/>
-      <c r="X26" s="246"/>
-      <c r="Y26" s="247"/>
-      <c r="Z26" s="251"/>
-      <c r="AA26" s="252"/>
-      <c r="AB26" s="252"/>
-      <c r="AC26" s="252"/>
-      <c r="AD26" s="252"/>
-      <c r="AE26" s="252"/>
-      <c r="AF26" s="252"/>
-      <c r="AG26" s="252"/>
-      <c r="AH26" s="252"/>
-      <c r="AI26" s="252"/>
-      <c r="AJ26" s="253"/>
+      <c r="B26" s="344"/>
+      <c r="C26" s="345"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="332"/>
+      <c r="K26" s="332"/>
+      <c r="L26" s="332"/>
+      <c r="M26" s="332"/>
+      <c r="N26" s="332"/>
+      <c r="O26" s="332"/>
+      <c r="P26" s="332"/>
+      <c r="Q26" s="332"/>
+      <c r="R26" s="332"/>
+      <c r="S26" s="332"/>
+      <c r="T26" s="332"/>
+      <c r="U26" s="332"/>
+      <c r="V26" s="332"/>
+      <c r="W26" s="332"/>
+      <c r="X26" s="332"/>
+      <c r="Y26" s="333"/>
+      <c r="Z26" s="354"/>
+      <c r="AA26" s="355"/>
+      <c r="AB26" s="355"/>
+      <c r="AC26" s="355"/>
+      <c r="AD26" s="355"/>
+      <c r="AE26" s="355"/>
+      <c r="AF26" s="355"/>
+      <c r="AG26" s="355"/>
+      <c r="AH26" s="355"/>
+      <c r="AI26" s="355"/>
+      <c r="AJ26" s="356"/>
       <c r="AL26" s="79"/>
       <c r="AM26" s="79"/>
       <c r="AN26" s="79"/>
@@ -8199,34 +8198,34 @@
       <c r="AW26" s="79"/>
     </row>
     <row r="27" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="189" t="str">
+      <c r="A27" s="370" t="str">
         <f>IF(A25="Oui/да","Число Страниц:","")</f>
         <v/>
       </c>
-      <c r="B27" s="190"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
-      <c r="O27" s="246"/>
-      <c r="P27" s="246"/>
-      <c r="Q27" s="246"/>
-      <c r="R27" s="246"/>
-      <c r="S27" s="246"/>
-      <c r="T27" s="246"/>
-      <c r="U27" s="246"/>
-      <c r="V27" s="246"/>
-      <c r="W27" s="246"/>
-      <c r="X27" s="246"/>
-      <c r="Y27" s="247"/>
+      <c r="B27" s="371"/>
+      <c r="C27" s="372"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="332"/>
+      <c r="I27" s="332"/>
+      <c r="J27" s="332"/>
+      <c r="K27" s="332"/>
+      <c r="L27" s="332"/>
+      <c r="M27" s="332"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="332"/>
+      <c r="P27" s="332"/>
+      <c r="Q27" s="332"/>
+      <c r="R27" s="332"/>
+      <c r="S27" s="332"/>
+      <c r="T27" s="332"/>
+      <c r="U27" s="332"/>
+      <c r="V27" s="332"/>
+      <c r="W27" s="332"/>
+      <c r="X27" s="332"/>
+      <c r="Y27" s="333"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="69"/>
       <c r="AB27" s="69"/>
@@ -8252,44 +8251,44 @@
       <c r="AW27" s="79"/>
     </row>
     <row r="28" spans="1:49" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="192">
+      <c r="A28" s="373">
         <v>0</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-      <c r="N28" s="246"/>
-      <c r="O28" s="246"/>
-      <c r="P28" s="246"/>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="246"/>
-      <c r="S28" s="246"/>
-      <c r="T28" s="246"/>
-      <c r="U28" s="246"/>
-      <c r="V28" s="246"/>
-      <c r="W28" s="246"/>
-      <c r="X28" s="246"/>
-      <c r="Y28" s="247"/>
-      <c r="Z28" s="257"/>
-      <c r="AA28" s="258"/>
-      <c r="AB28" s="258"/>
-      <c r="AC28" s="258"/>
-      <c r="AD28" s="258"/>
-      <c r="AE28" s="258"/>
-      <c r="AF28" s="258"/>
-      <c r="AG28" s="258"/>
-      <c r="AH28" s="258"/>
-      <c r="AI28" s="258"/>
-      <c r="AJ28" s="259"/>
+      <c r="B28" s="374"/>
+      <c r="C28" s="375"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="332"/>
+      <c r="F28" s="332"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="332"/>
+      <c r="I28" s="332"/>
+      <c r="J28" s="332"/>
+      <c r="K28" s="332"/>
+      <c r="L28" s="332"/>
+      <c r="M28" s="332"/>
+      <c r="N28" s="332"/>
+      <c r="O28" s="332"/>
+      <c r="P28" s="332"/>
+      <c r="Q28" s="332"/>
+      <c r="R28" s="332"/>
+      <c r="S28" s="332"/>
+      <c r="T28" s="332"/>
+      <c r="U28" s="332"/>
+      <c r="V28" s="332"/>
+      <c r="W28" s="332"/>
+      <c r="X28" s="332"/>
+      <c r="Y28" s="333"/>
+      <c r="Z28" s="340"/>
+      <c r="AA28" s="341"/>
+      <c r="AB28" s="341"/>
+      <c r="AC28" s="341"/>
+      <c r="AD28" s="341"/>
+      <c r="AE28" s="341"/>
+      <c r="AF28" s="341"/>
+      <c r="AG28" s="341"/>
+      <c r="AH28" s="341"/>
+      <c r="AI28" s="341"/>
+      <c r="AJ28" s="342"/>
       <c r="AL28" s="80"/>
       <c r="AM28" s="80"/>
       <c r="AN28" s="80"/>
@@ -8304,33 +8303,33 @@
       <c r="AW28" s="80"/>
     </row>
     <row r="29" spans="1:49" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="180"/>
-      <c r="T29" s="180"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="181"/>
+      <c r="B29" s="377"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="378"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="361"/>
+      <c r="G29" s="361"/>
+      <c r="H29" s="361"/>
+      <c r="I29" s="361"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="361"/>
+      <c r="L29" s="361"/>
+      <c r="M29" s="361"/>
+      <c r="N29" s="361"/>
+      <c r="O29" s="361"/>
+      <c r="P29" s="361"/>
+      <c r="Q29" s="361"/>
+      <c r="R29" s="361"/>
+      <c r="S29" s="361"/>
+      <c r="T29" s="361"/>
+      <c r="U29" s="361"/>
+      <c r="V29" s="361"/>
+      <c r="W29" s="361"/>
+      <c r="X29" s="361"/>
+      <c r="Y29" s="362"/>
       <c r="Z29" s="45"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="57"/>
@@ -8356,39 +8355,39 @@
       <c r="AW29" s="80"/>
     </row>
     <row r="30" spans="1:49" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="198" t="s">
+      <c r="A30" s="379" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="201"/>
-      <c r="W30" s="201"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="202"/>
-      <c r="Z30" s="174" t="s">
+      <c r="B30" s="380"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="382"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="382"/>
+      <c r="K30" s="382"/>
+      <c r="L30" s="382"/>
+      <c r="M30" s="382"/>
+      <c r="N30" s="382"/>
+      <c r="O30" s="382"/>
+      <c r="P30" s="382"/>
+      <c r="Q30" s="382"/>
+      <c r="R30" s="382"/>
+      <c r="S30" s="382"/>
+      <c r="T30" s="382"/>
+      <c r="U30" s="382"/>
+      <c r="V30" s="382"/>
+      <c r="W30" s="382"/>
+      <c r="X30" s="382"/>
+      <c r="Y30" s="383"/>
+      <c r="Z30" s="313" t="s">
         <v>881</v>
       </c>
-      <c r="AA30" s="175"/>
-      <c r="AB30" s="175"/>
-      <c r="AC30" s="176"/>
+      <c r="AA30" s="357"/>
+      <c r="AB30" s="357"/>
+      <c r="AC30" s="314"/>
       <c r="AD30" s="78"/>
       <c r="AE30" s="78"/>
       <c r="AF30" s="78"/>
@@ -8410,33 +8409,33 @@
       <c r="AW30" s="80"/>
     </row>
     <row r="31" spans="1:49" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="358" t="s">
         <v>879</v>
       </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="180"/>
-      <c r="R31" s="180"/>
-      <c r="S31" s="180"/>
-      <c r="T31" s="180"/>
-      <c r="U31" s="180"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="180"/>
-      <c r="Y31" s="181"/>
+      <c r="B31" s="359"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="361"/>
+      <c r="G31" s="361"/>
+      <c r="H31" s="361"/>
+      <c r="I31" s="361"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="361"/>
+      <c r="M31" s="361"/>
+      <c r="N31" s="361"/>
+      <c r="O31" s="361"/>
+      <c r="P31" s="361"/>
+      <c r="Q31" s="361"/>
+      <c r="R31" s="361"/>
+      <c r="S31" s="361"/>
+      <c r="T31" s="361"/>
+      <c r="U31" s="361"/>
+      <c r="V31" s="361"/>
+      <c r="W31" s="361"/>
+      <c r="X31" s="361"/>
+      <c r="Y31" s="362"/>
       <c r="Z31" s="45"/>
       <c r="AA31" s="46"/>
       <c r="AB31" s="46"/>
@@ -8462,37 +8461,37 @@
       <c r="AW31" s="80"/>
     </row>
     <row r="32" spans="1:49" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="185"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="188"/>
-      <c r="AC32" s="188"/>
+      <c r="B32" s="364"/>
+      <c r="C32" s="364"/>
+      <c r="D32" s="364"/>
+      <c r="E32" s="365"/>
+      <c r="F32" s="366"/>
+      <c r="G32" s="366"/>
+      <c r="H32" s="366"/>
+      <c r="I32" s="366"/>
+      <c r="J32" s="366"/>
+      <c r="K32" s="366"/>
+      <c r="L32" s="366"/>
+      <c r="M32" s="366"/>
+      <c r="N32" s="366"/>
+      <c r="O32" s="366"/>
+      <c r="P32" s="366"/>
+      <c r="Q32" s="366"/>
+      <c r="R32" s="366"/>
+      <c r="S32" s="366"/>
+      <c r="T32" s="366"/>
+      <c r="U32" s="366"/>
+      <c r="V32" s="366"/>
+      <c r="W32" s="366"/>
+      <c r="X32" s="366"/>
+      <c r="Y32" s="367"/>
+      <c r="Z32" s="368"/>
+      <c r="AA32" s="369"/>
+      <c r="AB32" s="369"/>
+      <c r="AC32" s="369"/>
       <c r="AD32" s="46"/>
       <c r="AE32" s="46"/>
       <c r="AF32" s="46"/>
@@ -8540,37 +8539,37 @@
       <c r="AJ33" s="50"/>
     </row>
     <row r="34" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="393" t="s">
+      <c r="A34" s="151" t="s">
         <v>905</v>
       </c>
-      <c r="B34" s="394"/>
-      <c r="C34" s="394"/>
-      <c r="D34" s="394"/>
-      <c r="E34" s="394"/>
-      <c r="F34" s="394"/>
-      <c r="G34" s="395"/>
-      <c r="H34" s="396" t="s">
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="397"/>
-      <c r="J34" s="397"/>
-      <c r="K34" s="397"/>
-      <c r="L34" s="397"/>
-      <c r="M34" s="397"/>
-      <c r="N34" s="397"/>
-      <c r="O34" s="397"/>
-      <c r="P34" s="397"/>
-      <c r="Q34" s="398"/>
-      <c r="R34" s="399" t="s">
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="156"/>
+      <c r="R34" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="S34" s="400"/>
-      <c r="T34" s="400"/>
-      <c r="U34" s="400"/>
-      <c r="V34" s="400"/>
-      <c r="W34" s="400"/>
-      <c r="X34" s="400"/>
-      <c r="Y34" s="401"/>
+      <c r="S34" s="158"/>
+      <c r="T34" s="158"/>
+      <c r="U34" s="158"/>
+      <c r="V34" s="158"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="159"/>
       <c r="Z34" s="56"/>
       <c r="AA34" s="57"/>
       <c r="AB34" s="57"/>
@@ -8584,37 +8583,37 @@
       <c r="AJ34" s="61"/>
     </row>
     <row r="35" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="376" t="s">
+      <c r="A35" s="160" t="s">
         <v>904</v>
       </c>
-      <c r="B35" s="377"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="377"/>
-      <c r="E35" s="377"/>
-      <c r="F35" s="377"/>
-      <c r="G35" s="378"/>
-      <c r="H35" s="402" t="s">
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="163" t="s">
         <v>893</v>
       </c>
-      <c r="I35" s="403"/>
-      <c r="J35" s="403"/>
-      <c r="K35" s="403"/>
-      <c r="L35" s="403"/>
-      <c r="M35" s="403"/>
-      <c r="N35" s="403"/>
-      <c r="O35" s="403"/>
-      <c r="P35" s="403"/>
-      <c r="Q35" s="404"/>
-      <c r="R35" s="399" t="s">
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="400"/>
-      <c r="T35" s="400"/>
-      <c r="U35" s="400"/>
-      <c r="V35" s="400"/>
-      <c r="W35" s="400"/>
-      <c r="X35" s="400"/>
-      <c r="Y35" s="401"/>
+      <c r="S35" s="158"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="159"/>
       <c r="Z35" s="56"/>
       <c r="AA35" s="57"/>
       <c r="AB35" s="57"/>
@@ -8628,34 +8627,34 @@
       <c r="AJ35" s="61"/>
     </row>
     <row r="36" spans="1:36" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="376"/>
-      <c r="B36" s="377"/>
-      <c r="C36" s="377"/>
-      <c r="D36" s="377"/>
-      <c r="E36" s="377"/>
-      <c r="F36" s="377"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
-      <c r="I36" s="380"/>
-      <c r="J36" s="380"/>
-      <c r="K36" s="380"/>
-      <c r="L36" s="380"/>
-      <c r="M36" s="380"/>
-      <c r="N36" s="380"/>
-      <c r="O36" s="380"/>
-      <c r="P36" s="380"/>
-      <c r="Q36" s="381"/>
-      <c r="R36" s="382" t="str">
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="190"/>
+      <c r="P36" s="190"/>
+      <c r="Q36" s="191"/>
+      <c r="R36" s="140" t="str">
         <f>G5</f>
         <v xml:space="preserve">Комплекс зданий Центра международных конференций </v>
       </c>
-      <c r="S36" s="383"/>
-      <c r="T36" s="383"/>
-      <c r="U36" s="383"/>
-      <c r="V36" s="383"/>
-      <c r="W36" s="383"/>
-      <c r="X36" s="383"/>
-      <c r="Y36" s="384"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
+      <c r="U36" s="141"/>
+      <c r="V36" s="141"/>
+      <c r="W36" s="141"/>
+      <c r="X36" s="141"/>
+      <c r="Y36" s="142"/>
       <c r="Z36" s="56"/>
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
@@ -8669,44 +8668,44 @@
       <c r="AJ36" s="61"/>
     </row>
     <row r="37" spans="1:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="405"/>
-      <c r="B37" s="406"/>
-      <c r="C37" s="385" t="s">
+      <c r="A37" s="166"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="143" t="s">
         <v>910</v>
       </c>
-      <c r="D37" s="385"/>
-      <c r="E37" s="385" t="s">
+      <c r="D37" s="143"/>
+      <c r="E37" s="143" t="s">
         <v>911</v>
       </c>
-      <c r="F37" s="385"/>
-      <c r="G37" s="386"/>
-      <c r="H37" s="387"/>
-      <c r="I37" s="388"/>
-      <c r="J37" s="388"/>
-      <c r="K37" s="388"/>
-      <c r="L37" s="388"/>
-      <c r="M37" s="388"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="389"/>
-      <c r="R37" s="390" t="str">
+      <c r="F37" s="143"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="146"/>
+      <c r="Q37" s="147"/>
+      <c r="R37" s="148" t="str">
         <f>G4</f>
         <v xml:space="preserve">Complexe des bâtiments du Centre des conférences internationales </v>
       </c>
-      <c r="S37" s="391"/>
-      <c r="T37" s="391"/>
-      <c r="U37" s="391"/>
-      <c r="V37" s="391"/>
-      <c r="W37" s="391"/>
-      <c r="X37" s="391"/>
-      <c r="Y37" s="392"/>
-      <c r="Z37" s="109" t="s">
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="384" t="s">
         <v>882</v>
       </c>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="111"/>
+      <c r="AA37" s="385"/>
+      <c r="AB37" s="385"/>
+      <c r="AC37" s="386"/>
       <c r="AD37" s="57"/>
       <c r="AE37" s="57"/>
       <c r="AF37" s="57"/>
@@ -8716,384 +8715,384 @@
       <c r="AJ37" s="61"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="442" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="112">
+      <c r="B38" s="443"/>
+      <c r="C38" s="387">
         <v>43592</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112">
+      <c r="D38" s="387"/>
+      <c r="E38" s="387">
         <v>43592</v>
       </c>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="118" t="s">
+      <c r="F38" s="389"/>
+      <c r="G38" s="390"/>
+      <c r="H38" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="119"/>
-      <c r="J38" s="373"/>
-      <c r="K38" s="374"/>
-      <c r="L38" s="374"/>
-      <c r="M38" s="374"/>
-      <c r="N38" s="374"/>
-      <c r="O38" s="374"/>
-      <c r="P38" s="374"/>
-      <c r="Q38" s="375"/>
+      <c r="I38" s="394"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="188"/>
       <c r="R38" s="89" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="90"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="121"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="125"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="125"/>
-      <c r="AG38" s="125"/>
-      <c r="AH38" s="125"/>
-      <c r="AI38" s="125"/>
-      <c r="AJ38" s="126"/>
+      <c r="T38" s="395"/>
+      <c r="U38" s="395"/>
+      <c r="V38" s="395"/>
+      <c r="W38" s="395"/>
+      <c r="X38" s="395"/>
+      <c r="Y38" s="396"/>
+      <c r="Z38" s="399"/>
+      <c r="AA38" s="400"/>
+      <c r="AB38" s="400"/>
+      <c r="AC38" s="400"/>
+      <c r="AD38" s="400"/>
+      <c r="AE38" s="400"/>
+      <c r="AF38" s="400"/>
+      <c r="AG38" s="400"/>
+      <c r="AH38" s="400"/>
+      <c r="AI38" s="400"/>
+      <c r="AJ38" s="401"/>
     </row>
     <row r="39" spans="1:36" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="444" t="s">
         <v>874</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="133" t="s">
+      <c r="B39" s="445"/>
+      <c r="C39" s="388"/>
+      <c r="D39" s="388"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="391"/>
+      <c r="G39" s="392"/>
+      <c r="H39" s="408" t="s">
         <v>874</v>
       </c>
-      <c r="I39" s="134"/>
-      <c r="J39" s="370"/>
-      <c r="K39" s="371"/>
-      <c r="L39" s="371"/>
-      <c r="M39" s="371"/>
-      <c r="N39" s="371"/>
-      <c r="O39" s="371"/>
-      <c r="P39" s="371"/>
-      <c r="Q39" s="372"/>
+      <c r="I39" s="409"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="185"/>
       <c r="R39" s="91" t="s">
         <v>874</v>
       </c>
       <c r="S39" s="92"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="123"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
-      <c r="AF39" s="128"/>
-      <c r="AG39" s="128"/>
-      <c r="AH39" s="128"/>
-      <c r="AI39" s="128"/>
-      <c r="AJ39" s="129"/>
+      <c r="T39" s="397"/>
+      <c r="U39" s="397"/>
+      <c r="V39" s="397"/>
+      <c r="W39" s="397"/>
+      <c r="X39" s="397"/>
+      <c r="Y39" s="398"/>
+      <c r="Z39" s="402"/>
+      <c r="AA39" s="403"/>
+      <c r="AB39" s="403"/>
+      <c r="AC39" s="403"/>
+      <c r="AD39" s="403"/>
+      <c r="AE39" s="403"/>
+      <c r="AF39" s="403"/>
+      <c r="AG39" s="403"/>
+      <c r="AH39" s="403"/>
+      <c r="AI39" s="403"/>
+      <c r="AJ39" s="404"/>
     </row>
     <row r="40" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="446" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="135" t="s">
+      <c r="B40" s="447"/>
+      <c r="C40" s="410" t="s">
         <v>916</v>
       </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135" t="s">
+      <c r="D40" s="410"/>
+      <c r="E40" s="410" t="s">
         <v>914</v>
       </c>
-      <c r="F40" s="135"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="139" t="s">
+      <c r="F40" s="410"/>
+      <c r="G40" s="412"/>
+      <c r="H40" s="414" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="140"/>
-      <c r="J40" s="367"/>
-      <c r="K40" s="368"/>
-      <c r="L40" s="368"/>
-      <c r="M40" s="368"/>
-      <c r="N40" s="368"/>
-      <c r="O40" s="368"/>
-      <c r="P40" s="368"/>
-      <c r="Q40" s="369"/>
+      <c r="I40" s="415"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="181"/>
+      <c r="L40" s="181"/>
+      <c r="M40" s="181"/>
+      <c r="N40" s="181"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="182"/>
       <c r="R40" s="85" t="s">
         <v>11</v>
       </c>
       <c r="S40" s="86"/>
-      <c r="T40" s="141"/>
-      <c r="U40" s="142"/>
-      <c r="V40" s="142"/>
-      <c r="W40" s="142"/>
-      <c r="X40" s="142"/>
-      <c r="Y40" s="143"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="128"/>
-      <c r="AF40" s="128"/>
-      <c r="AG40" s="128"/>
-      <c r="AH40" s="128"/>
-      <c r="AI40" s="128"/>
-      <c r="AJ40" s="129"/>
+      <c r="T40" s="416"/>
+      <c r="U40" s="417"/>
+      <c r="V40" s="417"/>
+      <c r="W40" s="417"/>
+      <c r="X40" s="417"/>
+      <c r="Y40" s="418"/>
+      <c r="Z40" s="402"/>
+      <c r="AA40" s="403"/>
+      <c r="AB40" s="403"/>
+      <c r="AC40" s="403"/>
+      <c r="AD40" s="403"/>
+      <c r="AE40" s="403"/>
+      <c r="AF40" s="403"/>
+      <c r="AG40" s="403"/>
+      <c r="AH40" s="403"/>
+      <c r="AI40" s="403"/>
+      <c r="AJ40" s="404"/>
     </row>
     <row r="41" spans="1:36" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="448" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="146" t="s">
+      <c r="B41" s="449"/>
+      <c r="C41" s="411"/>
+      <c r="D41" s="411"/>
+      <c r="E41" s="411"/>
+      <c r="F41" s="411"/>
+      <c r="G41" s="413"/>
+      <c r="H41" s="421" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="147"/>
-      <c r="J41" s="370"/>
-      <c r="K41" s="371"/>
-      <c r="L41" s="371"/>
-      <c r="M41" s="371"/>
-      <c r="N41" s="371"/>
-      <c r="O41" s="371"/>
-      <c r="P41" s="371"/>
-      <c r="Q41" s="372"/>
+      <c r="I41" s="422"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="184"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="184"/>
+      <c r="N41" s="184"/>
+      <c r="O41" s="184"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="185"/>
       <c r="R41" s="87" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="88"/>
-      <c r="T41" s="144"/>
-      <c r="U41" s="144"/>
-      <c r="V41" s="144"/>
-      <c r="W41" s="144"/>
-      <c r="X41" s="144"/>
-      <c r="Y41" s="145"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="128"/>
-      <c r="AF41" s="128"/>
-      <c r="AG41" s="128"/>
-      <c r="AH41" s="128"/>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="129"/>
+      <c r="T41" s="419"/>
+      <c r="U41" s="419"/>
+      <c r="V41" s="419"/>
+      <c r="W41" s="419"/>
+      <c r="X41" s="419"/>
+      <c r="Y41" s="420"/>
+      <c r="Z41" s="402"/>
+      <c r="AA41" s="403"/>
+      <c r="AB41" s="403"/>
+      <c r="AC41" s="403"/>
+      <c r="AD41" s="403"/>
+      <c r="AE41" s="403"/>
+      <c r="AF41" s="403"/>
+      <c r="AG41" s="403"/>
+      <c r="AH41" s="403"/>
+      <c r="AI41" s="403"/>
+      <c r="AJ41" s="404"/>
     </row>
     <row r="42" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="354" t="s">
+      <c r="A42" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="152" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="423"/>
+      <c r="D42" s="423"/>
+      <c r="E42" s="423"/>
+      <c r="F42" s="423"/>
+      <c r="G42" s="425"/>
+      <c r="H42" s="427" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="153"/>
-      <c r="J42" s="361"/>
-      <c r="K42" s="362"/>
-      <c r="L42" s="362"/>
-      <c r="M42" s="362"/>
-      <c r="N42" s="362"/>
-      <c r="O42" s="362"/>
-      <c r="P42" s="362"/>
-      <c r="Q42" s="363"/>
+      <c r="I42" s="428"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="175"/>
+      <c r="N42" s="175"/>
+      <c r="O42" s="175"/>
+      <c r="P42" s="175"/>
+      <c r="Q42" s="176"/>
       <c r="R42" s="63" t="s">
         <v>10</v>
       </c>
       <c r="S42" s="72"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="154"/>
-      <c r="W42" s="154"/>
-      <c r="X42" s="154"/>
-      <c r="Y42" s="155"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="128"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="128"/>
-      <c r="AF42" s="128"/>
-      <c r="AG42" s="128"/>
-      <c r="AH42" s="128"/>
-      <c r="AI42" s="128"/>
-      <c r="AJ42" s="129"/>
+      <c r="T42" s="429"/>
+      <c r="U42" s="429"/>
+      <c r="V42" s="429"/>
+      <c r="W42" s="429"/>
+      <c r="X42" s="429"/>
+      <c r="Y42" s="430"/>
+      <c r="Z42" s="402"/>
+      <c r="AA42" s="403"/>
+      <c r="AB42" s="403"/>
+      <c r="AC42" s="403"/>
+      <c r="AD42" s="403"/>
+      <c r="AE42" s="403"/>
+      <c r="AF42" s="403"/>
+      <c r="AG42" s="403"/>
+      <c r="AH42" s="403"/>
+      <c r="AI42" s="403"/>
+      <c r="AJ42" s="404"/>
     </row>
     <row r="43" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="356" t="s">
+      <c r="A43" s="170" t="s">
         <v>876</v>
       </c>
-      <c r="B43" s="159"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="158" t="s">
+      <c r="B43" s="171"/>
+      <c r="C43" s="424"/>
+      <c r="D43" s="424"/>
+      <c r="E43" s="424"/>
+      <c r="F43" s="424"/>
+      <c r="G43" s="426"/>
+      <c r="H43" s="433" t="s">
         <v>876</v>
       </c>
-      <c r="I43" s="159"/>
-      <c r="J43" s="364"/>
-      <c r="K43" s="365"/>
-      <c r="L43" s="365"/>
-      <c r="M43" s="365"/>
-      <c r="N43" s="365"/>
-      <c r="O43" s="365"/>
-      <c r="P43" s="365"/>
-      <c r="Q43" s="366"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="178"/>
+      <c r="M43" s="178"/>
+      <c r="N43" s="178"/>
+      <c r="O43" s="178"/>
+      <c r="P43" s="178"/>
+      <c r="Q43" s="179"/>
       <c r="R43" s="62" t="s">
         <v>876</v>
       </c>
       <c r="S43" s="73"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="156"/>
-      <c r="V43" s="156"/>
-      <c r="W43" s="156"/>
-      <c r="X43" s="156"/>
-      <c r="Y43" s="157"/>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
-      <c r="AF43" s="128"/>
-      <c r="AG43" s="128"/>
-      <c r="AH43" s="128"/>
-      <c r="AI43" s="128"/>
-      <c r="AJ43" s="129"/>
+      <c r="T43" s="431"/>
+      <c r="U43" s="431"/>
+      <c r="V43" s="431"/>
+      <c r="W43" s="431"/>
+      <c r="X43" s="431"/>
+      <c r="Y43" s="432"/>
+      <c r="Z43" s="402"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="403"/>
+      <c r="AH43" s="403"/>
+      <c r="AI43" s="403"/>
+      <c r="AJ43" s="404"/>
     </row>
     <row r="44" spans="1:36" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="452" t="s">
         <v>323</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="99" t="s">
+      <c r="B44" s="453"/>
+      <c r="C44" s="435"/>
+      <c r="D44" s="436"/>
+      <c r="E44" s="454" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="102" t="s">
+      <c r="F44" s="455"/>
+      <c r="G44" s="456"/>
+      <c r="H44" s="457" t="s">
         <v>394</v>
       </c>
-      <c r="I44" s="103"/>
-      <c r="J44" s="358" t="s">
+      <c r="I44" s="458"/>
+      <c r="J44" s="172" t="s">
         <v>325</v>
       </c>
-      <c r="K44" s="358"/>
-      <c r="L44" s="358"/>
-      <c r="M44" s="359"/>
-      <c r="N44" s="104" t="s">
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="459" t="s">
         <v>326</v>
       </c>
-      <c r="O44" s="105"/>
-      <c r="P44" s="104" t="s">
+      <c r="O44" s="460"/>
+      <c r="P44" s="459" t="s">
         <v>327</v>
       </c>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="99" t="s">
+      <c r="Q44" s="461"/>
+      <c r="R44" s="454" t="s">
         <v>395</v>
       </c>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="99" t="s">
+      <c r="S44" s="455"/>
+      <c r="T44" s="455"/>
+      <c r="U44" s="455"/>
+      <c r="V44" s="456"/>
+      <c r="W44" s="454" t="s">
         <v>891</v>
       </c>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="128"/>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="128"/>
-      <c r="AD44" s="128"/>
-      <c r="AE44" s="128"/>
-      <c r="AF44" s="128"/>
-      <c r="AG44" s="128"/>
-      <c r="AH44" s="128"/>
-      <c r="AI44" s="128"/>
-      <c r="AJ44" s="129"/>
+      <c r="X44" s="462"/>
+      <c r="Y44" s="463"/>
+      <c r="Z44" s="402"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="403"/>
+      <c r="AH44" s="403"/>
+      <c r="AI44" s="403"/>
+      <c r="AJ44" s="404"/>
     </row>
     <row r="45" spans="1:36" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="160" t="s">
+      <c r="A45" s="434" t="s">
         <v>915</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="477" t="s">
+      <c r="B45" s="435"/>
+      <c r="C45" s="435"/>
+      <c r="D45" s="436"/>
+      <c r="E45" s="192" t="s">
+        <v>951</v>
+      </c>
+      <c r="F45" s="193"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="437" t="s">
+        <v>917</v>
+      </c>
+      <c r="I45" s="438"/>
+      <c r="J45" s="195" t="s">
         <v>952</v>
       </c>
-      <c r="F45" s="478"/>
-      <c r="G45" s="479"/>
-      <c r="H45" s="161" t="s">
-        <v>917</v>
-      </c>
-      <c r="I45" s="162"/>
-      <c r="J45" s="357" t="s">
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="197"/>
+      <c r="N45" s="198" t="s">
         <v>953</v>
       </c>
-      <c r="K45" s="480"/>
-      <c r="L45" s="480"/>
-      <c r="M45" s="360"/>
-      <c r="N45" s="481" t="s">
+      <c r="O45" s="199"/>
+      <c r="P45" s="200" t="s">
         <v>954</v>
       </c>
-      <c r="O45" s="482"/>
-      <c r="P45" s="483" t="s">
+      <c r="Q45" s="199"/>
+      <c r="R45" s="464">
+        <v>78100</v>
+      </c>
+      <c r="S45" s="440"/>
+      <c r="T45" s="440"/>
+      <c r="U45" s="440"/>
+      <c r="V45" s="465"/>
+      <c r="W45" s="439" t="s">
         <v>955</v>
       </c>
-      <c r="Q45" s="482"/>
-      <c r="R45" s="163">
-        <v>78100</v>
-      </c>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="164"/>
-      <c r="V45" s="484"/>
-      <c r="W45" s="485" t="s">
-        <v>956</v>
-      </c>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="165"/>
-      <c r="Z45" s="130"/>
-      <c r="AA45" s="131"/>
-      <c r="AB45" s="131"/>
-      <c r="AC45" s="131"/>
-      <c r="AD45" s="131"/>
-      <c r="AE45" s="131"/>
-      <c r="AF45" s="131"/>
-      <c r="AG45" s="131"/>
-      <c r="AH45" s="131"/>
-      <c r="AI45" s="131"/>
-      <c r="AJ45" s="132"/>
+      <c r="X45" s="440"/>
+      <c r="Y45" s="441"/>
+      <c r="Z45" s="405"/>
+      <c r="AA45" s="406"/>
+      <c r="AB45" s="406"/>
+      <c r="AC45" s="406"/>
+      <c r="AD45" s="406"/>
+      <c r="AE45" s="406"/>
+      <c r="AF45" s="406"/>
+      <c r="AG45" s="406"/>
+      <c r="AH45" s="406"/>
+      <c r="AI45" s="406"/>
+      <c r="AJ45" s="407"/>
     </row>
     <row r="46" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65"/>
@@ -9124,110 +9123,27 @@
     </row>
     <row r="47" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE48" s="93" t="s">
+      <c r="AE48" s="450" t="s">
         <v>906</v>
       </c>
-      <c r="AF48" s="93"/>
-      <c r="AG48" s="93"/>
-      <c r="AH48" s="93"/>
-      <c r="AI48" s="94"/>
+      <c r="AF48" s="450"/>
+      <c r="AG48" s="450"/>
+      <c r="AH48" s="450"/>
+      <c r="AI48" s="451"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="125">
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:Q37"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:Q34"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:Q35"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J42:Q43"/>
-    <mergeCell ref="J40:Q41"/>
-    <mergeCell ref="J38:Q39"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:Q36"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:Y4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:Y5"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:Y1"/>
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:Y9"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AJ6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="Z10:AB12"/>
-    <mergeCell ref="AC10:AJ12"/>
-    <mergeCell ref="Z15:AA20"/>
-    <mergeCell ref="AB15:AC20"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AJ22"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:Y28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="Z25:AJ25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A11:K22"/>
-    <mergeCell ref="M11:X22"/>
-    <mergeCell ref="Z26:AJ26"/>
-    <mergeCell ref="Z28:AJ28"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:Y31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:Y29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:Y30"/>
+    <mergeCell ref="AE48:AI48"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="R45:V45"/>
     <mergeCell ref="Z37:AC37"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9252,63 +9168,146 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:Y31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:Y29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:Y30"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="Z10:AB12"/>
+    <mergeCell ref="AC10:AJ12"/>
+    <mergeCell ref="Z15:AA20"/>
+    <mergeCell ref="AB15:AC20"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AJ22"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:Y28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="Z25:AJ25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A11:K22"/>
+    <mergeCell ref="M11:X22"/>
+    <mergeCell ref="Z26:AJ26"/>
+    <mergeCell ref="Z28:AJ28"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:Y9"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AJ6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:Y4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:Y5"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:Y1"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J42:Q43"/>
+    <mergeCell ref="J40:Q41"/>
+    <mergeCell ref="J38:Q39"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:Q36"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:Q37"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:Q35"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:Y2">
-    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>$G$2=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:Y3">
-    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>$G$3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="35" stopIfTrue="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 K6:L7">
-    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 K6:L7">
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>$R$45:$V$45=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>$AC$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AJ8">
-    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>$AC$8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AD3">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>$AC$3=""</formula>
     </cfRule>
     <cfRule type="expression" priority="24" stopIfTrue="1">
@@ -9316,81 +9315,81 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AJ6">
-    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>$AC$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AC20">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>$AB$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>$AB$22=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$A$25=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>AND($A$25="Oui/да",$A$28="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:Y9">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
       <formula>$D$9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:Y8">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$D$8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OFFSET(Liste_chantiers,MATCH($G$4&amp;"*",Liste_chantiers,0)-1,0,COUNTIF(Liste_chantiers,$G$4&amp;"*"))</formula1>
     </dataValidation>
@@ -9434,1333 +9433,1342 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="408" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="407" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="407" customWidth="1"/>
-    <col min="4" max="8" width="7.85546875" style="407" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="407" customWidth="1"/>
-    <col min="10" max="10" width="12" style="407" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="407"/>
+    <col min="1" max="1" width="6" style="94" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="93" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="93" customWidth="1"/>
+    <col min="4" max="8" width="7.85546875" style="93" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="93" customWidth="1"/>
+    <col min="10" max="10" width="12" style="93" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="459" t="s">
-        <v>950</v>
-      </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="457"/>
+      <c r="A1" s="473" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="475"/>
     </row>
     <row r="2" spans="1:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="456"/>
-      <c r="B3" s="455"/>
-      <c r="C3" s="454"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
-      <c r="G3" s="453"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="452"/>
-    </row>
-    <row r="4" spans="1:10" s="414" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="451">
+      <c r="A3" s="128"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="124"/>
+    </row>
+    <row r="4" spans="1:10" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="123">
         <v>1</v>
       </c>
-      <c r="B4" s="450" t="s">
-        <v>949</v>
-      </c>
-      <c r="C4" s="449" t="s">
+      <c r="B4" s="122" t="s">
+        <v>948</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>931</v>
+      </c>
+      <c r="D4" s="476"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="478"/>
+    </row>
+    <row r="5" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="120"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="105"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="114">
+        <v>2</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>947</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D6" s="472"/>
+      <c r="E6" s="467"/>
+      <c r="F6" s="467"/>
+      <c r="G6" s="467"/>
+      <c r="H6" s="467"/>
+      <c r="I6" s="467"/>
+      <c r="J6" s="468"/>
+    </row>
+    <row r="7" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="110"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="105"/>
+    </row>
+    <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="114">
+        <v>3</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D8" s="466"/>
+      <c r="E8" s="467"/>
+      <c r="F8" s="467"/>
+      <c r="G8" s="467"/>
+      <c r="H8" s="467"/>
+      <c r="I8" s="467"/>
+      <c r="J8" s="468"/>
+    </row>
+    <row r="9" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="110"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="114">
+        <v>4</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>945</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" s="466"/>
+      <c r="E10" s="467"/>
+      <c r="F10" s="467"/>
+      <c r="G10" s="467"/>
+      <c r="H10" s="467"/>
+      <c r="I10" s="467"/>
+      <c r="J10" s="468"/>
+    </row>
+    <row r="11" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="110"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="103">
+        <v>5</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>944</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>931</v>
+      </c>
+      <c r="D12" s="469"/>
+      <c r="E12" s="470"/>
+      <c r="F12" s="470"/>
+      <c r="G12" s="470"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="470"/>
+      <c r="J12" s="471"/>
+    </row>
+    <row r="13" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="110"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>942</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D14" s="472"/>
+      <c r="E14" s="467"/>
+      <c r="F14" s="467"/>
+      <c r="G14" s="467"/>
+      <c r="H14" s="467"/>
+      <c r="I14" s="467"/>
+      <c r="J14" s="468"/>
+    </row>
+    <row r="15" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="110"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="105"/>
+    </row>
+    <row r="16" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="114" t="s">
+        <v>941</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>940</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D16" s="472"/>
+      <c r="E16" s="467"/>
+      <c r="F16" s="467"/>
+      <c r="G16" s="467"/>
+      <c r="H16" s="467"/>
+      <c r="I16" s="467"/>
+      <c r="J16" s="468"/>
+    </row>
+    <row r="17" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="110"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="105"/>
+    </row>
+    <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="114">
+        <v>8</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>939</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D18" s="472"/>
+      <c r="E18" s="467"/>
+      <c r="F18" s="467"/>
+      <c r="G18" s="467"/>
+      <c r="H18" s="467"/>
+      <c r="I18" s="467"/>
+      <c r="J18" s="468"/>
+    </row>
+    <row r="19" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="110"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="105"/>
+    </row>
+    <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="114">
+        <v>9</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>938</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D20" s="480"/>
+      <c r="E20" s="481"/>
+      <c r="F20" s="481"/>
+      <c r="G20" s="481"/>
+      <c r="H20" s="481"/>
+      <c r="I20" s="481"/>
+      <c r="J20" s="482"/>
+      <c r="N20" s="104"/>
+    </row>
+    <row r="21" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="115"/>
+      <c r="N21" s="104"/>
+    </row>
+    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="114">
+        <v>10</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>937</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D22" s="472"/>
+      <c r="E22" s="467"/>
+      <c r="F22" s="467"/>
+      <c r="G22" s="467"/>
+      <c r="H22" s="467"/>
+      <c r="I22" s="467"/>
+      <c r="J22" s="468"/>
+      <c r="N22" s="104"/>
+    </row>
+    <row r="23" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="105"/>
+      <c r="N23" s="104"/>
+    </row>
+    <row r="24" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="114">
+        <v>11</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>936</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>931</v>
+      </c>
+      <c r="D24" s="472"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="467"/>
+      <c r="G24" s="467"/>
+      <c r="H24" s="467"/>
+      <c r="I24" s="467"/>
+      <c r="J24" s="468"/>
+      <c r="N24" s="111"/>
+    </row>
+    <row r="25" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="105"/>
+      <c r="N25" s="104"/>
+    </row>
+    <row r="26" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="103">
+        <v>12</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>935</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>931</v>
+      </c>
+      <c r="D26" s="469"/>
+      <c r="E26" s="470"/>
+      <c r="F26" s="470"/>
+      <c r="G26" s="470"/>
+      <c r="H26" s="470"/>
+      <c r="I26" s="470"/>
+      <c r="J26" s="471"/>
+      <c r="N26" s="100"/>
+    </row>
+    <row r="27" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="105"/>
+      <c r="N27" s="104"/>
+    </row>
+    <row r="28" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="103">
+        <v>13</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>934</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>931</v>
+      </c>
+      <c r="D28" s="469"/>
+      <c r="E28" s="470"/>
+      <c r="F28" s="470"/>
+      <c r="G28" s="470"/>
+      <c r="H28" s="470"/>
+      <c r="I28" s="470"/>
+      <c r="J28" s="471"/>
+      <c r="N28" s="100"/>
+    </row>
+    <row r="29" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="105"/>
+      <c r="N29" s="104"/>
+    </row>
+    <row r="30" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="103">
+        <v>14</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>933</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>931</v>
+      </c>
+      <c r="D30" s="469"/>
+      <c r="E30" s="470"/>
+      <c r="F30" s="470"/>
+      <c r="G30" s="470"/>
+      <c r="H30" s="470"/>
+      <c r="I30" s="470"/>
+      <c r="J30" s="471"/>
+      <c r="N30" s="100"/>
+    </row>
+    <row r="31" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="110"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="105"/>
+      <c r="N31" s="104"/>
+    </row>
+    <row r="32" spans="1:14" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="103">
+        <v>15</v>
+      </c>
+      <c r="B32" s="102" t="s">
         <v>932</v>
       </c>
-      <c r="D4" s="448"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="446"/>
-    </row>
-    <row r="5" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="445"/>
-      <c r="B5" s="444"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="425"/>
-      <c r="E5" s="424"/>
-      <c r="F5" s="424"/>
-      <c r="G5" s="424"/>
-      <c r="H5" s="424"/>
-      <c r="I5" s="424"/>
-      <c r="J5" s="423"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="435">
-        <v>2</v>
-      </c>
-      <c r="B6" s="434" t="s">
-        <v>948</v>
-      </c>
-      <c r="C6" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D6" s="432"/>
-      <c r="E6" s="431"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="431"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="431"/>
-      <c r="J6" s="430"/>
-    </row>
-    <row r="7" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="428"/>
-      <c r="B7" s="427"/>
-      <c r="C7" s="426"/>
-      <c r="D7" s="425"/>
-      <c r="E7" s="424"/>
-      <c r="F7" s="424"/>
-      <c r="G7" s="424"/>
-      <c r="H7" s="424"/>
-      <c r="I7" s="424"/>
-      <c r="J7" s="423"/>
-    </row>
-    <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="435">
-        <v>3</v>
-      </c>
-      <c r="B8" s="434" t="s">
-        <v>947</v>
-      </c>
-      <c r="C8" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D8" s="443"/>
-      <c r="E8" s="431"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="431"/>
-      <c r="H8" s="431"/>
-      <c r="I8" s="431"/>
-      <c r="J8" s="430"/>
-    </row>
-    <row r="9" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="428"/>
-      <c r="B9" s="427"/>
-      <c r="C9" s="426"/>
-      <c r="D9" s="425"/>
-      <c r="E9" s="424"/>
-      <c r="F9" s="424"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="424"/>
-      <c r="I9" s="424"/>
-      <c r="J9" s="423"/>
-    </row>
-    <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="435">
-        <v>4</v>
-      </c>
-      <c r="B10" s="434" t="s">
-        <v>946</v>
-      </c>
-      <c r="C10" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D10" s="443"/>
-      <c r="E10" s="431"/>
-      <c r="F10" s="431"/>
-      <c r="G10" s="431"/>
-      <c r="H10" s="431"/>
-      <c r="I10" s="431"/>
-      <c r="J10" s="430"/>
-    </row>
-    <row r="11" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="428"/>
-      <c r="B11" s="427"/>
-      <c r="C11" s="426"/>
-      <c r="D11" s="442"/>
-      <c r="E11" s="424"/>
-      <c r="F11" s="424"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="423"/>
-    </row>
-    <row r="12" spans="1:10" s="414" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="421">
-        <v>5</v>
-      </c>
-      <c r="B12" s="420" t="s">
-        <v>945</v>
-      </c>
-      <c r="C12" s="419" t="s">
-        <v>932</v>
-      </c>
-      <c r="D12" s="418"/>
-      <c r="E12" s="417"/>
-      <c r="F12" s="417"/>
-      <c r="G12" s="417"/>
-      <c r="H12" s="417"/>
-      <c r="I12" s="417"/>
-      <c r="J12" s="416"/>
-    </row>
-    <row r="13" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="428"/>
-      <c r="B13" s="427"/>
-      <c r="C13" s="426"/>
-      <c r="D13" s="425"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="424"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="424"/>
-      <c r="J13" s="423"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="435" t="s">
-        <v>944</v>
-      </c>
-      <c r="B14" s="434" t="s">
-        <v>943</v>
-      </c>
-      <c r="C14" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D14" s="432"/>
-      <c r="E14" s="431"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="431"/>
-      <c r="H14" s="431"/>
-      <c r="I14" s="431"/>
-      <c r="J14" s="430"/>
-    </row>
-    <row r="15" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="428"/>
-      <c r="B15" s="427"/>
-      <c r="C15" s="426"/>
-      <c r="D15" s="425"/>
-      <c r="E15" s="424"/>
-      <c r="F15" s="424"/>
-      <c r="G15" s="424"/>
-      <c r="H15" s="424"/>
-      <c r="I15" s="424"/>
-      <c r="J15" s="423"/>
-    </row>
-    <row r="16" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="435" t="s">
-        <v>942</v>
-      </c>
-      <c r="B16" s="434" t="s">
-        <v>941</v>
-      </c>
-      <c r="C16" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D16" s="432"/>
-      <c r="E16" s="431"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="431"/>
-      <c r="H16" s="431"/>
-      <c r="I16" s="431"/>
-      <c r="J16" s="430"/>
-    </row>
-    <row r="17" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="428"/>
-      <c r="B17" s="427"/>
-      <c r="C17" s="426"/>
-      <c r="D17" s="425"/>
-      <c r="E17" s="424"/>
-      <c r="F17" s="424"/>
-      <c r="G17" s="424"/>
-      <c r="H17" s="424"/>
-      <c r="I17" s="424"/>
-      <c r="J17" s="423"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="435">
-        <v>8</v>
-      </c>
-      <c r="B18" s="434" t="s">
-        <v>940</v>
-      </c>
-      <c r="C18" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D18" s="432"/>
-      <c r="E18" s="431"/>
-      <c r="F18" s="431"/>
-      <c r="G18" s="431"/>
-      <c r="H18" s="431"/>
-      <c r="I18" s="431"/>
-      <c r="J18" s="430"/>
-    </row>
-    <row r="19" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="428"/>
-      <c r="B19" s="427"/>
-      <c r="C19" s="426"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="424"/>
-      <c r="F19" s="424"/>
-      <c r="G19" s="424"/>
-      <c r="H19" s="424"/>
-      <c r="I19" s="424"/>
-      <c r="J19" s="423"/>
-    </row>
-    <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="435">
-        <v>9</v>
-      </c>
-      <c r="B20" s="434" t="s">
-        <v>939</v>
-      </c>
-      <c r="C20" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D20" s="441"/>
-      <c r="E20" s="440"/>
-      <c r="F20" s="440"/>
-      <c r="G20" s="440"/>
-      <c r="H20" s="440"/>
-      <c r="I20" s="440"/>
-      <c r="J20" s="439"/>
-      <c r="N20" s="422"/>
-    </row>
-    <row r="21" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="428"/>
-      <c r="B21" s="427"/>
-      <c r="C21" s="426"/>
-      <c r="D21" s="438"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="436"/>
-      <c r="N21" s="422"/>
-    </row>
-    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="435">
-        <v>10</v>
-      </c>
-      <c r="B22" s="434" t="s">
-        <v>938</v>
-      </c>
-      <c r="C22" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D22" s="432"/>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="431"/>
-      <c r="H22" s="431"/>
-      <c r="I22" s="431"/>
-      <c r="J22" s="430"/>
-      <c r="N22" s="422"/>
-    </row>
-    <row r="23" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="428"/>
-      <c r="B23" s="427"/>
-      <c r="C23" s="426"/>
-      <c r="D23" s="425"/>
-      <c r="E23" s="424"/>
-      <c r="F23" s="424"/>
-      <c r="G23" s="424"/>
-      <c r="H23" s="424"/>
-      <c r="I23" s="424"/>
-      <c r="J23" s="423"/>
-      <c r="N23" s="422"/>
-    </row>
-    <row r="24" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="435">
-        <v>11</v>
-      </c>
-      <c r="B24" s="434" t="s">
-        <v>937</v>
-      </c>
-      <c r="C24" s="433" t="s">
-        <v>932</v>
-      </c>
-      <c r="D24" s="432"/>
-      <c r="E24" s="431"/>
-      <c r="F24" s="431"/>
-      <c r="G24" s="431"/>
-      <c r="H24" s="431"/>
-      <c r="I24" s="431"/>
-      <c r="J24" s="430"/>
-      <c r="N24" s="429"/>
-    </row>
-    <row r="25" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="428"/>
-      <c r="B25" s="427"/>
-      <c r="C25" s="426"/>
-      <c r="D25" s="425"/>
-      <c r="E25" s="424"/>
-      <c r="F25" s="424"/>
-      <c r="G25" s="424"/>
-      <c r="H25" s="424"/>
-      <c r="I25" s="424"/>
-      <c r="J25" s="423"/>
-      <c r="N25" s="422"/>
-    </row>
-    <row r="26" spans="1:14" s="414" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="421">
-        <v>12</v>
-      </c>
-      <c r="B26" s="420" t="s">
-        <v>936</v>
-      </c>
-      <c r="C26" s="419" t="s">
-        <v>932</v>
-      </c>
-      <c r="D26" s="418"/>
-      <c r="E26" s="417"/>
-      <c r="F26" s="417"/>
-      <c r="G26" s="417"/>
-      <c r="H26" s="417"/>
-      <c r="I26" s="417"/>
-      <c r="J26" s="416"/>
-      <c r="N26" s="415"/>
-    </row>
-    <row r="27" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="428"/>
-      <c r="B27" s="427"/>
-      <c r="C27" s="426"/>
-      <c r="D27" s="425"/>
-      <c r="E27" s="424"/>
-      <c r="F27" s="424"/>
-      <c r="G27" s="424"/>
-      <c r="H27" s="424"/>
-      <c r="I27" s="424"/>
-      <c r="J27" s="423"/>
-      <c r="N27" s="422"/>
-    </row>
-    <row r="28" spans="1:14" s="414" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="421">
-        <v>13</v>
-      </c>
-      <c r="B28" s="420" t="s">
-        <v>935</v>
-      </c>
-      <c r="C28" s="419" t="s">
-        <v>932</v>
-      </c>
-      <c r="D28" s="418"/>
-      <c r="E28" s="417"/>
-      <c r="F28" s="417"/>
-      <c r="G28" s="417"/>
-      <c r="H28" s="417"/>
-      <c r="I28" s="417"/>
-      <c r="J28" s="416"/>
-      <c r="N28" s="415"/>
-    </row>
-    <row r="29" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="428"/>
-      <c r="B29" s="427"/>
-      <c r="C29" s="426"/>
-      <c r="D29" s="425"/>
-      <c r="E29" s="424"/>
-      <c r="F29" s="424"/>
-      <c r="G29" s="424"/>
-      <c r="H29" s="424"/>
-      <c r="I29" s="424"/>
-      <c r="J29" s="423"/>
-      <c r="N29" s="422"/>
-    </row>
-    <row r="30" spans="1:14" s="414" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="421">
-        <v>14</v>
-      </c>
-      <c r="B30" s="420" t="s">
-        <v>934</v>
-      </c>
-      <c r="C30" s="419" t="s">
-        <v>932</v>
-      </c>
-      <c r="D30" s="418"/>
-      <c r="E30" s="417"/>
-      <c r="F30" s="417"/>
-      <c r="G30" s="417"/>
-      <c r="H30" s="417"/>
-      <c r="I30" s="417"/>
-      <c r="J30" s="416"/>
-      <c r="N30" s="415"/>
-    </row>
-    <row r="31" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="428"/>
-      <c r="B31" s="427"/>
-      <c r="C31" s="426"/>
-      <c r="D31" s="425"/>
-      <c r="E31" s="424"/>
-      <c r="F31" s="424"/>
-      <c r="G31" s="424"/>
-      <c r="H31" s="424"/>
-      <c r="I31" s="424"/>
-      <c r="J31" s="423"/>
-      <c r="N31" s="422"/>
-    </row>
-    <row r="32" spans="1:14" s="414" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="421">
-        <v>15</v>
-      </c>
-      <c r="B32" s="420" t="s">
-        <v>933</v>
-      </c>
-      <c r="C32" s="419" t="s">
-        <v>932</v>
-      </c>
-      <c r="D32" s="418"/>
-      <c r="E32" s="417"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="417"/>
-      <c r="H32" s="417"/>
-      <c r="I32" s="417"/>
-      <c r="J32" s="416"/>
-      <c r="N32" s="415"/>
+      <c r="C32" s="101" t="s">
+        <v>931</v>
+      </c>
+      <c r="D32" s="469"/>
+      <c r="E32" s="470"/>
+      <c r="F32" s="470"/>
+      <c r="G32" s="470"/>
+      <c r="H32" s="470"/>
+      <c r="I32" s="470"/>
+      <c r="J32" s="471"/>
+      <c r="N32" s="100"/>
     </row>
     <row r="33" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="413" t="s">
-        <v>931</v>
-      </c>
-      <c r="B33" s="412" t="s">
+      <c r="A33" s="98" t="s">
         <v>930</v>
       </c>
-      <c r="C33" s="412"/>
-      <c r="D33" s="412"/>
-      <c r="E33" s="412"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="411"/>
-      <c r="H33" s="411"/>
-      <c r="I33" s="411"/>
-      <c r="J33" s="410"/>
+      <c r="B33" s="479" t="s">
+        <v>929</v>
+      </c>
+      <c r="C33" s="479"/>
+      <c r="D33" s="479"/>
+      <c r="E33" s="479"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="96"/>
     </row>
     <row r="34" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="409"/>
+      <c r="A34" s="95"/>
     </row>
     <row r="35" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="409"/>
+      <c r="A35" s="95"/>
     </row>
     <row r="36" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="409"/>
+      <c r="A36" s="95"/>
     </row>
     <row r="37" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="409"/>
+      <c r="A37" s="95"/>
     </row>
     <row r="38" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="409"/>
+      <c r="A38" s="95"/>
     </row>
     <row r="39" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="409"/>
+      <c r="A39" s="95"/>
     </row>
     <row r="40" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="409"/>
+      <c r="A40" s="95"/>
     </row>
     <row r="41" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="409"/>
+      <c r="A41" s="95"/>
     </row>
     <row r="42" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="409"/>
+      <c r="A42" s="95"/>
     </row>
     <row r="43" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="409"/>
+      <c r="A43" s="95"/>
     </row>
     <row r="44" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="409"/>
+      <c r="A44" s="95"/>
     </row>
     <row r="45" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="409"/>
+      <c r="A45" s="95"/>
     </row>
     <row r="46" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="409"/>
+      <c r="A46" s="95"/>
     </row>
     <row r="47" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="409"/>
+      <c r="A47" s="95"/>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="409"/>
+      <c r="A48" s="95"/>
     </row>
     <row r="49" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="409"/>
+      <c r="A49" s="95"/>
     </row>
     <row r="50" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="409"/>
+      <c r="A50" s="95"/>
     </row>
     <row r="51" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="409"/>
+      <c r="A51" s="95"/>
     </row>
     <row r="52" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="409"/>
+      <c r="A52" s="95"/>
     </row>
     <row r="53" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="409"/>
+      <c r="A53" s="95"/>
     </row>
     <row r="54" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="409"/>
+      <c r="A54" s="95"/>
     </row>
     <row r="55" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="409"/>
+      <c r="A55" s="95"/>
     </row>
     <row r="56" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="409"/>
+      <c r="A56" s="95"/>
     </row>
     <row r="57" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="409"/>
+      <c r="A57" s="95"/>
     </row>
     <row r="58" spans="1:1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="409"/>
+      <c r="A58" s="95"/>
     </row>
     <row r="59" spans="1:1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="409"/>
+      <c r="A59" s="95"/>
     </row>
     <row r="60" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="409"/>
+      <c r="A60" s="95"/>
     </row>
     <row r="61" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="409"/>
+      <c r="A61" s="95"/>
     </row>
     <row r="62" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="409"/>
+      <c r="A62" s="95"/>
     </row>
     <row r="63" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="409"/>
+      <c r="A63" s="95"/>
     </row>
     <row r="64" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="409"/>
+      <c r="A64" s="95"/>
     </row>
     <row r="65" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="409"/>
+      <c r="A65" s="95"/>
     </row>
     <row r="66" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="409"/>
+      <c r="A66" s="95"/>
     </row>
     <row r="67" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="409"/>
+      <c r="A67" s="95"/>
     </row>
     <row r="68" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="409"/>
+      <c r="A68" s="95"/>
     </row>
     <row r="69" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="409"/>
+      <c r="A69" s="95"/>
     </row>
     <row r="70" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="409"/>
+      <c r="A70" s="95"/>
     </row>
     <row r="71" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="409"/>
+      <c r="A71" s="95"/>
     </row>
     <row r="72" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="409"/>
+      <c r="A72" s="95"/>
     </row>
     <row r="73" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="409"/>
+      <c r="A73" s="95"/>
     </row>
     <row r="74" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="409"/>
+      <c r="A74" s="95"/>
     </row>
     <row r="75" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="409"/>
+      <c r="A75" s="95"/>
     </row>
     <row r="76" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="409"/>
+      <c r="A76" s="95"/>
     </row>
     <row r="77" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="409"/>
+      <c r="A77" s="95"/>
     </row>
     <row r="78" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="409"/>
+      <c r="A78" s="95"/>
     </row>
     <row r="79" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="409"/>
+      <c r="A79" s="95"/>
     </row>
     <row r="80" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="409"/>
+      <c r="A80" s="95"/>
     </row>
     <row r="81" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="409"/>
+      <c r="A81" s="95"/>
     </row>
     <row r="82" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="409"/>
+      <c r="A82" s="95"/>
     </row>
     <row r="83" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="409"/>
+      <c r="A83" s="95"/>
     </row>
     <row r="84" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="409"/>
+      <c r="A84" s="95"/>
     </row>
     <row r="85" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="409"/>
+      <c r="A85" s="95"/>
     </row>
     <row r="86" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="409"/>
+      <c r="A86" s="95"/>
     </row>
     <row r="87" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="409"/>
+      <c r="A87" s="95"/>
     </row>
     <row r="88" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="409"/>
+      <c r="A88" s="95"/>
     </row>
     <row r="89" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="409"/>
+      <c r="A89" s="95"/>
     </row>
     <row r="90" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="409"/>
+      <c r="A90" s="95"/>
     </row>
     <row r="91" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="409"/>
+      <c r="A91" s="95"/>
     </row>
     <row r="92" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="409"/>
+      <c r="A92" s="95"/>
     </row>
     <row r="93" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="409"/>
+      <c r="A93" s="95"/>
     </row>
     <row r="94" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="409"/>
+      <c r="A94" s="95"/>
     </row>
     <row r="95" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="409"/>
+      <c r="A95" s="95"/>
     </row>
     <row r="96" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="409"/>
+      <c r="A96" s="95"/>
     </row>
     <row r="97" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="409"/>
+      <c r="A97" s="95"/>
     </row>
     <row r="98" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="409"/>
+      <c r="A98" s="95"/>
     </row>
     <row r="99" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="409"/>
+      <c r="A99" s="95"/>
     </row>
     <row r="100" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="409"/>
+      <c r="A100" s="95"/>
     </row>
     <row r="101" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="409"/>
+      <c r="A101" s="95"/>
     </row>
     <row r="102" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="409"/>
+      <c r="A102" s="95"/>
     </row>
     <row r="103" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="409"/>
+      <c r="A103" s="95"/>
     </row>
     <row r="104" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="409"/>
+      <c r="A104" s="95"/>
     </row>
     <row r="105" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="409"/>
+      <c r="A105" s="95"/>
     </row>
     <row r="106" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="409"/>
+      <c r="A106" s="95"/>
     </row>
     <row r="107" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="409"/>
+      <c r="A107" s="95"/>
     </row>
     <row r="108" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="409"/>
+      <c r="A108" s="95"/>
     </row>
     <row r="109" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="409"/>
+      <c r="A109" s="95"/>
     </row>
     <row r="110" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="409"/>
+      <c r="A110" s="95"/>
     </row>
     <row r="111" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="409"/>
+      <c r="A111" s="95"/>
     </row>
     <row r="112" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="409"/>
+      <c r="A112" s="95"/>
     </row>
     <row r="113" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="409"/>
+      <c r="A113" s="95"/>
     </row>
     <row r="114" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="409"/>
+      <c r="A114" s="95"/>
     </row>
     <row r="115" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="409"/>
+      <c r="A115" s="95"/>
     </row>
     <row r="116" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="409"/>
+      <c r="A116" s="95"/>
     </row>
     <row r="117" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="409"/>
+      <c r="A117" s="95"/>
     </row>
     <row r="118" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="409"/>
+      <c r="A118" s="95"/>
     </row>
     <row r="119" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="409"/>
+      <c r="A119" s="95"/>
     </row>
     <row r="120" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="409"/>
+      <c r="A120" s="95"/>
     </row>
     <row r="121" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="409"/>
+      <c r="A121" s="95"/>
     </row>
     <row r="122" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="409"/>
+      <c r="A122" s="95"/>
     </row>
     <row r="123" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="409"/>
+      <c r="A123" s="95"/>
     </row>
     <row r="124" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="409"/>
+      <c r="A124" s="95"/>
     </row>
     <row r="125" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="409"/>
+      <c r="A125" s="95"/>
     </row>
     <row r="126" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="409"/>
+      <c r="A126" s="95"/>
     </row>
     <row r="127" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="409"/>
+      <c r="A127" s="95"/>
     </row>
     <row r="128" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="409"/>
+      <c r="A128" s="95"/>
     </row>
     <row r="129" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="409"/>
+      <c r="A129" s="95"/>
     </row>
     <row r="130" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="409"/>
+      <c r="A130" s="95"/>
     </row>
     <row r="131" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="409"/>
+      <c r="A131" s="95"/>
     </row>
     <row r="132" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="409"/>
+      <c r="A132" s="95"/>
     </row>
     <row r="133" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="409"/>
+      <c r="A133" s="95"/>
     </row>
     <row r="134" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="409"/>
+      <c r="A134" s="95"/>
     </row>
     <row r="135" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="409"/>
+      <c r="A135" s="95"/>
     </row>
     <row r="136" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="409"/>
+      <c r="A136" s="95"/>
     </row>
     <row r="137" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="409"/>
+      <c r="A137" s="95"/>
     </row>
     <row r="138" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="409"/>
+      <c r="A138" s="95"/>
     </row>
     <row r="139" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="409"/>
+      <c r="A139" s="95"/>
     </row>
     <row r="140" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="409"/>
+      <c r="A140" s="95"/>
     </row>
     <row r="141" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="409"/>
+      <c r="A141" s="95"/>
     </row>
     <row r="142" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="409"/>
+      <c r="A142" s="95"/>
     </row>
     <row r="143" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="409"/>
+      <c r="A143" s="95"/>
     </row>
     <row r="144" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="409"/>
+      <c r="A144" s="95"/>
     </row>
     <row r="145" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="409"/>
+      <c r="A145" s="95"/>
     </row>
     <row r="146" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="409"/>
+      <c r="A146" s="95"/>
     </row>
     <row r="147" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="409"/>
+      <c r="A147" s="95"/>
     </row>
     <row r="148" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="409"/>
+      <c r="A148" s="95"/>
     </row>
     <row r="149" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="409"/>
+      <c r="A149" s="95"/>
     </row>
     <row r="150" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="409"/>
+      <c r="A150" s="95"/>
     </row>
     <row r="151" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="409"/>
+      <c r="A151" s="95"/>
     </row>
     <row r="152" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="409"/>
+      <c r="A152" s="95"/>
     </row>
     <row r="153" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="409"/>
+      <c r="A153" s="95"/>
     </row>
     <row r="154" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="409"/>
+      <c r="A154" s="95"/>
     </row>
     <row r="155" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="409"/>
+      <c r="A155" s="95"/>
     </row>
     <row r="156" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="409"/>
+      <c r="A156" s="95"/>
     </row>
     <row r="157" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="409"/>
+      <c r="A157" s="95"/>
     </row>
     <row r="158" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="409"/>
+      <c r="A158" s="95"/>
     </row>
     <row r="159" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="409"/>
+      <c r="A159" s="95"/>
     </row>
     <row r="160" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="409"/>
+      <c r="A160" s="95"/>
     </row>
     <row r="161" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="409"/>
+      <c r="A161" s="95"/>
     </row>
     <row r="162" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="409"/>
+      <c r="A162" s="95"/>
     </row>
     <row r="163" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="409"/>
+      <c r="A163" s="95"/>
     </row>
     <row r="164" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="409"/>
+      <c r="A164" s="95"/>
     </row>
     <row r="165" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="409"/>
+      <c r="A165" s="95"/>
     </row>
     <row r="166" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="409"/>
+      <c r="A166" s="95"/>
     </row>
     <row r="167" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="409"/>
+      <c r="A167" s="95"/>
     </row>
     <row r="168" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="409"/>
+      <c r="A168" s="95"/>
     </row>
     <row r="169" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="409"/>
+      <c r="A169" s="95"/>
     </row>
     <row r="170" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="409"/>
+      <c r="A170" s="95"/>
     </row>
     <row r="171" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="409"/>
+      <c r="A171" s="95"/>
     </row>
     <row r="172" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="409"/>
+      <c r="A172" s="95"/>
     </row>
     <row r="173" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="409"/>
+      <c r="A173" s="95"/>
     </row>
     <row r="174" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="409"/>
+      <c r="A174" s="95"/>
     </row>
     <row r="175" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="409"/>
+      <c r="A175" s="95"/>
     </row>
     <row r="176" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="409"/>
+      <c r="A176" s="95"/>
     </row>
     <row r="177" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="409"/>
+      <c r="A177" s="95"/>
     </row>
     <row r="178" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="409"/>
+      <c r="A178" s="95"/>
     </row>
     <row r="179" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="409"/>
+      <c r="A179" s="95"/>
     </row>
     <row r="180" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="409"/>
+      <c r="A180" s="95"/>
     </row>
     <row r="181" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="409"/>
+      <c r="A181" s="95"/>
     </row>
     <row r="182" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="409"/>
+      <c r="A182" s="95"/>
     </row>
     <row r="183" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="409"/>
+      <c r="A183" s="95"/>
     </row>
     <row r="184" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="409"/>
+      <c r="A184" s="95"/>
     </row>
     <row r="185" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="409"/>
+      <c r="A185" s="95"/>
     </row>
     <row r="186" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="409"/>
+      <c r="A186" s="95"/>
     </row>
     <row r="187" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="409"/>
+      <c r="A187" s="95"/>
     </row>
     <row r="188" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="409"/>
+      <c r="A188" s="95"/>
     </row>
     <row r="189" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="409"/>
+      <c r="A189" s="95"/>
     </row>
     <row r="190" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="409"/>
+      <c r="A190" s="95"/>
     </row>
     <row r="191" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="409"/>
+      <c r="A191" s="95"/>
     </row>
     <row r="192" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="409"/>
+      <c r="A192" s="95"/>
     </row>
     <row r="193" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="409"/>
+      <c r="A193" s="95"/>
     </row>
     <row r="194" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="409"/>
+      <c r="A194" s="95"/>
     </row>
     <row r="195" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="409"/>
+      <c r="A195" s="95"/>
     </row>
     <row r="196" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="409"/>
+      <c r="A196" s="95"/>
     </row>
     <row r="197" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="409"/>
+      <c r="A197" s="95"/>
     </row>
     <row r="198" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="409"/>
+      <c r="A198" s="95"/>
     </row>
     <row r="199" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="409"/>
+      <c r="A199" s="95"/>
     </row>
     <row r="200" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="409"/>
+      <c r="A200" s="95"/>
     </row>
     <row r="201" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="409"/>
+      <c r="A201" s="95"/>
     </row>
     <row r="202" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="409"/>
+      <c r="A202" s="95"/>
     </row>
     <row r="203" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="409"/>
+      <c r="A203" s="95"/>
     </row>
     <row r="204" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="409"/>
+      <c r="A204" s="95"/>
     </row>
     <row r="205" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="409"/>
+      <c r="A205" s="95"/>
     </row>
     <row r="206" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="409"/>
+      <c r="A206" s="95"/>
     </row>
     <row r="207" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="409"/>
+      <c r="A207" s="95"/>
     </row>
     <row r="208" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="409"/>
+      <c r="A208" s="95"/>
     </row>
     <row r="209" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="409"/>
+      <c r="A209" s="95"/>
     </row>
     <row r="210" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="409"/>
+      <c r="A210" s="95"/>
     </row>
     <row r="211" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="409"/>
+      <c r="A211" s="95"/>
     </row>
     <row r="212" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="409"/>
+      <c r="A212" s="95"/>
     </row>
     <row r="213" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="409"/>
+      <c r="A213" s="95"/>
     </row>
     <row r="214" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="409"/>
+      <c r="A214" s="95"/>
     </row>
     <row r="215" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="409"/>
+      <c r="A215" s="95"/>
     </row>
     <row r="216" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="409"/>
+      <c r="A216" s="95"/>
     </row>
     <row r="217" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="409"/>
+      <c r="A217" s="95"/>
     </row>
     <row r="218" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="409"/>
+      <c r="A218" s="95"/>
     </row>
     <row r="219" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="409"/>
+      <c r="A219" s="95"/>
     </row>
     <row r="220" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="409"/>
+      <c r="A220" s="95"/>
     </row>
     <row r="221" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="409"/>
+      <c r="A221" s="95"/>
     </row>
     <row r="222" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="409"/>
+      <c r="A222" s="95"/>
     </row>
     <row r="223" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="409"/>
+      <c r="A223" s="95"/>
     </row>
     <row r="224" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="409"/>
+      <c r="A224" s="95"/>
     </row>
     <row r="225" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="409"/>
+      <c r="A225" s="95"/>
     </row>
     <row r="226" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="409"/>
+      <c r="A226" s="95"/>
     </row>
     <row r="227" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="409"/>
+      <c r="A227" s="95"/>
     </row>
     <row r="228" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="409"/>
+      <c r="A228" s="95"/>
     </row>
     <row r="229" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="409"/>
+      <c r="A229" s="95"/>
     </row>
     <row r="230" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="409"/>
+      <c r="A230" s="95"/>
     </row>
     <row r="231" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="409"/>
+      <c r="A231" s="95"/>
     </row>
     <row r="232" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="409"/>
+      <c r="A232" s="95"/>
     </row>
     <row r="233" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="409"/>
+      <c r="A233" s="95"/>
     </row>
     <row r="234" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="409"/>
+      <c r="A234" s="95"/>
     </row>
     <row r="235" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="409"/>
+      <c r="A235" s="95"/>
     </row>
     <row r="236" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="409"/>
+      <c r="A236" s="95"/>
     </row>
     <row r="237" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="409"/>
+      <c r="A237" s="95"/>
     </row>
     <row r="238" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="409"/>
+      <c r="A238" s="95"/>
     </row>
     <row r="239" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="409"/>
+      <c r="A239" s="95"/>
     </row>
     <row r="240" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="409"/>
+      <c r="A240" s="95"/>
     </row>
     <row r="241" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="409"/>
+      <c r="A241" s="95"/>
     </row>
     <row r="242" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="409"/>
+      <c r="A242" s="95"/>
     </row>
     <row r="243" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="409"/>
+      <c r="A243" s="95"/>
     </row>
     <row r="244" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="409"/>
+      <c r="A244" s="95"/>
     </row>
     <row r="245" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="409"/>
+      <c r="A245" s="95"/>
     </row>
     <row r="246" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="409"/>
+      <c r="A246" s="95"/>
     </row>
     <row r="247" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="409"/>
+      <c r="A247" s="95"/>
     </row>
     <row r="248" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="409"/>
+      <c r="A248" s="95"/>
     </row>
     <row r="249" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="409"/>
+      <c r="A249" s="95"/>
     </row>
     <row r="250" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="409"/>
+      <c r="A250" s="95"/>
     </row>
     <row r="251" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="409"/>
+      <c r="A251" s="95"/>
     </row>
     <row r="252" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="409"/>
+      <c r="A252" s="95"/>
     </row>
     <row r="253" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="409"/>
+      <c r="A253" s="95"/>
     </row>
     <row r="254" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A254" s="409"/>
+      <c r="A254" s="95"/>
     </row>
     <row r="255" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="409"/>
+      <c r="A255" s="95"/>
     </row>
     <row r="256" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A256" s="409"/>
+      <c r="A256" s="95"/>
     </row>
     <row r="257" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="409"/>
+      <c r="A257" s="95"/>
     </row>
     <row r="258" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="409"/>
+      <c r="A258" s="95"/>
     </row>
     <row r="259" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="409"/>
+      <c r="A259" s="95"/>
     </row>
     <row r="260" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="409"/>
+      <c r="A260" s="95"/>
     </row>
     <row r="261" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="409"/>
+      <c r="A261" s="95"/>
     </row>
     <row r="262" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="409"/>
+      <c r="A262" s="95"/>
     </row>
     <row r="263" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="409"/>
+      <c r="A263" s="95"/>
     </row>
     <row r="264" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A264" s="409"/>
+      <c r="A264" s="95"/>
     </row>
     <row r="265" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="409"/>
+      <c r="A265" s="95"/>
     </row>
     <row r="266" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="409"/>
+      <c r="A266" s="95"/>
     </row>
     <row r="267" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A267" s="409"/>
+      <c r="A267" s="95"/>
     </row>
     <row r="268" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A268" s="409"/>
+      <c r="A268" s="95"/>
     </row>
     <row r="269" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="409"/>
+      <c r="A269" s="95"/>
     </row>
     <row r="270" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="409"/>
+      <c r="A270" s="95"/>
     </row>
     <row r="271" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="409"/>
+      <c r="A271" s="95"/>
     </row>
     <row r="272" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="409"/>
+      <c r="A272" s="95"/>
     </row>
     <row r="273" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="409"/>
+      <c r="A273" s="95"/>
     </row>
     <row r="274" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="409"/>
+      <c r="A274" s="95"/>
     </row>
     <row r="275" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="409"/>
+      <c r="A275" s="95"/>
     </row>
     <row r="276" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="409"/>
+      <c r="A276" s="95"/>
     </row>
     <row r="277" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="409"/>
+      <c r="A277" s="95"/>
     </row>
     <row r="278" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="409"/>
+      <c r="A278" s="95"/>
     </row>
     <row r="279" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="409"/>
+      <c r="A279" s="95"/>
     </row>
     <row r="280" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="409"/>
+      <c r="A280" s="95"/>
     </row>
     <row r="281" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="409"/>
+      <c r="A281" s="95"/>
     </row>
     <row r="282" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="409"/>
+      <c r="A282" s="95"/>
     </row>
     <row r="283" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="409"/>
+      <c r="A283" s="95"/>
     </row>
     <row r="284" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="409"/>
+      <c r="A284" s="95"/>
     </row>
     <row r="285" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="409"/>
+      <c r="A285" s="95"/>
     </row>
     <row r="286" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="409"/>
+      <c r="A286" s="95"/>
     </row>
     <row r="287" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="409"/>
+      <c r="A287" s="95"/>
     </row>
     <row r="288" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="409"/>
+      <c r="A288" s="95"/>
     </row>
     <row r="289" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="409"/>
+      <c r="A289" s="95"/>
     </row>
     <row r="290" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="409"/>
+      <c r="A290" s="95"/>
     </row>
     <row r="291" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="409"/>
+      <c r="A291" s="95"/>
     </row>
     <row r="292" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="409"/>
+      <c r="A292" s="95"/>
     </row>
     <row r="293" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="409"/>
+      <c r="A293" s="95"/>
     </row>
     <row r="294" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="409"/>
+      <c r="A294" s="95"/>
     </row>
     <row r="295" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="409"/>
+      <c r="A295" s="95"/>
     </row>
     <row r="296" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="409"/>
+      <c r="A296" s="95"/>
     </row>
     <row r="297" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="409"/>
+      <c r="A297" s="95"/>
     </row>
     <row r="298" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="409"/>
+      <c r="A298" s="95"/>
     </row>
     <row r="299" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="409"/>
+      <c r="A299" s="95"/>
     </row>
     <row r="300" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="409"/>
+      <c r="A300" s="95"/>
     </row>
     <row r="301" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="409"/>
+      <c r="A301" s="95"/>
     </row>
     <row r="302" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="409"/>
+      <c r="A302" s="95"/>
     </row>
     <row r="303" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="409"/>
+      <c r="A303" s="95"/>
     </row>
     <row r="304" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="409"/>
+      <c r="A304" s="95"/>
     </row>
     <row r="305" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="409"/>
+      <c r="A305" s="95"/>
     </row>
     <row r="306" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="409"/>
+      <c r="A306" s="95"/>
     </row>
     <row r="307" spans="1:1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="409"/>
+      <c r="A307" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D32:J32"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D14:J14"/>
@@ -10769,15 +10777,6 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D24:J24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0"/>
@@ -10799,824 +10798,824 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="7.85546875" style="407" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="407"/>
+    <col min="1" max="12" width="7.85546875" style="93" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="472" t="s">
-        <v>951</v>
-      </c>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="471"/>
-      <c r="E1" s="471"/>
-      <c r="F1" s="471"/>
-      <c r="G1" s="471"/>
-      <c r="H1" s="471"/>
-      <c r="I1" s="471"/>
-      <c r="J1" s="471"/>
-      <c r="K1" s="471"/>
-      <c r="L1" s="470"/>
+      <c r="A1" s="483" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
+      <c r="F1" s="484"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="484"/>
+      <c r="K1" s="484"/>
+      <c r="L1" s="485"/>
     </row>
     <row r="2" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="469"/>
-      <c r="B3" s="468"/>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="468"/>
-      <c r="H3" s="468"/>
-      <c r="I3" s="468"/>
-      <c r="J3" s="468"/>
-      <c r="K3" s="468"/>
-      <c r="L3" s="467"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="466"/>
-      <c r="B4" s="464"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
-      <c r="F4" s="464"/>
-      <c r="G4" s="464"/>
-      <c r="H4" s="464"/>
-      <c r="I4" s="464"/>
-      <c r="J4" s="464"/>
-      <c r="K4" s="464"/>
-      <c r="L4" s="463"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="465"/>
-      <c r="B5" s="464"/>
-      <c r="C5" s="464"/>
-      <c r="D5" s="464"/>
-      <c r="E5" s="464"/>
-      <c r="F5" s="464"/>
-      <c r="G5" s="464"/>
-      <c r="H5" s="464"/>
-      <c r="I5" s="464"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="463"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="466"/>
-      <c r="B6" s="464"/>
-      <c r="C6" s="464"/>
-      <c r="D6" s="464"/>
-      <c r="E6" s="464"/>
-      <c r="F6" s="464"/>
-      <c r="G6" s="464"/>
-      <c r="H6" s="464"/>
-      <c r="I6" s="464"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="464"/>
-      <c r="L6" s="463"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="466"/>
-      <c r="B7" s="464"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="464"/>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
-      <c r="G7" s="464"/>
-      <c r="H7" s="464"/>
-      <c r="I7" s="464"/>
-      <c r="J7" s="464"/>
-      <c r="K7" s="464"/>
-      <c r="L7" s="463"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="465"/>
-      <c r="B8" s="464"/>
-      <c r="C8" s="464"/>
-      <c r="D8" s="464"/>
-      <c r="E8" s="464"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="464"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="464"/>
-      <c r="K8" s="464"/>
-      <c r="L8" s="463"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="465"/>
-      <c r="B9" s="464"/>
-      <c r="C9" s="464"/>
-      <c r="D9" s="464"/>
-      <c r="E9" s="464"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="464"/>
-      <c r="H9" s="464"/>
-      <c r="I9" s="464"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="464"/>
-      <c r="L9" s="463"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="465"/>
-      <c r="B10" s="464"/>
-      <c r="C10" s="464"/>
-      <c r="D10" s="464"/>
-      <c r="E10" s="464"/>
-      <c r="F10" s="464"/>
-      <c r="G10" s="464"/>
-      <c r="H10" s="464"/>
-      <c r="I10" s="464"/>
-      <c r="J10" s="464"/>
-      <c r="K10" s="464"/>
-      <c r="L10" s="463"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="132"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="466"/>
-      <c r="B11" s="464"/>
-      <c r="C11" s="464"/>
-      <c r="D11" s="464"/>
-      <c r="E11" s="464"/>
-      <c r="F11" s="464"/>
-      <c r="G11" s="464"/>
-      <c r="H11" s="464"/>
-      <c r="I11" s="464"/>
-      <c r="J11" s="464"/>
-      <c r="K11" s="464"/>
-      <c r="L11" s="463"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="465"/>
-      <c r="B12" s="464"/>
-      <c r="C12" s="464"/>
-      <c r="D12" s="464"/>
-      <c r="E12" s="464"/>
-      <c r="F12" s="464"/>
-      <c r="G12" s="464"/>
-      <c r="H12" s="464"/>
-      <c r="I12" s="464"/>
-      <c r="J12" s="464"/>
-      <c r="K12" s="464"/>
-      <c r="L12" s="463"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="132"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="465"/>
-      <c r="B13" s="464"/>
-      <c r="C13" s="464"/>
-      <c r="D13" s="464"/>
-      <c r="E13" s="464"/>
-      <c r="F13" s="464"/>
-      <c r="G13" s="464"/>
-      <c r="H13" s="464"/>
-      <c r="I13" s="464"/>
-      <c r="J13" s="464"/>
-      <c r="K13" s="464"/>
-      <c r="L13" s="463"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="132"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="466"/>
-      <c r="B14" s="464"/>
-      <c r="C14" s="464"/>
-      <c r="D14" s="464"/>
-      <c r="E14" s="464"/>
-      <c r="F14" s="464"/>
-      <c r="G14" s="464"/>
-      <c r="H14" s="464"/>
-      <c r="I14" s="464"/>
-      <c r="J14" s="464"/>
-      <c r="K14" s="464"/>
-      <c r="L14" s="463"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="132"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="465"/>
-      <c r="B15" s="464"/>
-      <c r="C15" s="464"/>
-      <c r="D15" s="464"/>
-      <c r="E15" s="464"/>
-      <c r="F15" s="464"/>
-      <c r="G15" s="464"/>
-      <c r="H15" s="464"/>
-      <c r="I15" s="464"/>
-      <c r="J15" s="464"/>
-      <c r="K15" s="464"/>
-      <c r="L15" s="463"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="465"/>
-      <c r="B16" s="464"/>
-      <c r="C16" s="464"/>
-      <c r="D16" s="464"/>
-      <c r="E16" s="464"/>
-      <c r="F16" s="464"/>
-      <c r="G16" s="464"/>
-      <c r="H16" s="464"/>
-      <c r="I16" s="464"/>
-      <c r="J16" s="464"/>
-      <c r="K16" s="464"/>
-      <c r="L16" s="463"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="132"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="466"/>
-      <c r="B17" s="464"/>
-      <c r="C17" s="464"/>
-      <c r="D17" s="464"/>
-      <c r="E17" s="464"/>
-      <c r="F17" s="464"/>
-      <c r="G17" s="464"/>
-      <c r="H17" s="464"/>
-      <c r="I17" s="464"/>
-      <c r="J17" s="464"/>
-      <c r="K17" s="464"/>
-      <c r="L17" s="463"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="132"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="465"/>
-      <c r="B18" s="464"/>
-      <c r="C18" s="464"/>
-      <c r="D18" s="464"/>
-      <c r="E18" s="464"/>
-      <c r="F18" s="464"/>
-      <c r="G18" s="464"/>
-      <c r="H18" s="464"/>
-      <c r="I18" s="464"/>
-      <c r="J18" s="464"/>
-      <c r="K18" s="464"/>
-      <c r="L18" s="463"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="132"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="465"/>
-      <c r="B19" s="464"/>
-      <c r="C19" s="464"/>
-      <c r="D19" s="464"/>
-      <c r="E19" s="464"/>
-      <c r="F19" s="464"/>
-      <c r="G19" s="464"/>
-      <c r="H19" s="464"/>
-      <c r="I19" s="464"/>
-      <c r="J19" s="464"/>
-      <c r="K19" s="464"/>
-      <c r="L19" s="463"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="132"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="466"/>
-      <c r="B20" s="464"/>
-      <c r="C20" s="464"/>
-      <c r="D20" s="464"/>
-      <c r="E20" s="464"/>
-      <c r="F20" s="464"/>
-      <c r="G20" s="464"/>
-      <c r="H20" s="464"/>
-      <c r="I20" s="464"/>
-      <c r="J20" s="464"/>
-      <c r="K20" s="464"/>
-      <c r="L20" s="463"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="465"/>
-      <c r="B21" s="464"/>
-      <c r="C21" s="464"/>
-      <c r="D21" s="464"/>
-      <c r="E21" s="464"/>
-      <c r="F21" s="464"/>
-      <c r="G21" s="464"/>
-      <c r="H21" s="464"/>
-      <c r="I21" s="464"/>
-      <c r="J21" s="464"/>
-      <c r="K21" s="464"/>
-      <c r="L21" s="463"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="132"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="465"/>
-      <c r="B22" s="464"/>
-      <c r="C22" s="464"/>
-      <c r="D22" s="464"/>
-      <c r="E22" s="464"/>
-      <c r="F22" s="464"/>
-      <c r="G22" s="464"/>
-      <c r="H22" s="464"/>
-      <c r="I22" s="464"/>
-      <c r="J22" s="464"/>
-      <c r="K22" s="464"/>
-      <c r="L22" s="463"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="132"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="466"/>
-      <c r="B23" s="464"/>
-      <c r="C23" s="464"/>
-      <c r="D23" s="464"/>
-      <c r="E23" s="464"/>
-      <c r="F23" s="464"/>
-      <c r="G23" s="464"/>
-      <c r="H23" s="464"/>
-      <c r="I23" s="464"/>
-      <c r="J23" s="464"/>
-      <c r="K23" s="464"/>
-      <c r="L23" s="463"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="132"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="465"/>
-      <c r="B24" s="464"/>
-      <c r="C24" s="464"/>
-      <c r="D24" s="464"/>
-      <c r="E24" s="464"/>
-      <c r="F24" s="464"/>
-      <c r="G24" s="464"/>
-      <c r="H24" s="464"/>
-      <c r="I24" s="464"/>
-      <c r="J24" s="464"/>
-      <c r="K24" s="464"/>
-      <c r="L24" s="463"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="132"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="465"/>
-      <c r="B25" s="464"/>
-      <c r="C25" s="464"/>
-      <c r="D25" s="464"/>
-      <c r="E25" s="464"/>
-      <c r="F25" s="464"/>
-      <c r="G25" s="464"/>
-      <c r="H25" s="464"/>
-      <c r="I25" s="464"/>
-      <c r="J25" s="464"/>
-      <c r="K25" s="464"/>
-      <c r="L25" s="463"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="132"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="466"/>
-      <c r="B26" s="464"/>
-      <c r="C26" s="464"/>
-      <c r="D26" s="464"/>
-      <c r="E26" s="464"/>
-      <c r="F26" s="464"/>
-      <c r="G26" s="464"/>
-      <c r="H26" s="464"/>
-      <c r="I26" s="464"/>
-      <c r="J26" s="464"/>
-      <c r="K26" s="464"/>
-      <c r="L26" s="463"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="132"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="465"/>
-      <c r="B27" s="464"/>
-      <c r="C27" s="464"/>
-      <c r="D27" s="464"/>
-      <c r="E27" s="464"/>
-      <c r="F27" s="464"/>
-      <c r="G27" s="464"/>
-      <c r="H27" s="464"/>
-      <c r="I27" s="464"/>
-      <c r="J27" s="464"/>
-      <c r="K27" s="464"/>
-      <c r="L27" s="463"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="132"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="465"/>
-      <c r="B28" s="464"/>
-      <c r="C28" s="464"/>
-      <c r="D28" s="464"/>
-      <c r="E28" s="464"/>
-      <c r="F28" s="464"/>
-      <c r="G28" s="464"/>
-      <c r="H28" s="464"/>
-      <c r="I28" s="464"/>
-      <c r="J28" s="464"/>
-      <c r="K28" s="464"/>
-      <c r="L28" s="463"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="132"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="466"/>
-      <c r="B29" s="464"/>
-      <c r="C29" s="464"/>
-      <c r="D29" s="464"/>
-      <c r="E29" s="464"/>
-      <c r="F29" s="464"/>
-      <c r="G29" s="464"/>
-      <c r="H29" s="464"/>
-      <c r="I29" s="464"/>
-      <c r="J29" s="464"/>
-      <c r="K29" s="464"/>
-      <c r="L29" s="463"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="132"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="465"/>
-      <c r="B30" s="464"/>
-      <c r="C30" s="464"/>
-      <c r="D30" s="464"/>
-      <c r="E30" s="464"/>
-      <c r="F30" s="464"/>
-      <c r="G30" s="464"/>
-      <c r="H30" s="464"/>
-      <c r="I30" s="464"/>
-      <c r="J30" s="464"/>
-      <c r="K30" s="464"/>
-      <c r="L30" s="463"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="132"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="465"/>
-      <c r="B31" s="464"/>
-      <c r="C31" s="464"/>
-      <c r="D31" s="464"/>
-      <c r="E31" s="464"/>
-      <c r="F31" s="464"/>
-      <c r="G31" s="464"/>
-      <c r="H31" s="464"/>
-      <c r="I31" s="464"/>
-      <c r="J31" s="464"/>
-      <c r="K31" s="464"/>
-      <c r="L31" s="463"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="132"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="466"/>
-      <c r="B32" s="464"/>
-      <c r="C32" s="464"/>
-      <c r="D32" s="464"/>
-      <c r="E32" s="464"/>
-      <c r="F32" s="464"/>
-      <c r="G32" s="464"/>
-      <c r="H32" s="464"/>
-      <c r="I32" s="464"/>
-      <c r="J32" s="464"/>
-      <c r="K32" s="464"/>
-      <c r="L32" s="463"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="132"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="465"/>
-      <c r="B33" s="464"/>
-      <c r="C33" s="464"/>
-      <c r="D33" s="464"/>
-      <c r="E33" s="464"/>
-      <c r="F33" s="464"/>
-      <c r="G33" s="464"/>
-      <c r="H33" s="464"/>
-      <c r="I33" s="464"/>
-      <c r="J33" s="464"/>
-      <c r="K33" s="464"/>
-      <c r="L33" s="463"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="132"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="465"/>
-      <c r="B34" s="464"/>
-      <c r="C34" s="464"/>
-      <c r="D34" s="464"/>
-      <c r="E34" s="464"/>
-      <c r="F34" s="464"/>
-      <c r="G34" s="464"/>
-      <c r="H34" s="464"/>
-      <c r="I34" s="464"/>
-      <c r="J34" s="464"/>
-      <c r="K34" s="464"/>
-      <c r="L34" s="463"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="132"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="466"/>
-      <c r="B35" s="464"/>
-      <c r="C35" s="464"/>
-      <c r="D35" s="464"/>
-      <c r="E35" s="464"/>
-      <c r="F35" s="464"/>
-      <c r="G35" s="464"/>
-      <c r="H35" s="464"/>
-      <c r="I35" s="464"/>
-      <c r="J35" s="464"/>
-      <c r="K35" s="464"/>
-      <c r="L35" s="463"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="465"/>
-      <c r="B36" s="464"/>
-      <c r="C36" s="464"/>
-      <c r="D36" s="464"/>
-      <c r="E36" s="464"/>
-      <c r="F36" s="464"/>
-      <c r="G36" s="464"/>
-      <c r="H36" s="464"/>
-      <c r="I36" s="464"/>
-      <c r="J36" s="464"/>
-      <c r="K36" s="464"/>
-      <c r="L36" s="463"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="132"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="465"/>
-      <c r="B37" s="464"/>
-      <c r="C37" s="464"/>
-      <c r="D37" s="464"/>
-      <c r="E37" s="464"/>
-      <c r="F37" s="464"/>
-      <c r="G37" s="464"/>
-      <c r="H37" s="464"/>
-      <c r="I37" s="464"/>
-      <c r="J37" s="464"/>
-      <c r="K37" s="464"/>
-      <c r="L37" s="463"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="132"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="465"/>
-      <c r="B38" s="464"/>
-      <c r="C38" s="464"/>
-      <c r="D38" s="464"/>
-      <c r="E38" s="464"/>
-      <c r="F38" s="464"/>
-      <c r="G38" s="464"/>
-      <c r="H38" s="464"/>
-      <c r="I38" s="464"/>
-      <c r="J38" s="464"/>
-      <c r="K38" s="464"/>
-      <c r="L38" s="463"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="132"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="465"/>
-      <c r="B39" s="464"/>
-      <c r="C39" s="464"/>
-      <c r="D39" s="464"/>
-      <c r="E39" s="464"/>
-      <c r="F39" s="464"/>
-      <c r="G39" s="464"/>
-      <c r="H39" s="464"/>
-      <c r="I39" s="464"/>
-      <c r="J39" s="464"/>
-      <c r="K39" s="464"/>
-      <c r="L39" s="463"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="132"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="465"/>
-      <c r="B40" s="464"/>
-      <c r="C40" s="464"/>
-      <c r="D40" s="464"/>
-      <c r="E40" s="464"/>
-      <c r="F40" s="464"/>
-      <c r="G40" s="464"/>
-      <c r="H40" s="464"/>
-      <c r="I40" s="464"/>
-      <c r="J40" s="464"/>
-      <c r="K40" s="464"/>
-      <c r="L40" s="463"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="132"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="465"/>
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
-      <c r="D41" s="464"/>
-      <c r="E41" s="464"/>
-      <c r="F41" s="464"/>
-      <c r="G41" s="464"/>
-      <c r="H41" s="464"/>
-      <c r="I41" s="464"/>
-      <c r="J41" s="464"/>
-      <c r="K41" s="464"/>
-      <c r="L41" s="463"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="132"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
-      <c r="B42" s="464"/>
-      <c r="C42" s="464"/>
-      <c r="D42" s="464"/>
-      <c r="E42" s="464"/>
-      <c r="F42" s="464"/>
-      <c r="G42" s="464"/>
-      <c r="H42" s="464"/>
-      <c r="I42" s="464"/>
-      <c r="J42" s="464"/>
-      <c r="K42" s="464"/>
-      <c r="L42" s="463"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="132"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="465"/>
-      <c r="B43" s="464"/>
-      <c r="C43" s="464"/>
-      <c r="D43" s="464"/>
-      <c r="E43" s="464"/>
-      <c r="F43" s="464"/>
-      <c r="G43" s="464"/>
-      <c r="H43" s="464"/>
-      <c r="I43" s="464"/>
-      <c r="J43" s="464"/>
-      <c r="K43" s="464"/>
-      <c r="L43" s="463"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="132"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="465"/>
-      <c r="B44" s="464"/>
-      <c r="C44" s="464"/>
-      <c r="D44" s="464"/>
-      <c r="E44" s="464"/>
-      <c r="F44" s="464"/>
-      <c r="G44" s="464"/>
-      <c r="H44" s="464"/>
-      <c r="I44" s="464"/>
-      <c r="J44" s="464"/>
-      <c r="K44" s="464"/>
-      <c r="L44" s="463"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="132"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="465"/>
-      <c r="B45" s="464"/>
-      <c r="C45" s="464"/>
-      <c r="D45" s="464"/>
-      <c r="E45" s="464"/>
-      <c r="F45" s="464"/>
-      <c r="G45" s="464"/>
-      <c r="H45" s="464"/>
-      <c r="I45" s="464"/>
-      <c r="J45" s="464"/>
-      <c r="K45" s="464"/>
-      <c r="L45" s="463"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="132"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="465"/>
-      <c r="B46" s="464"/>
-      <c r="C46" s="464"/>
-      <c r="D46" s="464"/>
-      <c r="E46" s="464"/>
-      <c r="F46" s="464"/>
-      <c r="G46" s="464"/>
-      <c r="H46" s="464"/>
-      <c r="I46" s="464"/>
-      <c r="J46" s="464"/>
-      <c r="K46" s="464"/>
-      <c r="L46" s="463"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="132"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="465"/>
-      <c r="B47" s="464"/>
-      <c r="C47" s="464"/>
-      <c r="D47" s="464"/>
-      <c r="E47" s="464"/>
-      <c r="F47" s="464"/>
-      <c r="G47" s="464"/>
-      <c r="H47" s="464"/>
-      <c r="I47" s="464"/>
-      <c r="J47" s="464"/>
-      <c r="K47" s="464"/>
-      <c r="L47" s="463"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="132"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="465"/>
-      <c r="B48" s="464"/>
-      <c r="C48" s="464"/>
-      <c r="D48" s="464"/>
-      <c r="E48" s="464"/>
-      <c r="F48" s="464"/>
-      <c r="G48" s="464"/>
-      <c r="H48" s="464"/>
-      <c r="I48" s="464"/>
-      <c r="J48" s="464"/>
-      <c r="K48" s="464"/>
-      <c r="L48" s="463"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="132"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="465"/>
-      <c r="B49" s="464"/>
-      <c r="C49" s="464"/>
-      <c r="D49" s="464"/>
-      <c r="E49" s="464"/>
-      <c r="F49" s="464"/>
-      <c r="G49" s="464"/>
-      <c r="H49" s="464"/>
-      <c r="I49" s="464"/>
-      <c r="J49" s="464"/>
-      <c r="K49" s="464"/>
-      <c r="L49" s="463"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="132"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="465"/>
-      <c r="B50" s="464"/>
-      <c r="C50" s="464"/>
-      <c r="D50" s="464"/>
-      <c r="E50" s="464"/>
-      <c r="F50" s="464"/>
-      <c r="G50" s="464"/>
-      <c r="H50" s="464"/>
-      <c r="I50" s="464"/>
-      <c r="J50" s="464"/>
-      <c r="K50" s="464"/>
-      <c r="L50" s="463"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="132"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="465"/>
-      <c r="B51" s="464"/>
-      <c r="C51" s="464"/>
-      <c r="D51" s="464"/>
-      <c r="E51" s="464"/>
-      <c r="F51" s="464"/>
-      <c r="G51" s="464"/>
-      <c r="H51" s="464"/>
-      <c r="I51" s="464"/>
-      <c r="J51" s="464"/>
-      <c r="K51" s="464"/>
-      <c r="L51" s="463"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="132"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="465"/>
-      <c r="B52" s="464"/>
-      <c r="C52" s="464"/>
-      <c r="D52" s="464"/>
-      <c r="E52" s="464"/>
-      <c r="F52" s="464"/>
-      <c r="G52" s="464"/>
-      <c r="H52" s="464"/>
-      <c r="I52" s="464"/>
-      <c r="J52" s="464"/>
-      <c r="K52" s="464"/>
-      <c r="L52" s="463"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="132"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="465"/>
-      <c r="B53" s="464"/>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="464"/>
-      <c r="H53" s="464"/>
-      <c r="I53" s="464"/>
-      <c r="J53" s="464"/>
-      <c r="K53" s="464"/>
-      <c r="L53" s="463"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="132"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="465"/>
-      <c r="B54" s="464"/>
-      <c r="C54" s="464"/>
-      <c r="D54" s="464"/>
-      <c r="E54" s="464"/>
-      <c r="F54" s="464"/>
-      <c r="G54" s="464"/>
-      <c r="H54" s="464"/>
-      <c r="I54" s="464"/>
-      <c r="J54" s="464"/>
-      <c r="K54" s="464"/>
-      <c r="L54" s="463"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="132"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="465"/>
-      <c r="B55" s="464"/>
-      <c r="C55" s="464"/>
-      <c r="D55" s="464"/>
-      <c r="E55" s="464"/>
-      <c r="F55" s="464"/>
-      <c r="G55" s="464"/>
-      <c r="H55" s="464"/>
-      <c r="I55" s="464"/>
-      <c r="J55" s="464"/>
-      <c r="K55" s="464"/>
-      <c r="L55" s="463"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="132"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="465"/>
-      <c r="B56" s="464"/>
-      <c r="C56" s="464"/>
-      <c r="D56" s="464"/>
-      <c r="E56" s="464"/>
-      <c r="F56" s="464"/>
-      <c r="G56" s="464"/>
-      <c r="H56" s="464"/>
-      <c r="I56" s="464"/>
-      <c r="J56" s="464"/>
-      <c r="K56" s="464"/>
-      <c r="L56" s="463"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="132"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="465"/>
-      <c r="B57" s="464"/>
-      <c r="C57" s="464"/>
-      <c r="D57" s="464"/>
-      <c r="E57" s="464"/>
-      <c r="F57" s="464"/>
-      <c r="G57" s="464"/>
-      <c r="H57" s="464"/>
-      <c r="I57" s="464"/>
-      <c r="J57" s="464"/>
-      <c r="K57" s="464"/>
-      <c r="L57" s="463"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="132"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="465"/>
-      <c r="B58" s="464"/>
-      <c r="C58" s="464"/>
-      <c r="D58" s="464"/>
-      <c r="E58" s="464"/>
-      <c r="F58" s="464"/>
-      <c r="G58" s="464"/>
-      <c r="H58" s="464"/>
-      <c r="I58" s="464"/>
-      <c r="J58" s="464"/>
-      <c r="K58" s="464"/>
-      <c r="L58" s="463"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="132"/>
     </row>
     <row r="59" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="462"/>
-      <c r="B59" s="461"/>
-      <c r="C59" s="461"/>
-      <c r="D59" s="461"/>
-      <c r="E59" s="461"/>
-      <c r="F59" s="461"/>
-      <c r="G59" s="461"/>
-      <c r="H59" s="461"/>
-      <c r="I59" s="461"/>
-      <c r="J59" s="461"/>
-      <c r="K59" s="461"/>
-      <c r="L59" s="460"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="129"/>
     </row>
     <row r="60" spans="1:12" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Fitness LIGNE 1.xlsx
+++ b/Fitness LIGNE 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\fiche_produit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C5481-0CCB-40DD-88EE-BE0635FB2F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B14FB6-446A-46C8-BA7A-ABDE7C09146D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche technique" sheetId="28" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="986">
   <si>
     <t>ТЕХ.НАДЗОР</t>
   </si>
@@ -3029,6 +3029,96 @@
   <si>
     <t>0</t>
   </si>
+  <si>
+    <t>Ex-works price negotiated in the currency of payment</t>
+  </si>
+  <si>
+    <t>Site delivered price negotiated in the currency of payment</t>
+  </si>
+  <si>
+    <t>Payment method</t>
+  </si>
+  <si>
+    <t>Price validity date</t>
+  </si>
+  <si>
+    <t>Trading date</t>
+  </si>
+  <si>
+    <t>Conditioning</t>
+  </si>
+  <si>
+    <t>Manufacturing time</t>
+  </si>
+  <si>
+    <t>Brief assessment of the product</t>
+  </si>
+  <si>
+    <t>Referenced sites (optional)</t>
+  </si>
+  <si>
+    <t>Assessment of the manufacturer's means of production</t>
+  </si>
+  <si>
+    <t>Geographic area covered by the manufacturer or supplier</t>
+  </si>
+  <si>
+    <t>The main contact</t>
+  </si>
+  <si>
+    <t>Language of negotiation</t>
+  </si>
+  <si>
+    <t>Name of provider</t>
+  </si>
+  <si>
+    <t>Place of manufacture</t>
+  </si>
+  <si>
+    <t>Tedarikçinin adı</t>
+  </si>
+  <si>
+    <t>Üretim yeri</t>
+  </si>
+  <si>
+    <t>Ödeme para biriminde müzakere edilen fabrika çıkış fiyatı</t>
+  </si>
+  <si>
+    <t>Ödeme para biriminde anlaşılan site teslim fiyatı</t>
+  </si>
+  <si>
+    <t>Ödeme şekli</t>
+  </si>
+  <si>
+    <t>Fiyat geçerlilik tarihi</t>
+  </si>
+  <si>
+    <t>işlem tarihi</t>
+  </si>
+  <si>
+    <t>koşullandırma</t>
+  </si>
+  <si>
+    <t>üretim süresi</t>
+  </si>
+  <si>
+    <t>Ürünün kısa değerlendirmesi</t>
+  </si>
+  <si>
+    <t>Başvurulan siteler (isteğe bağlı)</t>
+  </si>
+  <si>
+    <t>Üreticinin üretim araçlarının değerlendirilmesi</t>
+  </si>
+  <si>
+    <t>Üretici veya tedarikçi tarafından kapsanan coğrafi alan</t>
+  </si>
+  <si>
+    <t>ana iletişim</t>
+  </si>
+  <si>
+    <t>müzakere dili</t>
+  </si>
 </sst>
 </file>
 
@@ -3039,7 +3129,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -3313,12 +3403,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="MS Sans Serif"/>
@@ -3343,11 +3427,6 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -4705,7 +4784,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="487">
+  <cellXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4913,20 +4992,14 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="88" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="88" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="11"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4939,46 +5012,43 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="93" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5019,64 +5089,984 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5086,84 +6076,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5205,970 +6117,128 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -6197,45 +6267,6 @@
     <cellStyle name="Pourcentage 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6410,6 +6441,45 @@
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6680,12 +6750,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="E1:H6" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="E1:H6" totalsRowShown="0" headerRowDxfId="29">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Standards qualité" dataDxfId="3" dataCellStyle="Normal 8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Signification" dataDxfId="2" dataCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Traduction russe" dataDxfId="1" dataCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Colonne1" dataDxfId="0" dataCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Standards qualité" dataDxfId="28" dataCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Signification" dataDxfId="27" dataCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Traduction russe" dataDxfId="26" dataCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Colonne1" dataDxfId="25" dataCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7041,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:Y8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7079,77 +7149,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="44" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219"/>
-      <c r="B1" s="220"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="228" t="s">
+      <c r="A1" s="376"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="385" t="s">
         <v>901</v>
       </c>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="231" t="s">
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="386"/>
+      <c r="S1" s="386"/>
+      <c r="T1" s="386"/>
+      <c r="U1" s="386"/>
+      <c r="V1" s="386"/>
+      <c r="W1" s="386"/>
+      <c r="X1" s="386"/>
+      <c r="Y1" s="387"/>
+      <c r="Z1" s="388" t="s">
         <v>883</v>
       </c>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="230"/>
+      <c r="AA1" s="386"/>
+      <c r="AB1" s="386"/>
+      <c r="AC1" s="386"/>
+      <c r="AD1" s="386"/>
+      <c r="AE1" s="386"/>
+      <c r="AF1" s="386"/>
+      <c r="AG1" s="386"/>
+      <c r="AH1" s="386"/>
+      <c r="AI1" s="386"/>
+      <c r="AJ1" s="387"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="232" t="s">
+      <c r="A2" s="379"/>
+      <c r="B2" s="380"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="235" t="s">
+      <c r="E2" s="390"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="392" t="s">
         <v>926</v>
       </c>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="237"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="393"/>
+      <c r="O2" s="393"/>
+      <c r="P2" s="393"/>
+      <c r="Q2" s="393"/>
+      <c r="R2" s="393"/>
+      <c r="S2" s="393"/>
+      <c r="T2" s="393"/>
+      <c r="U2" s="393"/>
+      <c r="V2" s="393"/>
+      <c r="W2" s="393"/>
+      <c r="X2" s="393"/>
+      <c r="Y2" s="394"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -7163,84 +7233,84 @@
       <c r="AJ2" s="48"/>
     </row>
     <row r="3" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="238" t="s">
+      <c r="A3" s="382"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="395" t="s">
         <v>888</v>
       </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241" t="s">
+      <c r="E3" s="396"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="398" t="s">
         <v>918</v>
       </c>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244" t="s">
+      <c r="H3" s="399"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
+      <c r="K3" s="399"/>
+      <c r="L3" s="399"/>
+      <c r="M3" s="399"/>
+      <c r="N3" s="399"/>
+      <c r="O3" s="399"/>
+      <c r="P3" s="399"/>
+      <c r="Q3" s="399"/>
+      <c r="R3" s="399"/>
+      <c r="S3" s="399"/>
+      <c r="T3" s="399"/>
+      <c r="U3" s="399"/>
+      <c r="V3" s="399"/>
+      <c r="W3" s="399"/>
+      <c r="X3" s="399"/>
+      <c r="Y3" s="400"/>
+      <c r="Z3" s="322" t="s">
         <v>894</v>
       </c>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="248"/>
-      <c r="AE3" s="249"/>
-      <c r="AF3" s="249"/>
-      <c r="AG3" s="249"/>
-      <c r="AH3" s="201"/>
-      <c r="AI3" s="201"/>
-      <c r="AJ3" s="202"/>
+      <c r="AA3" s="323"/>
+      <c r="AB3" s="324"/>
+      <c r="AC3" s="401"/>
+      <c r="AD3" s="402"/>
+      <c r="AE3" s="403"/>
+      <c r="AF3" s="403"/>
+      <c r="AG3" s="403"/>
+      <c r="AH3" s="358"/>
+      <c r="AI3" s="358"/>
+      <c r="AJ3" s="359"/>
       <c r="AM3" s="66"/>
     </row>
     <row r="4" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="360" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="205">
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="362">
         <v>78</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="364" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="209" t="s">
+      <c r="F4" s="365"/>
+      <c r="G4" s="366" t="s">
         <v>912</v>
       </c>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="211"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="367"/>
+      <c r="M4" s="367"/>
+      <c r="N4" s="367"/>
+      <c r="O4" s="367"/>
+      <c r="P4" s="367"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="367"/>
+      <c r="S4" s="367"/>
+      <c r="T4" s="367"/>
+      <c r="U4" s="367"/>
+      <c r="V4" s="367"/>
+      <c r="W4" s="367"/>
+      <c r="X4" s="367"/>
+      <c r="Y4" s="368"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="46"/>
       <c r="AB4" s="46"/>
@@ -7254,37 +7324,37 @@
       <c r="AJ4" s="50"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="369" t="s">
         <v>903</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="214" t="s">
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="371" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="215"/>
-      <c r="G5" s="216" t="s">
+      <c r="F5" s="372"/>
+      <c r="G5" s="373" t="s">
         <v>913</v>
       </c>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="217"/>
-      <c r="W5" s="217"/>
-      <c r="X5" s="217"/>
-      <c r="Y5" s="218"/>
+      <c r="H5" s="374"/>
+      <c r="I5" s="374"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="374"/>
+      <c r="L5" s="374"/>
+      <c r="M5" s="374"/>
+      <c r="N5" s="374"/>
+      <c r="O5" s="374"/>
+      <c r="P5" s="374"/>
+      <c r="Q5" s="374"/>
+      <c r="R5" s="374"/>
+      <c r="S5" s="374"/>
+      <c r="T5" s="374"/>
+      <c r="U5" s="374"/>
+      <c r="V5" s="374"/>
+      <c r="W5" s="374"/>
+      <c r="X5" s="374"/>
+      <c r="Y5" s="375"/>
       <c r="Z5" s="45"/>
       <c r="AA5" s="46"/>
       <c r="AB5" s="46"/>
@@ -7298,95 +7368,95 @@
       <c r="AJ5" s="50"/>
     </row>
     <row r="6" spans="1:39" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="349" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282" t="s">
+      <c r="B6" s="350"/>
+      <c r="C6" s="350"/>
+      <c r="D6" s="351" t="s">
         <v>921</v>
       </c>
-      <c r="E6" s="283"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="352"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="355" t="s">
         <v>885</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="274" t="s">
+      <c r="H6" s="356"/>
+      <c r="I6" s="356"/>
+      <c r="J6" s="357"/>
+      <c r="K6" s="343" t="s">
         <v>919</v>
       </c>
-      <c r="L6" s="275"/>
-      <c r="M6" s="275"/>
-      <c r="N6" s="275"/>
-      <c r="O6" s="275"/>
-      <c r="P6" s="276"/>
-      <c r="Q6" s="277" t="s">
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+      <c r="N6" s="344"/>
+      <c r="O6" s="344"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="346" t="s">
         <v>907</v>
       </c>
-      <c r="R6" s="278"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="486" t="s">
+      <c r="R6" s="347"/>
+      <c r="S6" s="348"/>
+      <c r="T6" s="354" t="s">
         <v>486</v>
       </c>
-      <c r="U6" s="275"/>
-      <c r="V6" s="275"/>
-      <c r="W6" s="275"/>
-      <c r="X6" s="275"/>
-      <c r="Y6" s="276"/>
-      <c r="Z6" s="263" t="s">
+      <c r="U6" s="344"/>
+      <c r="V6" s="344"/>
+      <c r="W6" s="344"/>
+      <c r="X6" s="344"/>
+      <c r="Y6" s="345"/>
+      <c r="Z6" s="333" t="s">
         <v>895</v>
       </c>
-      <c r="AA6" s="264"/>
-      <c r="AB6" s="265"/>
-      <c r="AC6" s="266"/>
-      <c r="AD6" s="267"/>
-      <c r="AE6" s="267"/>
-      <c r="AF6" s="267"/>
-      <c r="AG6" s="267"/>
-      <c r="AH6" s="267"/>
-      <c r="AI6" s="267"/>
-      <c r="AJ6" s="268"/>
+      <c r="AA6" s="334"/>
+      <c r="AB6" s="271"/>
+      <c r="AC6" s="335"/>
+      <c r="AD6" s="336"/>
+      <c r="AE6" s="336"/>
+      <c r="AF6" s="336"/>
+      <c r="AG6" s="336"/>
+      <c r="AH6" s="336"/>
+      <c r="AI6" s="336"/>
+      <c r="AJ6" s="337"/>
     </row>
     <row r="7" spans="1:39" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269" t="s">
+      <c r="A7" s="338" t="s">
         <v>902</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271" t="s">
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="340" t="s">
         <v>922</v>
       </c>
-      <c r="E7" s="272"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="285" t="s">
+      <c r="E7" s="341"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="355" t="s">
         <v>908</v>
       </c>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="287"/>
-      <c r="K7" s="274" t="s">
+      <c r="H7" s="356"/>
+      <c r="I7" s="356"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="343" t="s">
         <v>920</v>
       </c>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="275"/>
-      <c r="P7" s="276"/>
-      <c r="Q7" s="277" t="s">
+      <c r="L7" s="344"/>
+      <c r="M7" s="344"/>
+      <c r="N7" s="344"/>
+      <c r="O7" s="344"/>
+      <c r="P7" s="345"/>
+      <c r="Q7" s="346" t="s">
         <v>909</v>
       </c>
-      <c r="R7" s="278"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="274" t="s">
+      <c r="R7" s="347"/>
+      <c r="S7" s="348"/>
+      <c r="T7" s="343" t="s">
         <v>667</v>
       </c>
-      <c r="U7" s="275"/>
-      <c r="V7" s="275"/>
-      <c r="W7" s="275"/>
-      <c r="X7" s="275"/>
-      <c r="Y7" s="276"/>
+      <c r="U7" s="344"/>
+      <c r="V7" s="344"/>
+      <c r="W7" s="344"/>
+      <c r="X7" s="344"/>
+      <c r="Y7" s="345"/>
       <c r="Z7" s="81"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
@@ -7400,79 +7470,79 @@
       <c r="AJ7" s="50"/>
     </row>
     <row r="8" spans="1:39" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="250" t="s">
+      <c r="A8" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="251"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="253" t="s">
+      <c r="B8" s="318"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="320" t="s">
         <v>924</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="253"/>
-      <c r="Q8" s="253"/>
-      <c r="R8" s="253"/>
-      <c r="S8" s="253"/>
-      <c r="T8" s="253"/>
-      <c r="U8" s="253"/>
-      <c r="V8" s="253"/>
-      <c r="W8" s="253"/>
-      <c r="X8" s="253"/>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="244" t="s">
+      <c r="E8" s="320"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="320"/>
+      <c r="I8" s="320"/>
+      <c r="J8" s="320"/>
+      <c r="K8" s="320"/>
+      <c r="L8" s="320"/>
+      <c r="M8" s="320"/>
+      <c r="N8" s="320"/>
+      <c r="O8" s="320"/>
+      <c r="P8" s="320"/>
+      <c r="Q8" s="320"/>
+      <c r="R8" s="320"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="320"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="320"/>
+      <c r="W8" s="320"/>
+      <c r="X8" s="320"/>
+      <c r="Y8" s="321"/>
+      <c r="Z8" s="322" t="s">
         <v>896</v>
       </c>
-      <c r="AA8" s="245"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
-      <c r="AJ8" s="257"/>
+      <c r="AA8" s="323"/>
+      <c r="AB8" s="324"/>
+      <c r="AC8" s="325"/>
+      <c r="AD8" s="326"/>
+      <c r="AE8" s="326"/>
+      <c r="AF8" s="326"/>
+      <c r="AG8" s="326"/>
+      <c r="AH8" s="326"/>
+      <c r="AI8" s="326"/>
+      <c r="AJ8" s="327"/>
     </row>
     <row r="9" spans="1:39" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="258" t="s">
+      <c r="A9" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261" t="s">
+      <c r="B9" s="329"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="331" t="s">
         <v>925</v>
       </c>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="262"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="331"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="331"/>
+      <c r="M9" s="331"/>
+      <c r="N9" s="331"/>
+      <c r="O9" s="331"/>
+      <c r="P9" s="331"/>
+      <c r="Q9" s="331"/>
+      <c r="R9" s="331"/>
+      <c r="S9" s="331"/>
+      <c r="T9" s="331"/>
+      <c r="U9" s="331"/>
+      <c r="V9" s="331"/>
+      <c r="W9" s="331"/>
+      <c r="X9" s="331"/>
+      <c r="Y9" s="332"/>
       <c r="Z9" s="74"/>
       <c r="AA9" s="47"/>
       <c r="AB9" s="47"/>
@@ -7486,154 +7556,154 @@
       <c r="AJ9" s="48"/>
     </row>
     <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="290"/>
-      <c r="L10" s="323" t="s">
+      <c r="B10" s="250"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="250"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="283" t="s">
         <v>889</v>
       </c>
-      <c r="M10" s="289"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="289"/>
-      <c r="T10" s="289"/>
-      <c r="U10" s="289"/>
-      <c r="V10" s="289"/>
-      <c r="W10" s="289"/>
-      <c r="X10" s="289"/>
-      <c r="Y10" s="324"/>
-      <c r="Z10" s="291" t="s">
+      <c r="M10" s="250"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="250"/>
+      <c r="P10" s="250"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="250"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="250"/>
+      <c r="U10" s="250"/>
+      <c r="V10" s="250"/>
+      <c r="W10" s="250"/>
+      <c r="X10" s="250"/>
+      <c r="Y10" s="284"/>
+      <c r="Z10" s="252" t="s">
         <v>884</v>
       </c>
-      <c r="AA10" s="292"/>
-      <c r="AB10" s="293"/>
-      <c r="AC10" s="300"/>
-      <c r="AD10" s="301"/>
-      <c r="AE10" s="301"/>
-      <c r="AF10" s="301"/>
-      <c r="AG10" s="301"/>
-      <c r="AH10" s="301"/>
-      <c r="AI10" s="301"/>
-      <c r="AJ10" s="302"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="263"/>
     </row>
     <row r="11" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="346" t="s">
+      <c r="A11" s="306" t="s">
         <v>927</v>
       </c>
-      <c r="B11" s="347"/>
-      <c r="C11" s="347"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="347"/>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="348"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="307"/>
+      <c r="D11" s="307"/>
+      <c r="E11" s="307"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="308"/>
       <c r="L11" s="82"/>
-      <c r="M11" s="352" t="s">
+      <c r="M11" s="312" t="s">
         <v>928</v>
       </c>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="352"/>
-      <c r="Q11" s="352"/>
-      <c r="R11" s="352"/>
-      <c r="S11" s="352"/>
-      <c r="T11" s="352"/>
-      <c r="U11" s="352"/>
-      <c r="V11" s="352"/>
-      <c r="W11" s="352"/>
-      <c r="X11" s="352"/>
+      <c r="N11" s="312"/>
+      <c r="O11" s="312"/>
+      <c r="P11" s="312"/>
+      <c r="Q11" s="312"/>
+      <c r="R11" s="312"/>
+      <c r="S11" s="312"/>
+      <c r="T11" s="312"/>
+      <c r="U11" s="312"/>
+      <c r="V11" s="312"/>
+      <c r="W11" s="312"/>
+      <c r="X11" s="312"/>
       <c r="Y11" s="83"/>
-      <c r="Z11" s="294"/>
-      <c r="AA11" s="295"/>
-      <c r="AB11" s="296"/>
-      <c r="AC11" s="303"/>
-      <c r="AD11" s="304"/>
-      <c r="AE11" s="304"/>
-      <c r="AF11" s="304"/>
-      <c r="AG11" s="304"/>
-      <c r="AH11" s="304"/>
-      <c r="AI11" s="304"/>
-      <c r="AJ11" s="305"/>
+      <c r="Z11" s="255"/>
+      <c r="AA11" s="256"/>
+      <c r="AB11" s="257"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="265"/>
+      <c r="AE11" s="265"/>
+      <c r="AF11" s="265"/>
+      <c r="AG11" s="265"/>
+      <c r="AH11" s="265"/>
+      <c r="AI11" s="265"/>
+      <c r="AJ11" s="266"/>
     </row>
     <row r="12" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="349"/>
-      <c r="B12" s="350"/>
-      <c r="C12" s="350"/>
-      <c r="D12" s="350"/>
-      <c r="E12" s="350"/>
-      <c r="F12" s="350"/>
-      <c r="G12" s="350"/>
-      <c r="H12" s="350"/>
-      <c r="I12" s="350"/>
-      <c r="J12" s="350"/>
-      <c r="K12" s="351"/>
+      <c r="A12" s="309"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="310"/>
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="310"/>
+      <c r="I12" s="310"/>
+      <c r="J12" s="310"/>
+      <c r="K12" s="311"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="353"/>
-      <c r="N12" s="353"/>
-      <c r="O12" s="353"/>
-      <c r="P12" s="353"/>
-      <c r="Q12" s="353"/>
-      <c r="R12" s="353"/>
-      <c r="S12" s="353"/>
-      <c r="T12" s="353"/>
-      <c r="U12" s="353"/>
-      <c r="V12" s="353"/>
-      <c r="W12" s="353"/>
-      <c r="X12" s="353"/>
+      <c r="M12" s="313"/>
+      <c r="N12" s="313"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="313"/>
+      <c r="Q12" s="313"/>
+      <c r="R12" s="313"/>
+      <c r="S12" s="313"/>
+      <c r="T12" s="313"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="313"/>
+      <c r="W12" s="313"/>
+      <c r="X12" s="313"/>
       <c r="Y12" s="84"/>
-      <c r="Z12" s="297"/>
-      <c r="AA12" s="298"/>
-      <c r="AB12" s="299"/>
-      <c r="AC12" s="306"/>
-      <c r="AD12" s="307"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="307"/>
-      <c r="AH12" s="307"/>
-      <c r="AI12" s="307"/>
-      <c r="AJ12" s="308"/>
+      <c r="Z12" s="258"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="268"/>
+      <c r="AE12" s="268"/>
+      <c r="AF12" s="268"/>
+      <c r="AG12" s="268"/>
+      <c r="AH12" s="268"/>
+      <c r="AI12" s="268"/>
+      <c r="AJ12" s="269"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="349"/>
-      <c r="B13" s="350"/>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="350"/>
-      <c r="I13" s="350"/>
-      <c r="J13" s="350"/>
-      <c r="K13" s="351"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="310"/>
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="311"/>
       <c r="L13" s="82"/>
-      <c r="M13" s="353"/>
-      <c r="N13" s="353"/>
-      <c r="O13" s="353"/>
-      <c r="P13" s="353"/>
-      <c r="Q13" s="353"/>
-      <c r="R13" s="353"/>
-      <c r="S13" s="353"/>
-      <c r="T13" s="353"/>
-      <c r="U13" s="353"/>
-      <c r="V13" s="353"/>
-      <c r="W13" s="353"/>
-      <c r="X13" s="353"/>
+      <c r="M13" s="313"/>
+      <c r="N13" s="313"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
+      <c r="Q13" s="313"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="313"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="313"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
       <c r="Y13" s="84"/>
       <c r="Z13" s="53"/>
       <c r="AA13" s="54"/>
@@ -7648,30 +7718,30 @@
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="349"/>
-      <c r="B14" s="350"/>
-      <c r="C14" s="350"/>
-      <c r="D14" s="350"/>
-      <c r="E14" s="350"/>
-      <c r="F14" s="350"/>
-      <c r="G14" s="350"/>
-      <c r="H14" s="350"/>
-      <c r="I14" s="350"/>
-      <c r="J14" s="350"/>
-      <c r="K14" s="351"/>
+      <c r="A14" s="309"/>
+      <c r="B14" s="310"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="310"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="310"/>
+      <c r="K14" s="311"/>
       <c r="L14" s="82"/>
-      <c r="M14" s="353"/>
-      <c r="N14" s="353"/>
-      <c r="O14" s="353"/>
-      <c r="P14" s="353"/>
-      <c r="Q14" s="353"/>
-      <c r="R14" s="353"/>
-      <c r="S14" s="353"/>
-      <c r="T14" s="353"/>
-      <c r="U14" s="353"/>
-      <c r="V14" s="353"/>
-      <c r="W14" s="353"/>
-      <c r="X14" s="353"/>
+      <c r="M14" s="313"/>
+      <c r="N14" s="313"/>
+      <c r="O14" s="313"/>
+      <c r="P14" s="313"/>
+      <c r="Q14" s="313"/>
+      <c r="R14" s="313"/>
+      <c r="S14" s="313"/>
+      <c r="T14" s="313"/>
+      <c r="U14" s="313"/>
+      <c r="V14" s="313"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="313"/>
       <c r="Y14" s="84"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="46"/>
@@ -7686,37 +7756,37 @@
       <c r="AJ14" s="50"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="349"/>
-      <c r="B15" s="350"/>
-      <c r="C15" s="350"/>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="350"/>
-      <c r="G15" s="350"/>
-      <c r="H15" s="350"/>
-      <c r="I15" s="350"/>
-      <c r="J15" s="350"/>
-      <c r="K15" s="351"/>
+      <c r="A15" s="309"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="310"/>
+      <c r="I15" s="310"/>
+      <c r="J15" s="310"/>
+      <c r="K15" s="311"/>
       <c r="L15" s="82"/>
-      <c r="M15" s="353"/>
-      <c r="N15" s="353"/>
-      <c r="O15" s="353"/>
-      <c r="P15" s="353"/>
-      <c r="Q15" s="353"/>
-      <c r="R15" s="353"/>
-      <c r="S15" s="353"/>
-      <c r="T15" s="353"/>
-      <c r="U15" s="353"/>
-      <c r="V15" s="353"/>
-      <c r="W15" s="353"/>
-      <c r="X15" s="353"/>
+      <c r="M15" s="313"/>
+      <c r="N15" s="313"/>
+      <c r="O15" s="313"/>
+      <c r="P15" s="313"/>
+      <c r="Q15" s="313"/>
+      <c r="R15" s="313"/>
+      <c r="S15" s="313"/>
+      <c r="T15" s="313"/>
+      <c r="U15" s="313"/>
+      <c r="V15" s="313"/>
+      <c r="W15" s="313"/>
+      <c r="X15" s="313"/>
       <c r="Y15" s="84"/>
-      <c r="Z15" s="309" t="s">
+      <c r="Z15" s="270" t="s">
         <v>897</v>
       </c>
-      <c r="AA15" s="265"/>
-      <c r="AB15" s="315"/>
-      <c r="AC15" s="316"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="275"/>
+      <c r="AC15" s="276"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -7726,35 +7796,35 @@
       <c r="AJ15" s="68"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="349"/>
-      <c r="B16" s="350"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="350"/>
-      <c r="G16" s="350"/>
-      <c r="H16" s="350"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="350"/>
-      <c r="K16" s="351"/>
+      <c r="A16" s="309"/>
+      <c r="B16" s="310"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="310"/>
+      <c r="G16" s="310"/>
+      <c r="H16" s="310"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
       <c r="L16" s="82"/>
-      <c r="M16" s="353"/>
-      <c r="N16" s="353"/>
-      <c r="O16" s="353"/>
-      <c r="P16" s="353"/>
-      <c r="Q16" s="353"/>
-      <c r="R16" s="353"/>
-      <c r="S16" s="353"/>
-      <c r="T16" s="353"/>
-      <c r="U16" s="353"/>
-      <c r="V16" s="353"/>
-      <c r="W16" s="353"/>
-      <c r="X16" s="353"/>
+      <c r="M16" s="313"/>
+      <c r="N16" s="313"/>
+      <c r="O16" s="313"/>
+      <c r="P16" s="313"/>
+      <c r="Q16" s="313"/>
+      <c r="R16" s="313"/>
+      <c r="S16" s="313"/>
+      <c r="T16" s="313"/>
+      <c r="U16" s="313"/>
+      <c r="V16" s="313"/>
+      <c r="W16" s="313"/>
+      <c r="X16" s="313"/>
       <c r="Y16" s="84"/>
-      <c r="Z16" s="310"/>
-      <c r="AA16" s="311"/>
-      <c r="AB16" s="317"/>
-      <c r="AC16" s="318"/>
+      <c r="Z16" s="272"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="277"/>
+      <c r="AC16" s="278"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -7764,35 +7834,35 @@
       <c r="AJ16" s="68"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A17" s="349"/>
-      <c r="B17" s="350"/>
-      <c r="C17" s="350"/>
-      <c r="D17" s="350"/>
-      <c r="E17" s="350"/>
-      <c r="F17" s="350"/>
-      <c r="G17" s="350"/>
-      <c r="H17" s="350"/>
-      <c r="I17" s="350"/>
-      <c r="J17" s="350"/>
-      <c r="K17" s="351"/>
+      <c r="A17" s="309"/>
+      <c r="B17" s="310"/>
+      <c r="C17" s="310"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="310"/>
+      <c r="F17" s="310"/>
+      <c r="G17" s="310"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="311"/>
       <c r="L17" s="82"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353"/>
-      <c r="P17" s="353"/>
-      <c r="Q17" s="353"/>
-      <c r="R17" s="353"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="353"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="353"/>
-      <c r="X17" s="353"/>
+      <c r="M17" s="313"/>
+      <c r="N17" s="313"/>
+      <c r="O17" s="313"/>
+      <c r="P17" s="313"/>
+      <c r="Q17" s="313"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="313"/>
+      <c r="T17" s="313"/>
+      <c r="U17" s="313"/>
+      <c r="V17" s="313"/>
+      <c r="W17" s="313"/>
+      <c r="X17" s="313"/>
       <c r="Y17" s="84"/>
-      <c r="Z17" s="310"/>
-      <c r="AA17" s="311"/>
-      <c r="AB17" s="317"/>
-      <c r="AC17" s="318"/>
+      <c r="Z17" s="272"/>
+      <c r="AA17" s="273"/>
+      <c r="AB17" s="277"/>
+      <c r="AC17" s="278"/>
       <c r="AD17" s="67"/>
       <c r="AE17" s="67"/>
       <c r="AF17" s="67"/>
@@ -7802,35 +7872,35 @@
       <c r="AJ17" s="68"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A18" s="349"/>
-      <c r="B18" s="350"/>
-      <c r="C18" s="350"/>
-      <c r="D18" s="350"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="350"/>
-      <c r="H18" s="350"/>
-      <c r="I18" s="350"/>
-      <c r="J18" s="350"/>
-      <c r="K18" s="351"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="310"/>
+      <c r="C18" s="310"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="310"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="310"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="310"/>
+      <c r="J18" s="310"/>
+      <c r="K18" s="311"/>
       <c r="L18" s="82"/>
-      <c r="M18" s="353"/>
-      <c r="N18" s="353"/>
-      <c r="O18" s="353"/>
-      <c r="P18" s="353"/>
-      <c r="Q18" s="353"/>
-      <c r="R18" s="353"/>
-      <c r="S18" s="353"/>
-      <c r="T18" s="353"/>
-      <c r="U18" s="353"/>
-      <c r="V18" s="353"/>
-      <c r="W18" s="353"/>
-      <c r="X18" s="353"/>
+      <c r="M18" s="313"/>
+      <c r="N18" s="313"/>
+      <c r="O18" s="313"/>
+      <c r="P18" s="313"/>
+      <c r="Q18" s="313"/>
+      <c r="R18" s="313"/>
+      <c r="S18" s="313"/>
+      <c r="T18" s="313"/>
+      <c r="U18" s="313"/>
+      <c r="V18" s="313"/>
+      <c r="W18" s="313"/>
+      <c r="X18" s="313"/>
       <c r="Y18" s="84"/>
-      <c r="Z18" s="310"/>
-      <c r="AA18" s="311"/>
-      <c r="AB18" s="317"/>
-      <c r="AC18" s="318"/>
+      <c r="Z18" s="272"/>
+      <c r="AA18" s="273"/>
+      <c r="AB18" s="277"/>
+      <c r="AC18" s="278"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -7840,35 +7910,35 @@
       <c r="AJ18" s="68"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A19" s="349"/>
-      <c r="B19" s="350"/>
-      <c r="C19" s="350"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
-      <c r="G19" s="350"/>
-      <c r="H19" s="350"/>
-      <c r="I19" s="350"/>
-      <c r="J19" s="350"/>
-      <c r="K19" s="351"/>
+      <c r="A19" s="309"/>
+      <c r="B19" s="310"/>
+      <c r="C19" s="310"/>
+      <c r="D19" s="310"/>
+      <c r="E19" s="310"/>
+      <c r="F19" s="310"/>
+      <c r="G19" s="310"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="310"/>
+      <c r="J19" s="310"/>
+      <c r="K19" s="311"/>
       <c r="L19" s="82"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="353"/>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="353"/>
-      <c r="V19" s="353"/>
-      <c r="W19" s="353"/>
-      <c r="X19" s="353"/>
+      <c r="M19" s="313"/>
+      <c r="N19" s="313"/>
+      <c r="O19" s="313"/>
+      <c r="P19" s="313"/>
+      <c r="Q19" s="313"/>
+      <c r="R19" s="313"/>
+      <c r="S19" s="313"/>
+      <c r="T19" s="313"/>
+      <c r="U19" s="313"/>
+      <c r="V19" s="313"/>
+      <c r="W19" s="313"/>
+      <c r="X19" s="313"/>
       <c r="Y19" s="84"/>
-      <c r="Z19" s="312"/>
-      <c r="AA19" s="311"/>
-      <c r="AB19" s="317"/>
-      <c r="AC19" s="318"/>
+      <c r="Z19" s="274"/>
+      <c r="AA19" s="273"/>
+      <c r="AB19" s="277"/>
+      <c r="AC19" s="278"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -7878,35 +7948,35 @@
       <c r="AJ19" s="68"/>
     </row>
     <row r="20" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="349"/>
-      <c r="B20" s="350"/>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="350"/>
-      <c r="G20" s="350"/>
-      <c r="H20" s="350"/>
-      <c r="I20" s="350"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="351"/>
+      <c r="A20" s="309"/>
+      <c r="B20" s="310"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="310"/>
+      <c r="F20" s="310"/>
+      <c r="G20" s="310"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
+      <c r="K20" s="311"/>
       <c r="L20" s="82"/>
-      <c r="M20" s="353"/>
-      <c r="N20" s="353"/>
-      <c r="O20" s="353"/>
-      <c r="P20" s="353"/>
-      <c r="Q20" s="353"/>
-      <c r="R20" s="353"/>
-      <c r="S20" s="353"/>
-      <c r="T20" s="353"/>
-      <c r="U20" s="353"/>
-      <c r="V20" s="353"/>
-      <c r="W20" s="353"/>
-      <c r="X20" s="353"/>
+      <c r="M20" s="313"/>
+      <c r="N20" s="313"/>
+      <c r="O20" s="313"/>
+      <c r="P20" s="313"/>
+      <c r="Q20" s="313"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="313"/>
+      <c r="T20" s="313"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="313"/>
+      <c r="W20" s="313"/>
+      <c r="X20" s="313"/>
       <c r="Y20" s="84"/>
-      <c r="Z20" s="313"/>
-      <c r="AA20" s="314"/>
-      <c r="AB20" s="319"/>
-      <c r="AC20" s="320"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="279"/>
+      <c r="AC20" s="280"/>
       <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="46"/>
@@ -7916,30 +7986,30 @@
       <c r="AJ20" s="50"/>
     </row>
     <row r="21" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="349"/>
-      <c r="B21" s="350"/>
-      <c r="C21" s="350"/>
-      <c r="D21" s="350"/>
-      <c r="E21" s="350"/>
-      <c r="F21" s="350"/>
-      <c r="G21" s="350"/>
-      <c r="H21" s="350"/>
-      <c r="I21" s="350"/>
-      <c r="J21" s="350"/>
-      <c r="K21" s="351"/>
+      <c r="A21" s="309"/>
+      <c r="B21" s="310"/>
+      <c r="C21" s="310"/>
+      <c r="D21" s="310"/>
+      <c r="E21" s="310"/>
+      <c r="F21" s="310"/>
+      <c r="G21" s="310"/>
+      <c r="H21" s="310"/>
+      <c r="I21" s="310"/>
+      <c r="J21" s="310"/>
+      <c r="K21" s="311"/>
       <c r="L21" s="82"/>
-      <c r="M21" s="353"/>
-      <c r="N21" s="353"/>
-      <c r="O21" s="353"/>
-      <c r="P21" s="353"/>
-      <c r="Q21" s="353"/>
-      <c r="R21" s="353"/>
-      <c r="S21" s="353"/>
-      <c r="T21" s="353"/>
-      <c r="U21" s="353"/>
-      <c r="V21" s="353"/>
-      <c r="W21" s="353"/>
-      <c r="X21" s="353"/>
+      <c r="M21" s="313"/>
+      <c r="N21" s="313"/>
+      <c r="O21" s="313"/>
+      <c r="P21" s="313"/>
+      <c r="Q21" s="313"/>
+      <c r="R21" s="313"/>
+      <c r="S21" s="313"/>
+      <c r="T21" s="313"/>
+      <c r="U21" s="313"/>
+      <c r="V21" s="313"/>
+      <c r="W21" s="313"/>
+      <c r="X21" s="313"/>
       <c r="Y21" s="84"/>
       <c r="Z21" s="58"/>
       <c r="AA21" s="51"/>
@@ -7954,74 +8024,74 @@
       <c r="AJ21" s="52"/>
     </row>
     <row r="22" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="349"/>
-      <c r="B22" s="350"/>
-      <c r="C22" s="350"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="350"/>
-      <c r="H22" s="350"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="350"/>
-      <c r="K22" s="351"/>
+      <c r="A22" s="309"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="310"/>
+      <c r="E22" s="310"/>
+      <c r="F22" s="310"/>
+      <c r="G22" s="310"/>
+      <c r="H22" s="310"/>
+      <c r="I22" s="310"/>
+      <c r="J22" s="310"/>
+      <c r="K22" s="311"/>
       <c r="L22" s="82"/>
-      <c r="M22" s="353"/>
-      <c r="N22" s="353"/>
-      <c r="O22" s="353"/>
-      <c r="P22" s="353"/>
-      <c r="Q22" s="353"/>
-      <c r="R22" s="353"/>
-      <c r="S22" s="353"/>
-      <c r="T22" s="353"/>
-      <c r="U22" s="353"/>
-      <c r="V22" s="353"/>
-      <c r="W22" s="353"/>
-      <c r="X22" s="353"/>
+      <c r="M22" s="313"/>
+      <c r="N22" s="313"/>
+      <c r="O22" s="313"/>
+      <c r="P22" s="313"/>
+      <c r="Q22" s="313"/>
+      <c r="R22" s="313"/>
+      <c r="S22" s="313"/>
+      <c r="T22" s="313"/>
+      <c r="U22" s="313"/>
+      <c r="V22" s="313"/>
+      <c r="W22" s="313"/>
+      <c r="X22" s="313"/>
       <c r="Y22" s="84"/>
-      <c r="Z22" s="291" t="s">
+      <c r="Z22" s="252" t="s">
         <v>875</v>
       </c>
-      <c r="AA22" s="293"/>
-      <c r="AB22" s="321"/>
-      <c r="AC22" s="315"/>
-      <c r="AD22" s="315"/>
-      <c r="AE22" s="315"/>
-      <c r="AF22" s="315"/>
-      <c r="AG22" s="315"/>
-      <c r="AH22" s="315"/>
-      <c r="AI22" s="315"/>
-      <c r="AJ22" s="322"/>
+      <c r="AA22" s="254"/>
+      <c r="AB22" s="281"/>
+      <c r="AC22" s="275"/>
+      <c r="AD22" s="275"/>
+      <c r="AE22" s="275"/>
+      <c r="AF22" s="275"/>
+      <c r="AG22" s="275"/>
+      <c r="AH22" s="275"/>
+      <c r="AI22" s="275"/>
+      <c r="AJ22" s="282"/>
     </row>
     <row r="23" spans="1:49" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="325" t="s">
+      <c r="A23" s="285" t="s">
         <v>923</v>
       </c>
-      <c r="B23" s="326"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="328"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="329"/>
-      <c r="G23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
-      <c r="J23" s="329"/>
-      <c r="K23" s="329"/>
-      <c r="L23" s="329"/>
-      <c r="M23" s="329"/>
-      <c r="N23" s="329"/>
-      <c r="O23" s="329"/>
-      <c r="P23" s="329"/>
-      <c r="Q23" s="329"/>
-      <c r="R23" s="329"/>
-      <c r="S23" s="329"/>
-      <c r="T23" s="329"/>
-      <c r="U23" s="329"/>
-      <c r="V23" s="329"/>
-      <c r="W23" s="329"/>
-      <c r="X23" s="329"/>
-      <c r="Y23" s="330"/>
-      <c r="Z23" s="139" t="s">
+      <c r="B23" s="286"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="289"/>
+      <c r="M23" s="289"/>
+      <c r="N23" s="289"/>
+      <c r="O23" s="289"/>
+      <c r="P23" s="289"/>
+      <c r="Q23" s="289"/>
+      <c r="R23" s="289"/>
+      <c r="S23" s="289"/>
+      <c r="T23" s="289"/>
+      <c r="U23" s="289"/>
+      <c r="V23" s="289"/>
+      <c r="W23" s="289"/>
+      <c r="X23" s="289"/>
+      <c r="Y23" s="290"/>
+      <c r="Z23" s="136" t="s">
         <v>892</v>
       </c>
       <c r="AA23" s="69"/>
@@ -8036,33 +8106,33 @@
       <c r="AJ23" s="70"/>
     </row>
     <row r="24" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="334" t="s">
+      <c r="A24" s="294" t="s">
         <v>890</v>
       </c>
-      <c r="B24" s="335"/>
-      <c r="C24" s="336"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="332"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="332"/>
-      <c r="J24" s="332"/>
-      <c r="K24" s="332"/>
-      <c r="L24" s="332"/>
-      <c r="M24" s="332"/>
-      <c r="N24" s="332"/>
-      <c r="O24" s="332"/>
-      <c r="P24" s="332"/>
-      <c r="Q24" s="332"/>
-      <c r="R24" s="332"/>
-      <c r="S24" s="332"/>
-      <c r="T24" s="332"/>
-      <c r="U24" s="332"/>
-      <c r="V24" s="332"/>
-      <c r="W24" s="332"/>
-      <c r="X24" s="332"/>
-      <c r="Y24" s="333"/>
+      <c r="B24" s="295"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="291"/>
+      <c r="E24" s="292"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="292"/>
+      <c r="Q24" s="292"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="292"/>
+      <c r="Y24" s="293"/>
       <c r="Z24" s="71" t="s">
         <v>886</v>
       </c>
@@ -8091,46 +8161,46 @@
       <c r="AW24" s="79"/>
     </row>
     <row r="25" spans="1:49" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="337" t="s">
+      <c r="A25" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="338"/>
-      <c r="C25" s="339"/>
-      <c r="D25" s="331"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="332"/>
-      <c r="J25" s="332"/>
-      <c r="K25" s="332"/>
-      <c r="L25" s="332"/>
-      <c r="M25" s="332"/>
-      <c r="N25" s="332"/>
-      <c r="O25" s="332"/>
-      <c r="P25" s="332"/>
-      <c r="Q25" s="332"/>
-      <c r="R25" s="332"/>
-      <c r="S25" s="332"/>
-      <c r="T25" s="332"/>
-      <c r="U25" s="332"/>
-      <c r="V25" s="332"/>
-      <c r="W25" s="332"/>
-      <c r="X25" s="332"/>
-      <c r="Y25" s="333"/>
-      <c r="Z25" s="340" t="s">
+      <c r="B25" s="298"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="291"/>
+      <c r="E25" s="292"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="292"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="292"/>
+      <c r="Q25" s="292"/>
+      <c r="R25" s="292"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="292"/>
+      <c r="Y25" s="293"/>
+      <c r="Z25" s="300" t="s">
         <v>887</v>
       </c>
-      <c r="AA25" s="341"/>
-      <c r="AB25" s="341"/>
-      <c r="AC25" s="341"/>
-      <c r="AD25" s="341"/>
-      <c r="AE25" s="341"/>
-      <c r="AF25" s="341"/>
-      <c r="AG25" s="341"/>
-      <c r="AH25" s="341"/>
-      <c r="AI25" s="341"/>
-      <c r="AJ25" s="342"/>
+      <c r="AA25" s="301"/>
+      <c r="AB25" s="301"/>
+      <c r="AC25" s="301"/>
+      <c r="AD25" s="301"/>
+      <c r="AE25" s="301"/>
+      <c r="AF25" s="301"/>
+      <c r="AG25" s="301"/>
+      <c r="AH25" s="301"/>
+      <c r="AI25" s="301"/>
+      <c r="AJ25" s="302"/>
       <c r="AL25" s="79"/>
       <c r="AM25" s="79"/>
       <c r="AN25" s="79"/>
@@ -8145,45 +8215,45 @@
       <c r="AW25" s="79"/>
     </row>
     <row r="26" spans="1:49" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="343" t="str">
+      <c r="A26" s="303" t="str">
         <f>IF(A25="Oui/да","Nombre de pages:","")</f>
         <v/>
       </c>
-      <c r="B26" s="344"/>
-      <c r="C26" s="345"/>
-      <c r="D26" s="331"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="332"/>
-      <c r="K26" s="332"/>
-      <c r="L26" s="332"/>
-      <c r="M26" s="332"/>
-      <c r="N26" s="332"/>
-      <c r="O26" s="332"/>
-      <c r="P26" s="332"/>
-      <c r="Q26" s="332"/>
-      <c r="R26" s="332"/>
-      <c r="S26" s="332"/>
-      <c r="T26" s="332"/>
-      <c r="U26" s="332"/>
-      <c r="V26" s="332"/>
-      <c r="W26" s="332"/>
-      <c r="X26" s="332"/>
-      <c r="Y26" s="333"/>
-      <c r="Z26" s="354"/>
-      <c r="AA26" s="355"/>
-      <c r="AB26" s="355"/>
-      <c r="AC26" s="355"/>
-      <c r="AD26" s="355"/>
-      <c r="AE26" s="355"/>
-      <c r="AF26" s="355"/>
-      <c r="AG26" s="355"/>
-      <c r="AH26" s="355"/>
-      <c r="AI26" s="355"/>
-      <c r="AJ26" s="356"/>
+      <c r="B26" s="304"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="291"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="292"/>
+      <c r="K26" s="292"/>
+      <c r="L26" s="292"/>
+      <c r="M26" s="292"/>
+      <c r="N26" s="292"/>
+      <c r="O26" s="292"/>
+      <c r="P26" s="292"/>
+      <c r="Q26" s="292"/>
+      <c r="R26" s="292"/>
+      <c r="S26" s="292"/>
+      <c r="T26" s="292"/>
+      <c r="U26" s="292"/>
+      <c r="V26" s="292"/>
+      <c r="W26" s="292"/>
+      <c r="X26" s="292"/>
+      <c r="Y26" s="293"/>
+      <c r="Z26" s="314"/>
+      <c r="AA26" s="315"/>
+      <c r="AB26" s="315"/>
+      <c r="AC26" s="315"/>
+      <c r="AD26" s="315"/>
+      <c r="AE26" s="315"/>
+      <c r="AF26" s="315"/>
+      <c r="AG26" s="315"/>
+      <c r="AH26" s="315"/>
+      <c r="AI26" s="315"/>
+      <c r="AJ26" s="316"/>
       <c r="AL26" s="79"/>
       <c r="AM26" s="79"/>
       <c r="AN26" s="79"/>
@@ -8198,34 +8268,34 @@
       <c r="AW26" s="79"/>
     </row>
     <row r="27" spans="1:49" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="370" t="str">
+      <c r="A27" s="235" t="str">
         <f>IF(A25="Oui/да","Число Страниц:","")</f>
         <v/>
       </c>
-      <c r="B27" s="371"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="331"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
-      <c r="J27" s="332"/>
-      <c r="K27" s="332"/>
-      <c r="L27" s="332"/>
-      <c r="M27" s="332"/>
-      <c r="N27" s="332"/>
-      <c r="O27" s="332"/>
-      <c r="P27" s="332"/>
-      <c r="Q27" s="332"/>
-      <c r="R27" s="332"/>
-      <c r="S27" s="332"/>
-      <c r="T27" s="332"/>
-      <c r="U27" s="332"/>
-      <c r="V27" s="332"/>
-      <c r="W27" s="332"/>
-      <c r="X27" s="332"/>
-      <c r="Y27" s="333"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="293"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="69"/>
       <c r="AB27" s="69"/>
@@ -8251,44 +8321,44 @@
       <c r="AW27" s="79"/>
     </row>
     <row r="28" spans="1:49" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="373">
+      <c r="A28" s="238">
         <v>0</v>
       </c>
-      <c r="B28" s="374"/>
-      <c r="C28" s="375"/>
-      <c r="D28" s="331"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="332"/>
-      <c r="J28" s="332"/>
-      <c r="K28" s="332"/>
-      <c r="L28" s="332"/>
-      <c r="M28" s="332"/>
-      <c r="N28" s="332"/>
-      <c r="O28" s="332"/>
-      <c r="P28" s="332"/>
-      <c r="Q28" s="332"/>
-      <c r="R28" s="332"/>
-      <c r="S28" s="332"/>
-      <c r="T28" s="332"/>
-      <c r="U28" s="332"/>
-      <c r="V28" s="332"/>
-      <c r="W28" s="332"/>
-      <c r="X28" s="332"/>
-      <c r="Y28" s="333"/>
-      <c r="Z28" s="340"/>
-      <c r="AA28" s="341"/>
-      <c r="AB28" s="341"/>
-      <c r="AC28" s="341"/>
-      <c r="AD28" s="341"/>
-      <c r="AE28" s="341"/>
-      <c r="AF28" s="341"/>
-      <c r="AG28" s="341"/>
-      <c r="AH28" s="341"/>
-      <c r="AI28" s="341"/>
-      <c r="AJ28" s="342"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="292"/>
+      <c r="Q28" s="292"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="292"/>
+      <c r="Y28" s="293"/>
+      <c r="Z28" s="300"/>
+      <c r="AA28" s="301"/>
+      <c r="AB28" s="301"/>
+      <c r="AC28" s="301"/>
+      <c r="AD28" s="301"/>
+      <c r="AE28" s="301"/>
+      <c r="AF28" s="301"/>
+      <c r="AG28" s="301"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="301"/>
+      <c r="AJ28" s="302"/>
       <c r="AL28" s="80"/>
       <c r="AM28" s="80"/>
       <c r="AN28" s="80"/>
@@ -8303,33 +8373,33 @@
       <c r="AW28" s="80"/>
     </row>
     <row r="29" spans="1:49" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="376" t="s">
+      <c r="A29" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="377"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="378"/>
-      <c r="E29" s="360"/>
-      <c r="F29" s="361"/>
-      <c r="G29" s="361"/>
-      <c r="H29" s="361"/>
-      <c r="I29" s="361"/>
-      <c r="J29" s="361"/>
-      <c r="K29" s="361"/>
-      <c r="L29" s="361"/>
-      <c r="M29" s="361"/>
-      <c r="N29" s="361"/>
-      <c r="O29" s="361"/>
-      <c r="P29" s="361"/>
-      <c r="Q29" s="361"/>
-      <c r="R29" s="361"/>
-      <c r="S29" s="361"/>
-      <c r="T29" s="361"/>
-      <c r="U29" s="361"/>
-      <c r="V29" s="361"/>
-      <c r="W29" s="361"/>
-      <c r="X29" s="361"/>
-      <c r="Y29" s="362"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="227"/>
       <c r="Z29" s="45"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="57"/>
@@ -8355,39 +8425,39 @@
       <c r="AW29" s="80"/>
     </row>
     <row r="30" spans="1:49" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="379" t="s">
+      <c r="A30" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="380"/>
-      <c r="C30" s="380"/>
-      <c r="D30" s="380"/>
-      <c r="E30" s="381"/>
-      <c r="F30" s="382"/>
-      <c r="G30" s="382"/>
-      <c r="H30" s="382"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
-      <c r="K30" s="382"/>
-      <c r="L30" s="382"/>
-      <c r="M30" s="382"/>
-      <c r="N30" s="382"/>
-      <c r="O30" s="382"/>
-      <c r="P30" s="382"/>
-      <c r="Q30" s="382"/>
-      <c r="R30" s="382"/>
-      <c r="S30" s="382"/>
-      <c r="T30" s="382"/>
-      <c r="U30" s="382"/>
-      <c r="V30" s="382"/>
-      <c r="W30" s="382"/>
-      <c r="X30" s="382"/>
-      <c r="Y30" s="383"/>
-      <c r="Z30" s="313" t="s">
+      <c r="B30" s="245"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="247"/>
+      <c r="N30" s="247"/>
+      <c r="O30" s="247"/>
+      <c r="P30" s="247"/>
+      <c r="Q30" s="247"/>
+      <c r="R30" s="247"/>
+      <c r="S30" s="247"/>
+      <c r="T30" s="247"/>
+      <c r="U30" s="247"/>
+      <c r="V30" s="247"/>
+      <c r="W30" s="247"/>
+      <c r="X30" s="247"/>
+      <c r="Y30" s="248"/>
+      <c r="Z30" s="220" t="s">
         <v>881</v>
       </c>
-      <c r="AA30" s="357"/>
-      <c r="AB30" s="357"/>
-      <c r="AC30" s="314"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="222"/>
       <c r="AD30" s="78"/>
       <c r="AE30" s="78"/>
       <c r="AF30" s="78"/>
@@ -8409,33 +8479,33 @@
       <c r="AW30" s="80"/>
     </row>
     <row r="31" spans="1:49" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="358" t="s">
+      <c r="A31" s="223" t="s">
         <v>879</v>
       </c>
-      <c r="B31" s="359"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="360"/>
-      <c r="F31" s="361"/>
-      <c r="G31" s="361"/>
-      <c r="H31" s="361"/>
-      <c r="I31" s="361"/>
-      <c r="J31" s="361"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="361"/>
-      <c r="M31" s="361"/>
-      <c r="N31" s="361"/>
-      <c r="O31" s="361"/>
-      <c r="P31" s="361"/>
-      <c r="Q31" s="361"/>
-      <c r="R31" s="361"/>
-      <c r="S31" s="361"/>
-      <c r="T31" s="361"/>
-      <c r="U31" s="361"/>
-      <c r="V31" s="361"/>
-      <c r="W31" s="361"/>
-      <c r="X31" s="361"/>
-      <c r="Y31" s="362"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="226"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="226"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="226"/>
+      <c r="W31" s="226"/>
+      <c r="X31" s="226"/>
+      <c r="Y31" s="227"/>
       <c r="Z31" s="45"/>
       <c r="AA31" s="46"/>
       <c r="AB31" s="46"/>
@@ -8461,37 +8531,37 @@
       <c r="AW31" s="80"/>
     </row>
     <row r="32" spans="1:49" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="363" t="s">
+      <c r="A32" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="364"/>
-      <c r="C32" s="364"/>
-      <c r="D32" s="364"/>
-      <c r="E32" s="365"/>
-      <c r="F32" s="366"/>
-      <c r="G32" s="366"/>
-      <c r="H32" s="366"/>
-      <c r="I32" s="366"/>
-      <c r="J32" s="366"/>
-      <c r="K32" s="366"/>
-      <c r="L32" s="366"/>
-      <c r="M32" s="366"/>
-      <c r="N32" s="366"/>
-      <c r="O32" s="366"/>
-      <c r="P32" s="366"/>
-      <c r="Q32" s="366"/>
-      <c r="R32" s="366"/>
-      <c r="S32" s="366"/>
-      <c r="T32" s="366"/>
-      <c r="U32" s="366"/>
-      <c r="V32" s="366"/>
-      <c r="W32" s="366"/>
-      <c r="X32" s="366"/>
-      <c r="Y32" s="367"/>
-      <c r="Z32" s="368"/>
-      <c r="AA32" s="369"/>
-      <c r="AB32" s="369"/>
-      <c r="AC32" s="369"/>
+      <c r="B32" s="229"/>
+      <c r="C32" s="229"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="231"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="231"/>
+      <c r="T32" s="231"/>
+      <c r="U32" s="231"/>
+      <c r="V32" s="231"/>
+      <c r="W32" s="231"/>
+      <c r="X32" s="231"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="233"/>
+      <c r="AA32" s="234"/>
+      <c r="AB32" s="234"/>
+      <c r="AC32" s="234"/>
       <c r="AD32" s="46"/>
       <c r="AE32" s="46"/>
       <c r="AF32" s="46"/>
@@ -8539,37 +8609,37 @@
       <c r="AJ33" s="50"/>
     </row>
     <row r="34" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="450" t="s">
         <v>905</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="154" t="s">
+      <c r="B34" s="451"/>
+      <c r="C34" s="451"/>
+      <c r="D34" s="451"/>
+      <c r="E34" s="451"/>
+      <c r="F34" s="451"/>
+      <c r="G34" s="452"/>
+      <c r="H34" s="453" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="157" t="s">
+      <c r="I34" s="454"/>
+      <c r="J34" s="454"/>
+      <c r="K34" s="454"/>
+      <c r="L34" s="454"/>
+      <c r="M34" s="454"/>
+      <c r="N34" s="454"/>
+      <c r="O34" s="454"/>
+      <c r="P34" s="454"/>
+      <c r="Q34" s="455"/>
+      <c r="R34" s="456" t="s">
         <v>1</v>
       </c>
-      <c r="S34" s="158"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="158"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="159"/>
+      <c r="S34" s="457"/>
+      <c r="T34" s="457"/>
+      <c r="U34" s="457"/>
+      <c r="V34" s="457"/>
+      <c r="W34" s="457"/>
+      <c r="X34" s="457"/>
+      <c r="Y34" s="458"/>
       <c r="Z34" s="56"/>
       <c r="AA34" s="57"/>
       <c r="AB34" s="57"/>
@@ -8583,37 +8653,37 @@
       <c r="AJ34" s="61"/>
     </row>
     <row r="35" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="424" t="s">
         <v>904</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163" t="s">
+      <c r="B35" s="425"/>
+      <c r="C35" s="425"/>
+      <c r="D35" s="425"/>
+      <c r="E35" s="425"/>
+      <c r="F35" s="425"/>
+      <c r="G35" s="426"/>
+      <c r="H35" s="459" t="s">
         <v>893</v>
       </c>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="157" t="s">
+      <c r="I35" s="460"/>
+      <c r="J35" s="460"/>
+      <c r="K35" s="460"/>
+      <c r="L35" s="460"/>
+      <c r="M35" s="460"/>
+      <c r="N35" s="460"/>
+      <c r="O35" s="460"/>
+      <c r="P35" s="460"/>
+      <c r="Q35" s="461"/>
+      <c r="R35" s="456" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="159"/>
+      <c r="S35" s="457"/>
+      <c r="T35" s="457"/>
+      <c r="U35" s="457"/>
+      <c r="V35" s="457"/>
+      <c r="W35" s="457"/>
+      <c r="X35" s="457"/>
+      <c r="Y35" s="458"/>
       <c r="Z35" s="56"/>
       <c r="AA35" s="57"/>
       <c r="AB35" s="57"/>
@@ -8627,34 +8697,34 @@
       <c r="AJ35" s="61"/>
     </row>
     <row r="36" spans="1:36" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="190"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="191"/>
-      <c r="R36" s="140" t="str">
+      <c r="A36" s="424"/>
+      <c r="B36" s="425"/>
+      <c r="C36" s="425"/>
+      <c r="D36" s="425"/>
+      <c r="E36" s="425"/>
+      <c r="F36" s="425"/>
+      <c r="G36" s="426"/>
+      <c r="H36" s="427"/>
+      <c r="I36" s="428"/>
+      <c r="J36" s="428"/>
+      <c r="K36" s="428"/>
+      <c r="L36" s="428"/>
+      <c r="M36" s="428"/>
+      <c r="N36" s="428"/>
+      <c r="O36" s="428"/>
+      <c r="P36" s="428"/>
+      <c r="Q36" s="429"/>
+      <c r="R36" s="439" t="str">
         <f>G5</f>
         <v xml:space="preserve">Комплекс зданий Центра международных конференций </v>
       </c>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
-      <c r="U36" s="141"/>
-      <c r="V36" s="141"/>
-      <c r="W36" s="141"/>
-      <c r="X36" s="141"/>
-      <c r="Y36" s="142"/>
+      <c r="S36" s="440"/>
+      <c r="T36" s="440"/>
+      <c r="U36" s="440"/>
+      <c r="V36" s="440"/>
+      <c r="W36" s="440"/>
+      <c r="X36" s="440"/>
+      <c r="Y36" s="441"/>
       <c r="Z36" s="56"/>
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
@@ -8668,44 +8738,44 @@
       <c r="AJ36" s="61"/>
     </row>
     <row r="37" spans="1:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="143" t="s">
+      <c r="A37" s="462"/>
+      <c r="B37" s="463"/>
+      <c r="C37" s="442" t="s">
         <v>910</v>
       </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143" t="s">
+      <c r="D37" s="442"/>
+      <c r="E37" s="442" t="s">
         <v>911</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="148" t="str">
+      <c r="F37" s="442"/>
+      <c r="G37" s="443"/>
+      <c r="H37" s="444"/>
+      <c r="I37" s="445"/>
+      <c r="J37" s="445"/>
+      <c r="K37" s="445"/>
+      <c r="L37" s="445"/>
+      <c r="M37" s="445"/>
+      <c r="N37" s="445"/>
+      <c r="O37" s="445"/>
+      <c r="P37" s="445"/>
+      <c r="Q37" s="446"/>
+      <c r="R37" s="447" t="str">
         <f>G4</f>
         <v xml:space="preserve">Complexe des bâtiments du Centre des conférences internationales </v>
       </c>
-      <c r="S37" s="149"/>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="149"/>
-      <c r="W37" s="149"/>
-      <c r="X37" s="149"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="384" t="s">
+      <c r="S37" s="448"/>
+      <c r="T37" s="448"/>
+      <c r="U37" s="448"/>
+      <c r="V37" s="448"/>
+      <c r="W37" s="448"/>
+      <c r="X37" s="448"/>
+      <c r="Y37" s="449"/>
+      <c r="Z37" s="156" t="s">
         <v>882</v>
       </c>
-      <c r="AA37" s="385"/>
-      <c r="AB37" s="385"/>
-      <c r="AC37" s="386"/>
+      <c r="AA37" s="157"/>
+      <c r="AB37" s="157"/>
+      <c r="AC37" s="158"/>
       <c r="AD37" s="57"/>
       <c r="AE37" s="57"/>
       <c r="AF37" s="57"/>
@@ -8715,384 +8785,384 @@
       <c r="AJ37" s="61"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="442" t="s">
+      <c r="A38" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="443"/>
-      <c r="C38" s="387">
+      <c r="B38" s="213"/>
+      <c r="C38" s="159">
         <v>43592</v>
       </c>
-      <c r="D38" s="387"/>
-      <c r="E38" s="387">
+      <c r="D38" s="159"/>
+      <c r="E38" s="159">
         <v>43592</v>
       </c>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
-      <c r="H38" s="393" t="s">
+      <c r="F38" s="161"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="394"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
-      <c r="P38" s="187"/>
-      <c r="Q38" s="188"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="421"/>
+      <c r="K38" s="422"/>
+      <c r="L38" s="422"/>
+      <c r="M38" s="422"/>
+      <c r="N38" s="422"/>
+      <c r="O38" s="422"/>
+      <c r="P38" s="422"/>
+      <c r="Q38" s="423"/>
       <c r="R38" s="89" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="90"/>
-      <c r="T38" s="395"/>
-      <c r="U38" s="395"/>
-      <c r="V38" s="395"/>
-      <c r="W38" s="395"/>
-      <c r="X38" s="395"/>
-      <c r="Y38" s="396"/>
-      <c r="Z38" s="399"/>
-      <c r="AA38" s="400"/>
-      <c r="AB38" s="400"/>
-      <c r="AC38" s="400"/>
-      <c r="AD38" s="400"/>
-      <c r="AE38" s="400"/>
-      <c r="AF38" s="400"/>
-      <c r="AG38" s="400"/>
-      <c r="AH38" s="400"/>
-      <c r="AI38" s="400"/>
-      <c r="AJ38" s="401"/>
+      <c r="T38" s="167"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="167"/>
+      <c r="X38" s="167"/>
+      <c r="Y38" s="168"/>
+      <c r="Z38" s="171"/>
+      <c r="AA38" s="172"/>
+      <c r="AB38" s="172"/>
+      <c r="AC38" s="172"/>
+      <c r="AD38" s="172"/>
+      <c r="AE38" s="172"/>
+      <c r="AF38" s="172"/>
+      <c r="AG38" s="172"/>
+      <c r="AH38" s="172"/>
+      <c r="AI38" s="172"/>
+      <c r="AJ38" s="173"/>
     </row>
     <row r="39" spans="1:36" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="444" t="s">
+      <c r="A39" s="214" t="s">
         <v>874</v>
       </c>
-      <c r="B39" s="445"/>
-      <c r="C39" s="388"/>
-      <c r="D39" s="388"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="391"/>
-      <c r="G39" s="392"/>
-      <c r="H39" s="408" t="s">
+      <c r="B39" s="215"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="180" t="s">
         <v>874</v>
       </c>
-      <c r="I39" s="409"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184"/>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="185"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="418"/>
+      <c r="K39" s="419"/>
+      <c r="L39" s="419"/>
+      <c r="M39" s="419"/>
+      <c r="N39" s="419"/>
+      <c r="O39" s="419"/>
+      <c r="P39" s="419"/>
+      <c r="Q39" s="420"/>
       <c r="R39" s="91" t="s">
         <v>874</v>
       </c>
       <c r="S39" s="92"/>
-      <c r="T39" s="397"/>
-      <c r="U39" s="397"/>
-      <c r="V39" s="397"/>
-      <c r="W39" s="397"/>
-      <c r="X39" s="397"/>
-      <c r="Y39" s="398"/>
-      <c r="Z39" s="402"/>
-      <c r="AA39" s="403"/>
-      <c r="AB39" s="403"/>
-      <c r="AC39" s="403"/>
-      <c r="AD39" s="403"/>
-      <c r="AE39" s="403"/>
-      <c r="AF39" s="403"/>
-      <c r="AG39" s="403"/>
-      <c r="AH39" s="403"/>
-      <c r="AI39" s="403"/>
-      <c r="AJ39" s="404"/>
+      <c r="T39" s="169"/>
+      <c r="U39" s="169"/>
+      <c r="V39" s="169"/>
+      <c r="W39" s="169"/>
+      <c r="X39" s="169"/>
+      <c r="Y39" s="170"/>
+      <c r="Z39" s="174"/>
+      <c r="AA39" s="175"/>
+      <c r="AB39" s="175"/>
+      <c r="AC39" s="175"/>
+      <c r="AD39" s="175"/>
+      <c r="AE39" s="175"/>
+      <c r="AF39" s="175"/>
+      <c r="AG39" s="175"/>
+      <c r="AH39" s="175"/>
+      <c r="AI39" s="175"/>
+      <c r="AJ39" s="176"/>
     </row>
     <row r="40" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="446" t="s">
+      <c r="A40" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="447"/>
-      <c r="C40" s="410" t="s">
+      <c r="B40" s="217"/>
+      <c r="C40" s="182" t="s">
         <v>916</v>
       </c>
-      <c r="D40" s="410"/>
-      <c r="E40" s="410" t="s">
+      <c r="D40" s="182"/>
+      <c r="E40" s="182" t="s">
         <v>914</v>
       </c>
-      <c r="F40" s="410"/>
-      <c r="G40" s="412"/>
-      <c r="H40" s="414" t="s">
+      <c r="F40" s="182"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="415"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="181"/>
-      <c r="M40" s="181"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="181"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="182"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="415"/>
+      <c r="K40" s="416"/>
+      <c r="L40" s="416"/>
+      <c r="M40" s="416"/>
+      <c r="N40" s="416"/>
+      <c r="O40" s="416"/>
+      <c r="P40" s="416"/>
+      <c r="Q40" s="417"/>
       <c r="R40" s="85" t="s">
         <v>11</v>
       </c>
       <c r="S40" s="86"/>
-      <c r="T40" s="416"/>
-      <c r="U40" s="417"/>
-      <c r="V40" s="417"/>
-      <c r="W40" s="417"/>
-      <c r="X40" s="417"/>
-      <c r="Y40" s="418"/>
-      <c r="Z40" s="402"/>
-      <c r="AA40" s="403"/>
-      <c r="AB40" s="403"/>
-      <c r="AC40" s="403"/>
-      <c r="AD40" s="403"/>
-      <c r="AE40" s="403"/>
-      <c r="AF40" s="403"/>
-      <c r="AG40" s="403"/>
-      <c r="AH40" s="403"/>
-      <c r="AI40" s="403"/>
-      <c r="AJ40" s="404"/>
+      <c r="T40" s="188"/>
+      <c r="U40" s="189"/>
+      <c r="V40" s="189"/>
+      <c r="W40" s="189"/>
+      <c r="X40" s="189"/>
+      <c r="Y40" s="190"/>
+      <c r="Z40" s="174"/>
+      <c r="AA40" s="175"/>
+      <c r="AB40" s="175"/>
+      <c r="AC40" s="175"/>
+      <c r="AD40" s="175"/>
+      <c r="AE40" s="175"/>
+      <c r="AF40" s="175"/>
+      <c r="AG40" s="175"/>
+      <c r="AH40" s="175"/>
+      <c r="AI40" s="175"/>
+      <c r="AJ40" s="176"/>
     </row>
     <row r="41" spans="1:36" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="448" t="s">
+      <c r="A41" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="449"/>
-      <c r="C41" s="411"/>
-      <c r="D41" s="411"/>
-      <c r="E41" s="411"/>
-      <c r="F41" s="411"/>
-      <c r="G41" s="413"/>
-      <c r="H41" s="421" t="s">
+      <c r="B41" s="219"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="422"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="185"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="418"/>
+      <c r="K41" s="419"/>
+      <c r="L41" s="419"/>
+      <c r="M41" s="419"/>
+      <c r="N41" s="419"/>
+      <c r="O41" s="419"/>
+      <c r="P41" s="419"/>
+      <c r="Q41" s="420"/>
       <c r="R41" s="87" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="88"/>
-      <c r="T41" s="419"/>
-      <c r="U41" s="419"/>
-      <c r="V41" s="419"/>
-      <c r="W41" s="419"/>
-      <c r="X41" s="419"/>
-      <c r="Y41" s="420"/>
-      <c r="Z41" s="402"/>
-      <c r="AA41" s="403"/>
-      <c r="AB41" s="403"/>
-      <c r="AC41" s="403"/>
-      <c r="AD41" s="403"/>
-      <c r="AE41" s="403"/>
-      <c r="AF41" s="403"/>
-      <c r="AG41" s="403"/>
-      <c r="AH41" s="403"/>
-      <c r="AI41" s="403"/>
-      <c r="AJ41" s="404"/>
+      <c r="T41" s="191"/>
+      <c r="U41" s="191"/>
+      <c r="V41" s="191"/>
+      <c r="W41" s="191"/>
+      <c r="X41" s="191"/>
+      <c r="Y41" s="192"/>
+      <c r="Z41" s="174"/>
+      <c r="AA41" s="175"/>
+      <c r="AB41" s="175"/>
+      <c r="AC41" s="175"/>
+      <c r="AD41" s="175"/>
+      <c r="AE41" s="175"/>
+      <c r="AF41" s="175"/>
+      <c r="AG41" s="175"/>
+      <c r="AH41" s="175"/>
+      <c r="AI41" s="175"/>
+      <c r="AJ41" s="176"/>
     </row>
     <row r="42" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="404" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="423"/>
-      <c r="D42" s="423"/>
-      <c r="E42" s="423"/>
-      <c r="F42" s="423"/>
-      <c r="G42" s="425"/>
-      <c r="H42" s="427" t="s">
+      <c r="B42" s="405"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="428"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="175"/>
-      <c r="M42" s="175"/>
-      <c r="N42" s="175"/>
-      <c r="O42" s="175"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="176"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="409"/>
+      <c r="K42" s="410"/>
+      <c r="L42" s="410"/>
+      <c r="M42" s="410"/>
+      <c r="N42" s="410"/>
+      <c r="O42" s="410"/>
+      <c r="P42" s="410"/>
+      <c r="Q42" s="411"/>
       <c r="R42" s="63" t="s">
         <v>10</v>
       </c>
       <c r="S42" s="72"/>
-      <c r="T42" s="429"/>
-      <c r="U42" s="429"/>
-      <c r="V42" s="429"/>
-      <c r="W42" s="429"/>
-      <c r="X42" s="429"/>
-      <c r="Y42" s="430"/>
-      <c r="Z42" s="402"/>
-      <c r="AA42" s="403"/>
-      <c r="AB42" s="403"/>
-      <c r="AC42" s="403"/>
-      <c r="AD42" s="403"/>
-      <c r="AE42" s="403"/>
-      <c r="AF42" s="403"/>
-      <c r="AG42" s="403"/>
-      <c r="AH42" s="403"/>
-      <c r="AI42" s="403"/>
-      <c r="AJ42" s="404"/>
+      <c r="T42" s="201"/>
+      <c r="U42" s="201"/>
+      <c r="V42" s="201"/>
+      <c r="W42" s="201"/>
+      <c r="X42" s="201"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="174"/>
+      <c r="AA42" s="175"/>
+      <c r="AB42" s="175"/>
+      <c r="AC42" s="175"/>
+      <c r="AD42" s="175"/>
+      <c r="AE42" s="175"/>
+      <c r="AF42" s="175"/>
+      <c r="AG42" s="175"/>
+      <c r="AH42" s="175"/>
+      <c r="AI42" s="175"/>
+      <c r="AJ42" s="176"/>
     </row>
     <row r="43" spans="1:36" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="170" t="s">
+      <c r="A43" s="406" t="s">
         <v>876</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="424"/>
-      <c r="D43" s="424"/>
-      <c r="E43" s="424"/>
-      <c r="F43" s="424"/>
-      <c r="G43" s="426"/>
-      <c r="H43" s="433" t="s">
+      <c r="B43" s="206"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="205" t="s">
         <v>876</v>
       </c>
-      <c r="I43" s="171"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="178"/>
-      <c r="P43" s="178"/>
-      <c r="Q43" s="179"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="412"/>
+      <c r="K43" s="413"/>
+      <c r="L43" s="413"/>
+      <c r="M43" s="413"/>
+      <c r="N43" s="413"/>
+      <c r="O43" s="413"/>
+      <c r="P43" s="413"/>
+      <c r="Q43" s="414"/>
       <c r="R43" s="62" t="s">
         <v>876</v>
       </c>
       <c r="S43" s="73"/>
-      <c r="T43" s="431"/>
-      <c r="U43" s="431"/>
-      <c r="V43" s="431"/>
-      <c r="W43" s="431"/>
-      <c r="X43" s="431"/>
-      <c r="Y43" s="432"/>
-      <c r="Z43" s="402"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
-      <c r="AC43" s="403"/>
-      <c r="AD43" s="403"/>
-      <c r="AE43" s="403"/>
-      <c r="AF43" s="403"/>
-      <c r="AG43" s="403"/>
-      <c r="AH43" s="403"/>
-      <c r="AI43" s="403"/>
-      <c r="AJ43" s="404"/>
+      <c r="T43" s="203"/>
+      <c r="U43" s="203"/>
+      <c r="V43" s="203"/>
+      <c r="W43" s="203"/>
+      <c r="X43" s="203"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="174"/>
+      <c r="AA43" s="175"/>
+      <c r="AB43" s="175"/>
+      <c r="AC43" s="175"/>
+      <c r="AD43" s="175"/>
+      <c r="AE43" s="175"/>
+      <c r="AF43" s="175"/>
+      <c r="AG43" s="175"/>
+      <c r="AH43" s="175"/>
+      <c r="AI43" s="175"/>
+      <c r="AJ43" s="176"/>
     </row>
     <row r="44" spans="1:36" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="452" t="s">
+      <c r="A44" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="B44" s="453"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="436"/>
-      <c r="E44" s="454" t="s">
+      <c r="B44" s="140"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="455"/>
-      <c r="G44" s="456"/>
-      <c r="H44" s="457" t="s">
+      <c r="F44" s="144"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="146" t="s">
         <v>394</v>
       </c>
-      <c r="I44" s="458"/>
-      <c r="J44" s="172" t="s">
+      <c r="I44" s="147"/>
+      <c r="J44" s="407" t="s">
         <v>325</v>
       </c>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="459" t="s">
+      <c r="K44" s="407"/>
+      <c r="L44" s="407"/>
+      <c r="M44" s="408"/>
+      <c r="N44" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="O44" s="460"/>
-      <c r="P44" s="459" t="s">
+      <c r="O44" s="149"/>
+      <c r="P44" s="148" t="s">
         <v>327</v>
       </c>
-      <c r="Q44" s="461"/>
-      <c r="R44" s="454" t="s">
+      <c r="Q44" s="150"/>
+      <c r="R44" s="143" t="s">
         <v>395</v>
       </c>
-      <c r="S44" s="455"/>
-      <c r="T44" s="455"/>
-      <c r="U44" s="455"/>
-      <c r="V44" s="456"/>
-      <c r="W44" s="454" t="s">
+      <c r="S44" s="144"/>
+      <c r="T44" s="144"/>
+      <c r="U44" s="144"/>
+      <c r="V44" s="145"/>
+      <c r="W44" s="143" t="s">
         <v>891</v>
       </c>
-      <c r="X44" s="462"/>
-      <c r="Y44" s="463"/>
-      <c r="Z44" s="402"/>
-      <c r="AA44" s="403"/>
-      <c r="AB44" s="403"/>
-      <c r="AC44" s="403"/>
-      <c r="AD44" s="403"/>
-      <c r="AE44" s="403"/>
-      <c r="AF44" s="403"/>
-      <c r="AG44" s="403"/>
-      <c r="AH44" s="403"/>
-      <c r="AI44" s="403"/>
-      <c r="AJ44" s="404"/>
+      <c r="X44" s="151"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="174"/>
+      <c r="AA44" s="175"/>
+      <c r="AB44" s="175"/>
+      <c r="AC44" s="175"/>
+      <c r="AD44" s="175"/>
+      <c r="AE44" s="175"/>
+      <c r="AF44" s="175"/>
+      <c r="AG44" s="175"/>
+      <c r="AH44" s="175"/>
+      <c r="AI44" s="175"/>
+      <c r="AJ44" s="176"/>
     </row>
     <row r="45" spans="1:36" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="434" t="s">
+      <c r="A45" s="207" t="s">
         <v>915</v>
       </c>
-      <c r="B45" s="435"/>
-      <c r="C45" s="435"/>
-      <c r="D45" s="436"/>
-      <c r="E45" s="192" t="s">
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="430" t="s">
         <v>951</v>
       </c>
-      <c r="F45" s="193"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="437" t="s">
+      <c r="F45" s="431"/>
+      <c r="G45" s="432"/>
+      <c r="H45" s="208" t="s">
         <v>917</v>
       </c>
-      <c r="I45" s="438"/>
-      <c r="J45" s="195" t="s">
+      <c r="I45" s="209"/>
+      <c r="J45" s="433" t="s">
         <v>952</v>
       </c>
-      <c r="K45" s="196"/>
-      <c r="L45" s="196"/>
-      <c r="M45" s="197"/>
-      <c r="N45" s="198" t="s">
+      <c r="K45" s="434"/>
+      <c r="L45" s="434"/>
+      <c r="M45" s="435"/>
+      <c r="N45" s="436" t="s">
         <v>953</v>
       </c>
-      <c r="O45" s="199"/>
-      <c r="P45" s="200" t="s">
+      <c r="O45" s="437"/>
+      <c r="P45" s="438" t="s">
         <v>954</v>
       </c>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="464">
+      <c r="Q45" s="437"/>
+      <c r="R45" s="153">
         <v>78100</v>
       </c>
-      <c r="S45" s="440"/>
-      <c r="T45" s="440"/>
-      <c r="U45" s="440"/>
-      <c r="V45" s="465"/>
-      <c r="W45" s="439" t="s">
+      <c r="S45" s="154"/>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="155"/>
+      <c r="W45" s="210" t="s">
         <v>955</v>
       </c>
-      <c r="X45" s="440"/>
-      <c r="Y45" s="441"/>
-      <c r="Z45" s="405"/>
-      <c r="AA45" s="406"/>
-      <c r="AB45" s="406"/>
-      <c r="AC45" s="406"/>
-      <c r="AD45" s="406"/>
-      <c r="AE45" s="406"/>
-      <c r="AF45" s="406"/>
-      <c r="AG45" s="406"/>
-      <c r="AH45" s="406"/>
-      <c r="AI45" s="406"/>
-      <c r="AJ45" s="407"/>
+      <c r="X45" s="154"/>
+      <c r="Y45" s="211"/>
+      <c r="Z45" s="177"/>
+      <c r="AA45" s="178"/>
+      <c r="AB45" s="178"/>
+      <c r="AC45" s="178"/>
+      <c r="AD45" s="178"/>
+      <c r="AE45" s="178"/>
+      <c r="AF45" s="178"/>
+      <c r="AG45" s="178"/>
+      <c r="AH45" s="178"/>
+      <c r="AI45" s="178"/>
+      <c r="AJ45" s="179"/>
     </row>
     <row r="46" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65"/>
@@ -9123,27 +9193,110 @@
     </row>
     <row r="47" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE48" s="450" t="s">
+      <c r="AE48" s="137" t="s">
         <v>906</v>
       </c>
-      <c r="AF48" s="450"/>
-      <c r="AG48" s="450"/>
-      <c r="AH48" s="450"/>
-      <c r="AI48" s="451"/>
+      <c r="AF48" s="137"/>
+      <c r="AG48" s="137"/>
+      <c r="AH48" s="137"/>
+      <c r="AI48" s="138"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="125">
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:Q37"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:Q35"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J42:Q43"/>
+    <mergeCell ref="J40:Q41"/>
+    <mergeCell ref="J38:Q39"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:Q36"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:Y4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:Y5"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:Y1"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:Y9"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AJ6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="Z10:AB12"/>
+    <mergeCell ref="AC10:AJ12"/>
+    <mergeCell ref="Z15:AA20"/>
+    <mergeCell ref="AB15:AC20"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AJ22"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:Y28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="Z25:AJ25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A11:K22"/>
+    <mergeCell ref="M11:X22"/>
+    <mergeCell ref="Z26:AJ26"/>
+    <mergeCell ref="Z28:AJ28"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:Y31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:Y32"/>
+    <mergeCell ref="Z32:AC32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:Y29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:Y30"/>
     <mergeCell ref="Z37:AC37"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -9168,146 +9321,63 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:Y31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:Y32"/>
-    <mergeCell ref="Z32:AC32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:Y29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:Y30"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="Z10:AB12"/>
-    <mergeCell ref="AC10:AJ12"/>
-    <mergeCell ref="Z15:AA20"/>
-    <mergeCell ref="AB15:AC20"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AJ22"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:Y28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="Z25:AJ25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A11:K22"/>
-    <mergeCell ref="M11:X22"/>
-    <mergeCell ref="Z26:AJ26"/>
-    <mergeCell ref="Z28:AJ28"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:Y9"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AJ6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:Y4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:Y5"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:Y1"/>
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J42:Q43"/>
-    <mergeCell ref="J40:Q41"/>
-    <mergeCell ref="J38:Q39"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:Q36"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:Q37"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:Q34"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:Q35"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="AE48:AI48"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="R45:V45"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:Y2">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
       <formula>$G$2=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:Y3">
-    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
       <formula>$G$3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="27" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 K6:L7">
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 K6:L7">
-    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>$R$45:$V$45=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
       <formula>$AC$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AJ8">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
       <formula>$AC$8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AD3">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>$AC$3=""</formula>
     </cfRule>
     <cfRule type="expression" priority="24" stopIfTrue="1">
@@ -9315,77 +9385,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AJ6">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
       <formula>$AC$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AC20">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>$AB$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
       <formula>$AB$22=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$A$25=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND($A$25="Oui/да",$A$28="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>$M$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:Y9">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>$D$9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:Y8">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$D$8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$T$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9425,10 +9495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9439,497 +9509,664 @@
     <col min="4" max="8" width="7.85546875" style="93" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="93" customWidth="1"/>
     <col min="10" max="10" width="12" style="93" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="93"/>
+    <col min="11" max="12" width="11.42578125" style="93"/>
+    <col min="13" max="13" width="51.5703125" style="93" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="93"/>
+    <col min="16" max="16" width="51.5703125" style="93" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="473" t="s">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="475" t="s">
         <v>949</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="474"/>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="474"/>
-      <c r="J1" s="475"/>
-    </row>
-    <row r="2" spans="1:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="124"/>
-    </row>
-    <row r="4" spans="1:10" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123">
+      <c r="B1" s="476"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="477"/>
+    </row>
+    <row r="2" spans="1:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="125"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="1:16" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="120">
         <v>1</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="119" t="s">
         <v>948</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="118" t="s">
         <v>931</v>
       </c>
-      <c r="D4" s="476"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
-      <c r="I4" s="477"/>
-      <c r="J4" s="478"/>
-    </row>
-    <row r="5" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="105"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114">
+      <c r="D4" s="478"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="479"/>
+      <c r="G4" s="479"/>
+      <c r="H4" s="479"/>
+      <c r="I4" s="479"/>
+      <c r="J4" s="480"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="119" t="s">
+        <v>969</v>
+      </c>
+      <c r="O4" s="120"/>
+      <c r="P4" s="119" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="103"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="116"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="116"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="111">
         <v>2</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="110" t="s">
         <v>947</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D6" s="472"/>
-      <c r="E6" s="467"/>
-      <c r="F6" s="467"/>
-      <c r="G6" s="467"/>
-      <c r="H6" s="467"/>
-      <c r="I6" s="467"/>
-      <c r="J6" s="468"/>
-    </row>
-    <row r="7" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="105"/>
-    </row>
-    <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114">
+      <c r="D6" s="464"/>
+      <c r="E6" s="465"/>
+      <c r="F6" s="465"/>
+      <c r="G6" s="465"/>
+      <c r="H6" s="465"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="110" t="s">
+        <v>970</v>
+      </c>
+      <c r="O6" s="111"/>
+      <c r="P6" s="110" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="108"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="103"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="107"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="107"/>
+    </row>
+    <row r="8" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="111">
         <v>3</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="110" t="s">
         <v>946</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D8" s="466"/>
-      <c r="E8" s="467"/>
-      <c r="F8" s="467"/>
-      <c r="G8" s="467"/>
-      <c r="H8" s="467"/>
-      <c r="I8" s="467"/>
-      <c r="J8" s="468"/>
-    </row>
-    <row r="9" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114">
+      <c r="D8" s="474"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="465"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="466"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="110" t="s">
+        <v>956</v>
+      </c>
+      <c r="O8" s="111"/>
+      <c r="P8" s="110" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="108"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="103"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="107"/>
+    </row>
+    <row r="10" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="111">
         <v>4</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="110" t="s">
         <v>945</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D10" s="466"/>
-      <c r="E10" s="467"/>
-      <c r="F10" s="467"/>
-      <c r="G10" s="467"/>
-      <c r="H10" s="467"/>
-      <c r="I10" s="467"/>
-      <c r="J10" s="468"/>
-    </row>
-    <row r="11" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="103">
+      <c r="D10" s="474"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="465"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="465"/>
+      <c r="J10" s="466"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="110" t="s">
+        <v>957</v>
+      </c>
+      <c r="O10" s="111"/>
+      <c r="P10" s="110" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="108"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="103"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="107"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="107"/>
+    </row>
+    <row r="12" spans="1:16" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="102">
         <v>5</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>944</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="100" t="s">
         <v>931</v>
       </c>
-      <c r="D12" s="469"/>
-      <c r="E12" s="470"/>
-      <c r="F12" s="470"/>
-      <c r="G12" s="470"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="470"/>
-      <c r="J12" s="471"/>
-    </row>
-    <row r="13" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="110"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114" t="s">
+      <c r="D12" s="471"/>
+      <c r="E12" s="472"/>
+      <c r="F12" s="472"/>
+      <c r="G12" s="472"/>
+      <c r="H12" s="472"/>
+      <c r="I12" s="472"/>
+      <c r="J12" s="473"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="101" t="s">
+        <v>958</v>
+      </c>
+      <c r="O12" s="102"/>
+      <c r="P12" s="101" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="103"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="107"/>
+    </row>
+    <row r="14" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="111" t="s">
         <v>943</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="110" t="s">
         <v>942</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D14" s="472"/>
-      <c r="E14" s="467"/>
-      <c r="F14" s="467"/>
-      <c r="G14" s="467"/>
-      <c r="H14" s="467"/>
-      <c r="I14" s="467"/>
-      <c r="J14" s="468"/>
-    </row>
-    <row r="15" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="D14" s="464"/>
+      <c r="E14" s="465"/>
+      <c r="F14" s="465"/>
+      <c r="G14" s="465"/>
+      <c r="H14" s="465"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="466"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="110" t="s">
+        <v>959</v>
+      </c>
+      <c r="O14" s="111"/>
+      <c r="P14" s="110" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="103"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="107"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="107"/>
+    </row>
+    <row r="16" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="111" t="s">
         <v>941</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="110" t="s">
         <v>940</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D16" s="472"/>
-      <c r="E16" s="467"/>
-      <c r="F16" s="467"/>
-      <c r="G16" s="467"/>
-      <c r="H16" s="467"/>
-      <c r="I16" s="467"/>
-      <c r="J16" s="468"/>
-    </row>
-    <row r="17" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="110"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="105"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114">
+      <c r="D16" s="464"/>
+      <c r="E16" s="465"/>
+      <c r="F16" s="465"/>
+      <c r="G16" s="465"/>
+      <c r="H16" s="465"/>
+      <c r="I16" s="465"/>
+      <c r="J16" s="466"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="110" t="s">
+        <v>960</v>
+      </c>
+      <c r="O16" s="111"/>
+      <c r="P16" s="110" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="103"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="107"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="107"/>
+    </row>
+    <row r="18" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="111">
         <v>8</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="110" t="s">
         <v>939</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D18" s="472"/>
-      <c r="E18" s="467"/>
-      <c r="F18" s="467"/>
-      <c r="G18" s="467"/>
-      <c r="H18" s="467"/>
-      <c r="I18" s="467"/>
-      <c r="J18" s="468"/>
-    </row>
-    <row r="19" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="105"/>
-    </row>
-    <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="114">
+      <c r="D18" s="464"/>
+      <c r="E18" s="465"/>
+      <c r="F18" s="465"/>
+      <c r="G18" s="465"/>
+      <c r="H18" s="465"/>
+      <c r="I18" s="465"/>
+      <c r="J18" s="466"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="110" t="s">
+        <v>961</v>
+      </c>
+      <c r="O18" s="111"/>
+      <c r="P18" s="110" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="108"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="103"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="107"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="107"/>
+    </row>
+    <row r="20" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="111">
         <v>9</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="110" t="s">
         <v>938</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D20" s="480"/>
-      <c r="E20" s="481"/>
-      <c r="F20" s="481"/>
-      <c r="G20" s="481"/>
-      <c r="H20" s="481"/>
-      <c r="I20" s="481"/>
-      <c r="J20" s="482"/>
-      <c r="N20" s="104"/>
-    </row>
-    <row r="21" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="115"/>
-      <c r="N21" s="104"/>
-    </row>
-    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114">
+      <c r="D20" s="467"/>
+      <c r="E20" s="468"/>
+      <c r="F20" s="468"/>
+      <c r="G20" s="468"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="468"/>
+      <c r="J20" s="469"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="110" t="s">
+        <v>962</v>
+      </c>
+      <c r="O20" s="111"/>
+      <c r="P20" s="110" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="108"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="112"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="107"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="107"/>
+    </row>
+    <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="111">
         <v>10</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="110" t="s">
         <v>937</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D22" s="472"/>
-      <c r="E22" s="467"/>
-      <c r="F22" s="467"/>
-      <c r="G22" s="467"/>
-      <c r="H22" s="467"/>
-      <c r="I22" s="467"/>
-      <c r="J22" s="468"/>
-      <c r="N22" s="104"/>
-    </row>
-    <row r="23" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="105"/>
-      <c r="N23" s="104"/>
-    </row>
-    <row r="24" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114">
+      <c r="D22" s="464"/>
+      <c r="E22" s="465"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="465"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="465"/>
+      <c r="J22" s="466"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="110" t="s">
+        <v>963</v>
+      </c>
+      <c r="O22" s="111"/>
+      <c r="P22" s="110" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="103"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="107"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="107"/>
+    </row>
+    <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="111">
         <v>11</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="110" t="s">
         <v>936</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="D24" s="472"/>
-      <c r="E24" s="467"/>
-      <c r="F24" s="467"/>
-      <c r="G24" s="467"/>
-      <c r="H24" s="467"/>
-      <c r="I24" s="467"/>
-      <c r="J24" s="468"/>
-      <c r="N24" s="111"/>
-    </row>
-    <row r="25" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="105"/>
-      <c r="N25" s="104"/>
-    </row>
-    <row r="26" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103">
+      <c r="D24" s="464"/>
+      <c r="E24" s="465"/>
+      <c r="F24" s="465"/>
+      <c r="G24" s="465"/>
+      <c r="H24" s="465"/>
+      <c r="I24" s="465"/>
+      <c r="J24" s="466"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="110" t="s">
+        <v>964</v>
+      </c>
+      <c r="O24" s="111"/>
+      <c r="P24" s="110" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="108"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="103"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="107"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="107"/>
+    </row>
+    <row r="26" spans="1:16" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="102">
         <v>12</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="101" t="s">
         <v>935</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="100" t="s">
         <v>931</v>
       </c>
-      <c r="D26" s="469"/>
-      <c r="E26" s="470"/>
-      <c r="F26" s="470"/>
-      <c r="G26" s="470"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="470"/>
-      <c r="J26" s="471"/>
-      <c r="N26" s="100"/>
-    </row>
-    <row r="27" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="105"/>
-      <c r="N27" s="104"/>
-    </row>
-    <row r="28" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103">
+      <c r="D26" s="471"/>
+      <c r="E26" s="472"/>
+      <c r="F26" s="472"/>
+      <c r="G26" s="472"/>
+      <c r="H26" s="472"/>
+      <c r="I26" s="472"/>
+      <c r="J26" s="473"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="101" t="s">
+        <v>965</v>
+      </c>
+      <c r="O26" s="102"/>
+      <c r="P26" s="101" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="108"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="103"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="107"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="107"/>
+    </row>
+    <row r="28" spans="1:16" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="102">
         <v>13</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="101" t="s">
         <v>934</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="100" t="s">
         <v>931</v>
       </c>
-      <c r="D28" s="469"/>
-      <c r="E28" s="470"/>
-      <c r="F28" s="470"/>
-      <c r="G28" s="470"/>
-      <c r="H28" s="470"/>
-      <c r="I28" s="470"/>
-      <c r="J28" s="471"/>
-      <c r="N28" s="100"/>
-    </row>
-    <row r="29" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="105"/>
-      <c r="N29" s="104"/>
-    </row>
-    <row r="30" spans="1:14" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103">
+      <c r="D28" s="471"/>
+      <c r="E28" s="472"/>
+      <c r="F28" s="472"/>
+      <c r="G28" s="472"/>
+      <c r="H28" s="472"/>
+      <c r="I28" s="472"/>
+      <c r="J28" s="473"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="101" t="s">
+        <v>966</v>
+      </c>
+      <c r="O28" s="102"/>
+      <c r="P28" s="101" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="108"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="103"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="107"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="107"/>
+    </row>
+    <row r="30" spans="1:16" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="102">
         <v>14</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="101" t="s">
         <v>933</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="100" t="s">
         <v>931</v>
       </c>
-      <c r="D30" s="469"/>
-      <c r="E30" s="470"/>
-      <c r="F30" s="470"/>
-      <c r="G30" s="470"/>
-      <c r="H30" s="470"/>
-      <c r="I30" s="470"/>
-      <c r="J30" s="471"/>
-      <c r="N30" s="100"/>
-    </row>
-    <row r="31" spans="1:14" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="105"/>
-      <c r="N31" s="104"/>
-    </row>
-    <row r="32" spans="1:14" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103">
+      <c r="D30" s="471"/>
+      <c r="E30" s="472"/>
+      <c r="F30" s="472"/>
+      <c r="G30" s="472"/>
+      <c r="H30" s="472"/>
+      <c r="I30" s="472"/>
+      <c r="J30" s="473"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="101" t="s">
+        <v>967</v>
+      </c>
+      <c r="O30" s="102"/>
+      <c r="P30" s="101" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="108"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="103"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="107"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="107"/>
+    </row>
+    <row r="32" spans="1:16" s="99" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="102">
         <v>15</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="101" t="s">
         <v>932</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="100" t="s">
         <v>931</v>
       </c>
-      <c r="D32" s="469"/>
-      <c r="E32" s="470"/>
-      <c r="F32" s="470"/>
-      <c r="G32" s="470"/>
-      <c r="H32" s="470"/>
-      <c r="I32" s="470"/>
-      <c r="J32" s="471"/>
-      <c r="N32" s="100"/>
+      <c r="D32" s="471"/>
+      <c r="E32" s="472"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="472"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="473"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="101" t="s">
+        <v>968</v>
+      </c>
+      <c r="O32" s="102"/>
+      <c r="P32" s="101" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="98" t="s">
         <v>930</v>
       </c>
-      <c r="B33" s="479" t="s">
+      <c r="B33" s="470" t="s">
         <v>929</v>
       </c>
-      <c r="C33" s="479"/>
-      <c r="D33" s="479"/>
-      <c r="E33" s="479"/>
+      <c r="C33" s="470"/>
+      <c r="D33" s="470"/>
+      <c r="E33" s="470"/>
       <c r="F33" s="97"/>
       <c r="G33" s="97"/>
       <c r="H33" s="97"/>
@@ -10760,6 +10997,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D22:J22"/>
@@ -10769,14 +11014,6 @@
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="D30:J30"/>
     <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0"/>
@@ -10803,819 +11040,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="481" t="s">
         <v>950</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
-      <c r="K1" s="484"/>
-      <c r="L1" s="485"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="483"/>
     </row>
     <row r="2" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="136"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="132"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="129"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="132"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="132"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="132"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="129"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="132"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="132"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="129"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="132"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="129"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="132"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="129"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="132"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="129"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="132"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="129"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="132"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="129"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="132"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="129"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="132"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="132"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="129"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="132"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="129"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="132"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="129"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="132"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="129"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="132"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="129"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="135"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="132"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="129"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="132"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="129"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="132"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="129"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="132"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="129"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="132"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="129"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="132"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="135"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="132"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="134"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="132"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="129"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="134"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="132"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="129"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="135"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="132"/>
+      <c r="A32" s="132"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="129"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="134"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="132"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="129"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="132"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="129"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="132"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="129"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="132"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="134"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="132"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="129"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="134"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="132"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="129"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="134"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="132"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="129"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="134"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="132"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="129"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="134"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="132"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="129"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="134"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="132"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="129"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="134"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="132"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="129"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="134"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="132"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="129"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="132"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="129"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="134"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="132"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="129"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="134"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="132"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="129"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="134"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="132"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="129"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="134"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="132"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="129"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="134"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="132"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="129"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="134"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="132"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="129"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="134"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="132"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="129"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="134"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="132"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="129"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="134"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="132"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="129"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="134"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="132"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="129"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="134"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="132"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="129"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="134"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="132"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="129"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="134"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="132"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="129"/>
     </row>
     <row r="59" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="131"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="129"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="126"/>
     </row>
     <row r="60" spans="1:12" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
